--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311EA966-57E1-4B4A-A734-9FDB9F5E3688}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB1132-E87E-4A3E-8B0C-C0111F19DE32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="102">
   <si>
     <t>White Rook</t>
   </si>
@@ -221,6 +221,111 @@
   </si>
   <si>
     <t>D5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>FIRST TURN</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -554,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Y159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,6 +674,7 @@
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
     <col min="21" max="21" width="11.7109375" customWidth="1"/>
     <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -694,11 +800,18 @@
       </c>
       <c r="S5" s="1"/>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="V5" t="s">
         <v>66</v>
       </c>
+      <c r="W5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -734,6 +847,19 @@
         <v>57</v>
       </c>
       <c r="S6" s="1"/>
+      <c r="U6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -769,6 +895,19 @@
         <v>57</v>
       </c>
       <c r="S7" s="1"/>
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -804,6 +943,19 @@
         <v>57</v>
       </c>
       <c r="S8" s="1"/>
+      <c r="U8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -839,6 +991,19 @@
         <v>57</v>
       </c>
       <c r="S9" s="1"/>
+      <c r="U9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -874,6 +1039,19 @@
         <v>57</v>
       </c>
       <c r="S10" s="1"/>
+      <c r="U10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" t="s">
+        <v>68</v>
+      </c>
+      <c r="X10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -909,6 +1087,19 @@
         <v>57</v>
       </c>
       <c r="S11" s="1"/>
+      <c r="U11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" t="s">
+        <v>74</v>
+      </c>
+      <c r="X11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -944,6 +1135,19 @@
         <v>57</v>
       </c>
       <c r="S12" s="1"/>
+      <c r="U12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -1014,6 +1218,19 @@
         <v>57</v>
       </c>
       <c r="S14" s="1"/>
+      <c r="U14" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" t="s">
+        <v>66</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -1049,6 +1266,22 @@
         <v>57</v>
       </c>
       <c r="S15" s="1"/>
+      <c r="T15" t="s">
+        <v>76</v>
+      </c>
+      <c r="U15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" t="s">
+        <v>66</v>
+      </c>
+      <c r="W15" t="s">
+        <v>77</v>
+      </c>
+      <c r="X15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
@@ -1085,7 +1318,7 @@
       </c>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>24</v>
       </c>
@@ -1093,8 +1326,21 @@
         <v>17</v>
       </c>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" t="s">
+        <v>78</v>
+      </c>
+      <c r="X17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>24</v>
       </c>
@@ -1115,8 +1361,21 @@
         <v>56</v>
       </c>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W18" t="s">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -1137,8 +1396,21 @@
         <v>56</v>
       </c>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" t="s">
+        <v>66</v>
+      </c>
+      <c r="W19" t="s">
+        <v>80</v>
+      </c>
+      <c r="X19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>24</v>
       </c>
@@ -1159,8 +1431,21 @@
         <v>56</v>
       </c>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" t="s">
+        <v>66</v>
+      </c>
+      <c r="W20" t="s">
+        <v>81</v>
+      </c>
+      <c r="X20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -1181,8 +1466,21 @@
         <v>56</v>
       </c>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" t="s">
+        <v>66</v>
+      </c>
+      <c r="W21" t="s">
+        <v>82</v>
+      </c>
+      <c r="X21" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -1203,8 +1501,21 @@
         <v>56</v>
       </c>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W22" t="s">
+        <v>83</v>
+      </c>
+      <c r="X22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -1225,8 +1536,21 @@
         <v>56</v>
       </c>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" t="s">
+        <v>66</v>
+      </c>
+      <c r="W23" t="s">
+        <v>84</v>
+      </c>
+      <c r="X23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -1247,8 +1571,21 @@
         <v>57</v>
       </c>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" t="s">
+        <v>66</v>
+      </c>
+      <c r="W24" t="s">
+        <v>85</v>
+      </c>
+      <c r="X24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>43</v>
       </c>
@@ -1270,7 +1607,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>43</v>
       </c>
@@ -1291,8 +1628,21 @@
         <v>57</v>
       </c>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U26" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" t="s">
+        <v>66</v>
+      </c>
+      <c r="W26" t="s">
+        <v>74</v>
+      </c>
+      <c r="X26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -1313,8 +1663,21 @@
         <v>57</v>
       </c>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" t="s">
+        <v>66</v>
+      </c>
+      <c r="W27" t="s">
+        <v>86</v>
+      </c>
+      <c r="X27" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>45</v>
       </c>
@@ -1335,8 +1698,21 @@
         <v>57</v>
       </c>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" t="s">
+        <v>66</v>
+      </c>
+      <c r="W28" t="s">
+        <v>87</v>
+      </c>
+      <c r="X28" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>46</v>
       </c>
@@ -1357,8 +1733,21 @@
         <v>57</v>
       </c>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U29" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W29" t="s">
+        <v>73</v>
+      </c>
+      <c r="X29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>46</v>
       </c>
@@ -1366,8 +1755,21 @@
         <v>35</v>
       </c>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" t="s">
+        <v>66</v>
+      </c>
+      <c r="W30" t="s">
+        <v>88</v>
+      </c>
+      <c r="X30" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>46</v>
       </c>
@@ -1388,8 +1790,21 @@
         <v>56</v>
       </c>
       <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" t="s">
+        <v>66</v>
+      </c>
+      <c r="W31" t="s">
+        <v>89</v>
+      </c>
+      <c r="X31" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>46</v>
       </c>
@@ -1410,8 +1825,21 @@
         <v>56</v>
       </c>
       <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U32" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" t="s">
+        <v>66</v>
+      </c>
+      <c r="W32" t="s">
+        <v>71</v>
+      </c>
+      <c r="X32" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>46</v>
       </c>
@@ -1432,8 +1860,21 @@
         <v>56</v>
       </c>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U33" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" t="s">
+        <v>66</v>
+      </c>
+      <c r="W33" t="s">
+        <v>92</v>
+      </c>
+      <c r="X33" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>46</v>
       </c>
@@ -1454,8 +1895,21 @@
         <v>56</v>
       </c>
       <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U34" t="s">
+        <v>21</v>
+      </c>
+      <c r="V34" t="s">
+        <v>66</v>
+      </c>
+      <c r="W34" t="s">
+        <v>91</v>
+      </c>
+      <c r="X34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>46</v>
       </c>
@@ -1476,8 +1930,21 @@
         <v>56</v>
       </c>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U35" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" t="s">
+        <v>66</v>
+      </c>
+      <c r="W35" t="s">
+        <v>93</v>
+      </c>
+      <c r="X35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>46</v>
       </c>
@@ -1498,8 +1965,21 @@
         <v>56</v>
       </c>
       <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V36" t="s">
+        <v>66</v>
+      </c>
+      <c r="W36" t="s">
+        <v>64</v>
+      </c>
+      <c r="X36" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
         <v>54</v>
       </c>
@@ -1513,8 +1993,21 @@
         <v>57</v>
       </c>
       <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" t="s">
+        <v>66</v>
+      </c>
+      <c r="W37" t="s">
+        <v>94</v>
+      </c>
+      <c r="X37" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
         <v>54</v>
       </c>
@@ -1528,8 +2021,21 @@
         <v>57</v>
       </c>
       <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" t="s">
+        <v>66</v>
+      </c>
+      <c r="W38" t="s">
+        <v>95</v>
+      </c>
+      <c r="X38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
         <v>54</v>
       </c>
@@ -1544,7 +2050,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>54</v>
       </c>
@@ -1558,8 +2064,21 @@
         <v>57</v>
       </c>
       <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U40" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" t="s">
+        <v>66</v>
+      </c>
+      <c r="W40" t="s">
+        <v>75</v>
+      </c>
+      <c r="X40" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>54</v>
       </c>
@@ -1573,8 +2092,21 @@
         <v>57</v>
       </c>
       <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U41" t="s">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>66</v>
+      </c>
+      <c r="W41" t="s">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>54</v>
       </c>
@@ -1588,8 +2120,36 @@
         <v>57</v>
       </c>
       <c r="L42" s="1"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U42" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>66</v>
+      </c>
+      <c r="W42" t="s">
+        <v>96</v>
+      </c>
+      <c r="X42" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="U43" t="s">
+        <v>0</v>
+      </c>
+      <c r="V43" t="s">
+        <v>66</v>
+      </c>
+      <c r="W43" t="s">
+        <v>72</v>
+      </c>
+      <c r="X43" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
         <v>21</v>
       </c>
@@ -1603,8 +2163,21 @@
         <v>56</v>
       </c>
       <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U44" t="s">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>66</v>
+      </c>
+      <c r="W44" t="s">
+        <v>97</v>
+      </c>
+      <c r="X44" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
         <v>21</v>
       </c>
@@ -1618,8 +2191,21 @@
         <v>56</v>
       </c>
       <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U45" t="s">
+        <v>0</v>
+      </c>
+      <c r="V45" t="s">
+        <v>66</v>
+      </c>
+      <c r="W45" t="s">
+        <v>98</v>
+      </c>
+      <c r="X45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
         <v>21</v>
       </c>
@@ -1633,8 +2219,21 @@
         <v>56</v>
       </c>
       <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>66</v>
+      </c>
+      <c r="W46" t="s">
+        <v>99</v>
+      </c>
+      <c r="X46" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
         <v>21</v>
       </c>
@@ -1648,8 +2247,21 @@
         <v>56</v>
       </c>
       <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U47" t="s">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>66</v>
+      </c>
+      <c r="W47" t="s">
+        <v>68</v>
+      </c>
+      <c r="X47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y47" s="1"/>
+    </row>
+    <row r="48" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
         <v>21</v>
       </c>
@@ -1663,8 +2275,21 @@
         <v>56</v>
       </c>
       <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U48" t="s">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>66</v>
+      </c>
+      <c r="W48" t="s">
+        <v>69</v>
+      </c>
+      <c r="X48" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y48" s="1"/>
+    </row>
+    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>21</v>
       </c>
@@ -1678,8 +2303,21 @@
         <v>56</v>
       </c>
       <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U49" t="s">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>66</v>
+      </c>
+      <c r="W49" t="s">
+        <v>70</v>
+      </c>
+      <c r="X49" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y49" s="1"/>
+    </row>
+    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>21</v>
       </c>
@@ -1693,8 +2331,21 @@
         <v>57</v>
       </c>
       <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U50" t="s">
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>66</v>
+      </c>
+      <c r="W50" t="s">
+        <v>67</v>
+      </c>
+      <c r="X50" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y50" s="1"/>
+    </row>
+    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
         <v>21</v>
       </c>
@@ -1708,8 +2359,21 @@
         <v>57</v>
       </c>
       <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U51" t="s">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>66</v>
+      </c>
+      <c r="W51" t="s">
+        <v>90</v>
+      </c>
+      <c r="X51" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y51" s="1"/>
+    </row>
+    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>21</v>
       </c>
@@ -1723,8 +2387,21 @@
         <v>57</v>
       </c>
       <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U52" t="s">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
+        <v>66</v>
+      </c>
+      <c r="W52" t="s">
+        <v>100</v>
+      </c>
+      <c r="X52" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="1"/>
+    </row>
+    <row r="53" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
         <v>21</v>
       </c>
@@ -1738,8 +2415,21 @@
         <v>57</v>
       </c>
       <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U53" t="s">
+        <v>0</v>
+      </c>
+      <c r="V53" t="s">
+        <v>66</v>
+      </c>
+      <c r="W53" t="s">
+        <v>101</v>
+      </c>
+      <c r="X53" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y53" s="1"/>
+    </row>
+    <row r="54" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
         <v>21</v>
       </c>
@@ -1754,7 +2444,7 @@
       </c>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
         <v>21</v>
       </c>
@@ -1768,8 +2458,36 @@
         <v>57</v>
       </c>
       <c r="L55" s="1"/>
-    </row>
-    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U55" t="s">
+        <v>23</v>
+      </c>
+      <c r="V55" t="s">
+        <v>66</v>
+      </c>
+      <c r="W55" t="s">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y55" s="1"/>
+    </row>
+    <row r="56" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="U56" t="s">
+        <v>23</v>
+      </c>
+      <c r="V56" t="s">
+        <v>66</v>
+      </c>
+      <c r="W56" t="s">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y56" s="1"/>
+    </row>
+    <row r="57" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
         <v>22</v>
       </c>
@@ -1783,8 +2501,21 @@
         <v>56</v>
       </c>
       <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U57" t="s">
+        <v>23</v>
+      </c>
+      <c r="V57" t="s">
+        <v>66</v>
+      </c>
+      <c r="W57" t="s">
+        <v>96</v>
+      </c>
+      <c r="X57" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y57" s="1"/>
+    </row>
+    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
         <v>22</v>
       </c>
@@ -1798,8 +2529,21 @@
         <v>56</v>
       </c>
       <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U58" t="s">
+        <v>23</v>
+      </c>
+      <c r="V58" t="s">
+        <v>66</v>
+      </c>
+      <c r="W58" t="s">
+        <v>72</v>
+      </c>
+      <c r="X58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y58" s="1"/>
+    </row>
+    <row r="59" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
         <v>22</v>
       </c>
@@ -1813,8 +2557,21 @@
         <v>56</v>
       </c>
       <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U59" t="s">
+        <v>23</v>
+      </c>
+      <c r="V59" t="s">
+        <v>66</v>
+      </c>
+      <c r="W59" t="s">
+        <v>97</v>
+      </c>
+      <c r="X59" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y59" s="1"/>
+    </row>
+    <row r="60" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
         <v>22</v>
       </c>
@@ -1828,8 +2585,21 @@
         <v>56</v>
       </c>
       <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U60" t="s">
+        <v>23</v>
+      </c>
+      <c r="V60" t="s">
+        <v>66</v>
+      </c>
+      <c r="W60" t="s">
+        <v>98</v>
+      </c>
+      <c r="X60" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y60" s="1"/>
+    </row>
+    <row r="61" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
         <v>22</v>
       </c>
@@ -1843,8 +2613,21 @@
         <v>56</v>
       </c>
       <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U61" t="s">
+        <v>23</v>
+      </c>
+      <c r="V61" t="s">
+        <v>66</v>
+      </c>
+      <c r="W61" t="s">
+        <v>99</v>
+      </c>
+      <c r="X61" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y61" s="1"/>
+    </row>
+    <row r="62" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
         <v>22</v>
       </c>
@@ -1858,8 +2641,21 @@
         <v>56</v>
       </c>
       <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U62" t="s">
+        <v>23</v>
+      </c>
+      <c r="V62" t="s">
+        <v>66</v>
+      </c>
+      <c r="W62" t="s">
+        <v>68</v>
+      </c>
+      <c r="X62" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y62" s="1"/>
+    </row>
+    <row r="63" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
         <v>22</v>
       </c>
@@ -1873,8 +2669,21 @@
         <v>57</v>
       </c>
       <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U63" t="s">
+        <v>23</v>
+      </c>
+      <c r="V63" t="s">
+        <v>66</v>
+      </c>
+      <c r="W63" t="s">
+        <v>69</v>
+      </c>
+      <c r="X63" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y63" s="1"/>
+    </row>
+    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
         <v>22</v>
       </c>
@@ -1888,8 +2697,21 @@
         <v>57</v>
       </c>
       <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U64" t="s">
+        <v>23</v>
+      </c>
+      <c r="V64" t="s">
+        <v>66</v>
+      </c>
+      <c r="W64" t="s">
+        <v>70</v>
+      </c>
+      <c r="X64" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y64" s="1"/>
+    </row>
+    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
         <v>22</v>
       </c>
@@ -1903,8 +2725,21 @@
         <v>57</v>
       </c>
       <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U65" t="s">
+        <v>23</v>
+      </c>
+      <c r="V65" t="s">
+        <v>66</v>
+      </c>
+      <c r="W65" t="s">
+        <v>67</v>
+      </c>
+      <c r="X65" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y65" s="1"/>
+    </row>
+    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H66" t="s">
         <v>22</v>
       </c>
@@ -1918,8 +2753,21 @@
         <v>57</v>
       </c>
       <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U66" t="s">
+        <v>23</v>
+      </c>
+      <c r="V66" t="s">
+        <v>66</v>
+      </c>
+      <c r="W66" t="s">
+        <v>90</v>
+      </c>
+      <c r="X66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y66" s="1"/>
+    </row>
+    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H67" t="s">
         <v>22</v>
       </c>
@@ -1933,8 +2781,21 @@
         <v>57</v>
       </c>
       <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U67" t="s">
+        <v>23</v>
+      </c>
+      <c r="V67" t="s">
+        <v>66</v>
+      </c>
+      <c r="W67" t="s">
+        <v>100</v>
+      </c>
+      <c r="X67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y67" s="1"/>
+    </row>
+    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H68" t="s">
         <v>22</v>
       </c>
@@ -1948,8 +2809,36 @@
         <v>57</v>
       </c>
       <c r="L68" s="1"/>
-    </row>
-    <row r="70" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U68" t="s">
+        <v>23</v>
+      </c>
+      <c r="V68" t="s">
+        <v>66</v>
+      </c>
+      <c r="W68" t="s">
+        <v>101</v>
+      </c>
+      <c r="X68" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y68" s="1"/>
+    </row>
+    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="U69" t="s">
+        <v>23</v>
+      </c>
+      <c r="V69" t="s">
+        <v>66</v>
+      </c>
+      <c r="W69" t="s">
+        <v>64</v>
+      </c>
+      <c r="X69" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y69" s="1"/>
+    </row>
+    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H70" t="s">
         <v>23</v>
       </c>
@@ -1963,8 +2852,21 @@
         <v>56</v>
       </c>
       <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U70" t="s">
+        <v>23</v>
+      </c>
+      <c r="V70" t="s">
+        <v>66</v>
+      </c>
+      <c r="W70" t="s">
+        <v>94</v>
+      </c>
+      <c r="X70" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y70" s="1"/>
+    </row>
+    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
         <v>23</v>
       </c>
@@ -1978,8 +2880,21 @@
         <v>56</v>
       </c>
       <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U71" t="s">
+        <v>23</v>
+      </c>
+      <c r="V71" t="s">
+        <v>66</v>
+      </c>
+      <c r="W71" t="s">
+        <v>95</v>
+      </c>
+      <c r="X71" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y71" s="1"/>
+    </row>
+    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H72" t="s">
         <v>23</v>
       </c>
@@ -1993,8 +2908,21 @@
         <v>56</v>
       </c>
       <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U72" t="s">
+        <v>23</v>
+      </c>
+      <c r="V72" t="s">
+        <v>66</v>
+      </c>
+      <c r="W72" t="s">
+        <v>73</v>
+      </c>
+      <c r="X72" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y72" s="1"/>
+    </row>
+    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H73" t="s">
         <v>23</v>
       </c>
@@ -2008,8 +2936,21 @@
         <v>56</v>
       </c>
       <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U73" t="s">
+        <v>23</v>
+      </c>
+      <c r="V73" t="s">
+        <v>66</v>
+      </c>
+      <c r="W73" t="s">
+        <v>88</v>
+      </c>
+      <c r="X73" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y73" s="1"/>
+    </row>
+    <row r="74" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H74" t="s">
         <v>23</v>
       </c>
@@ -2023,8 +2964,21 @@
         <v>56</v>
       </c>
       <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U74" t="s">
+        <v>23</v>
+      </c>
+      <c r="V74" t="s">
+        <v>66</v>
+      </c>
+      <c r="W74" t="s">
+        <v>89</v>
+      </c>
+      <c r="X74" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y74" s="1"/>
+    </row>
+    <row r="75" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
         <v>23</v>
       </c>
@@ -2038,8 +2992,21 @@
         <v>56</v>
       </c>
       <c r="L75" s="1"/>
-    </row>
-    <row r="76" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U75" t="s">
+        <v>23</v>
+      </c>
+      <c r="V75" t="s">
+        <v>66</v>
+      </c>
+      <c r="W75" t="s">
+        <v>74</v>
+      </c>
+      <c r="X75" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y75" s="1"/>
+    </row>
+    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
         <v>23</v>
       </c>
@@ -2053,8 +3020,21 @@
         <v>57</v>
       </c>
       <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U76" t="s">
+        <v>23</v>
+      </c>
+      <c r="V76" t="s">
+        <v>66</v>
+      </c>
+      <c r="W76" t="s">
+        <v>86</v>
+      </c>
+      <c r="X76" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y76" s="1"/>
+    </row>
+    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
         <v>23</v>
       </c>
@@ -2068,8 +3048,21 @@
         <v>57</v>
       </c>
       <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U77" t="s">
+        <v>23</v>
+      </c>
+      <c r="V77" t="s">
+        <v>66</v>
+      </c>
+      <c r="W77" t="s">
+        <v>87</v>
+      </c>
+      <c r="X77" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y77" s="1"/>
+    </row>
+    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
         <v>23</v>
       </c>
@@ -2083,8 +3076,21 @@
         <v>57</v>
       </c>
       <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U78" t="s">
+        <v>23</v>
+      </c>
+      <c r="V78" t="s">
+        <v>66</v>
+      </c>
+      <c r="W78" t="s">
+        <v>71</v>
+      </c>
+      <c r="X78" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y78" s="1"/>
+    </row>
+    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
         <v>23</v>
       </c>
@@ -2098,8 +3104,21 @@
         <v>57</v>
       </c>
       <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U79" t="s">
+        <v>23</v>
+      </c>
+      <c r="V79" t="s">
+        <v>66</v>
+      </c>
+      <c r="W79" t="s">
+        <v>92</v>
+      </c>
+      <c r="X79" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y79" s="1"/>
+    </row>
+    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
         <v>23</v>
       </c>
@@ -2113,8 +3132,21 @@
         <v>57</v>
       </c>
       <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U80" t="s">
+        <v>23</v>
+      </c>
+      <c r="V80" t="s">
+        <v>66</v>
+      </c>
+      <c r="W80" t="s">
+        <v>91</v>
+      </c>
+      <c r="X80" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y80" s="1"/>
+    </row>
+    <row r="81" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
         <v>23</v>
       </c>
@@ -2128,8 +3160,21 @@
         <v>57</v>
       </c>
       <c r="L81" s="1"/>
-    </row>
-    <row r="83" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="U81" t="s">
+        <v>23</v>
+      </c>
+      <c r="V81" t="s">
+        <v>66</v>
+      </c>
+      <c r="W81" t="s">
+        <v>93</v>
+      </c>
+      <c r="X81" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y81" s="1"/>
+    </row>
+    <row r="83" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
         <v>25</v>
       </c>
@@ -2144,7 +3189,7 @@
       </c>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
         <v>25</v>
       </c>
@@ -2159,7 +3204,7 @@
       </c>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H85" t="s">
         <v>25</v>
       </c>
@@ -2174,7 +3219,7 @@
       </c>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H86" t="s">
         <v>25</v>
       </c>
@@ -2189,7 +3234,7 @@
       </c>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H87" t="s">
         <v>25</v>
       </c>
@@ -2204,7 +3249,7 @@
       </c>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H88" t="s">
         <v>25</v>
       </c>
@@ -2219,7 +3264,7 @@
       </c>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
         <v>25</v>
       </c>
@@ -2234,7 +3279,7 @@
       </c>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H90" t="s">
         <v>25</v>
       </c>
@@ -2249,7 +3294,7 @@
       </c>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H91" t="s">
         <v>25</v>
       </c>
@@ -2264,7 +3309,7 @@
       </c>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H92" t="s">
         <v>25</v>
       </c>
@@ -2279,7 +3324,7 @@
       </c>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H93" t="s">
         <v>25</v>
       </c>
@@ -2294,7 +3339,7 @@
       </c>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H94" t="s">
         <v>25</v>
       </c>
@@ -2309,7 +3354,7 @@
       </c>
       <c r="L94" s="1"/>
     </row>
-    <row r="96" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H96" t="s">
         <v>55</v>
       </c>

--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB1132-E87E-4A3E-8B0C-C0111F19DE32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D55F8-1705-4E2E-A8B3-997A5FA1EB05}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="102">
   <si>
     <t>White Rook</t>
   </si>
@@ -660,7 +660,7 @@
   <dimension ref="C1:Y159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D55F8-1705-4E2E-A8B3-997A5FA1EB05}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9880BEFA-7201-4D0B-A7DE-296F4FE7B936}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="102">
   <si>
     <t>White Rook</t>
   </si>
@@ -657,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Y159"/>
+  <dimension ref="C1:AA159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
     <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -694,8 +694,11 @@
       <c r="U1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>47</v>
       </c>
@@ -709,7 +712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>58</v>
       </c>
@@ -765,7 +768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -813,7 +816,7 @@
       </c>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -861,7 +864,7 @@
       </c>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -909,7 +912,7 @@
       </c>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -957,7 +960,7 @@
       </c>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -1005,7 +1008,7 @@
       </c>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1056,7 @@
       </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1104,7 @@
       </c>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1152,7 @@
       </c>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -1184,7 +1187,7 @@
       </c>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>24</v>
       </c>
@@ -1232,7 +1235,7 @@
       </c>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -1283,7 +1286,7 @@
       </c>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>24</v>
       </c>

--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9880BEFA-7201-4D0B-A7DE-296F4FE7B936}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3E2E9A-F438-4DD2-9070-DB7A2323672C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="105">
   <si>
     <t>White Rook</t>
   </si>
@@ -326,6 +326,15 @@
   </si>
   <si>
     <t>D1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEEK 8 </t>
+  </si>
+  <si>
+    <t>Week9</t>
   </si>
 </sst>
 </file>
@@ -373,10 +382,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AA159"/>
+  <dimension ref="D9:AA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,2234 +693,1819 @@
     <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="9" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O19" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U19" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="20" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O20" t="s">
         <v>60</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="21" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="L21" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" t="s">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="S21" t="s">
         <v>2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="U21" t="s">
         <v>61</v>
       </c>
-      <c r="P4" t="s">
+      <c r="V21" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="W21" t="s">
         <v>63</v>
       </c>
-      <c r="R4" t="s">
+      <c r="X21" t="s">
         <v>1</v>
       </c>
-      <c r="S4" t="s">
+      <c r="Y21" t="s">
         <v>2</v>
       </c>
-      <c r="U4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    </row>
+    <row r="22" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="H5" t="s">
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="H22" t="s">
         <v>51</v>
       </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
         <v>25</v>
       </c>
-      <c r="K5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="O5" t="s">
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="O22" t="s">
         <v>25</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P22" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q22" t="s">
         <v>64</v>
       </c>
-      <c r="R5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="U5" t="s">
+      <c r="R22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="U22" t="s">
         <v>22</v>
       </c>
-      <c r="V5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="V22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W22" t="s">
         <v>67</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X22" t="s">
         <v>67</v>
       </c>
-      <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="O23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="U23" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" t="s">
+        <v>66</v>
+      </c>
+      <c r="W23" t="s">
+        <v>64</v>
+      </c>
+      <c r="X23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="O24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="U24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" t="s">
+        <v>66</v>
+      </c>
+      <c r="W24" t="s">
+        <v>71</v>
+      </c>
+      <c r="X24" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>64</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="U25" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" t="s">
+        <v>66</v>
+      </c>
+      <c r="W25" t="s">
+        <v>72</v>
+      </c>
+      <c r="X25" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="O26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="U26" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" t="s">
+        <v>66</v>
+      </c>
+      <c r="W26" t="s">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="O27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>64</v>
+      </c>
+      <c r="R27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="U27" t="s">
+        <v>22</v>
+      </c>
+      <c r="V27" t="s">
+        <v>66</v>
+      </c>
+      <c r="W27" t="s">
+        <v>68</v>
+      </c>
+      <c r="X27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="H28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="H6" t="s">
+      <c r="K28" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="O28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28" s="1"/>
+      <c r="U28" t="s">
+        <v>22</v>
+      </c>
+      <c r="V28" t="s">
+        <v>66</v>
+      </c>
+      <c r="W28" t="s">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="H29" t="s">
         <v>51</v>
       </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="O6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="O29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q29" t="s">
         <v>64</v>
       </c>
-      <c r="R6" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="U6" t="s">
+      <c r="R29" t="s">
+        <v>57</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="U29" t="s">
         <v>22</v>
       </c>
-      <c r="V6" t="s">
-        <v>66</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="V29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W29" t="s">
+        <v>75</v>
+      </c>
+      <c r="X29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" t="s">
         <v>64</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Q30" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="R30" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31" t="s">
+        <v>57</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="U31" t="s">
+        <v>24</v>
+      </c>
+      <c r="V31" t="s">
+        <v>66</v>
+      </c>
+      <c r="W31" t="s">
+        <v>75</v>
+      </c>
+      <c r="X31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="O32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32" t="s">
+        <v>57</v>
+      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" t="s">
+        <v>76</v>
+      </c>
+      <c r="U32" t="s">
+        <v>24</v>
+      </c>
+      <c r="V32" t="s">
+        <v>66</v>
+      </c>
+      <c r="W32" t="s">
+        <v>77</v>
+      </c>
+      <c r="X32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="H33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="O33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33" t="s">
+        <v>57</v>
+      </c>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="U34" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="O7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="U7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V7" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" t="s">
-        <v>71</v>
-      </c>
-      <c r="X7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="O8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="U8" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" t="s">
-        <v>66</v>
-      </c>
-      <c r="W8" t="s">
-        <v>72</v>
-      </c>
-      <c r="X8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="O9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="U9" t="s">
-        <v>22</v>
-      </c>
-      <c r="V9" t="s">
-        <v>66</v>
-      </c>
-      <c r="W9" t="s">
-        <v>73</v>
-      </c>
-      <c r="X9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="O10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="U10" t="s">
-        <v>22</v>
-      </c>
-      <c r="V10" t="s">
-        <v>66</v>
-      </c>
-      <c r="W10" t="s">
-        <v>68</v>
-      </c>
-      <c r="X10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="O11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="U11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V11" t="s">
-        <v>66</v>
-      </c>
-      <c r="W11" t="s">
-        <v>74</v>
-      </c>
-      <c r="X11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="U12" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" t="s">
-        <v>66</v>
-      </c>
-      <c r="W12" t="s">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="V34" t="s">
+        <v>66</v>
+      </c>
+      <c r="W34" t="s">
+        <v>78</v>
+      </c>
+      <c r="X34" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="O13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="O14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>64</v>
-      </c>
-      <c r="R14" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="U14" t="s">
-        <v>24</v>
-      </c>
-      <c r="V14" t="s">
-        <v>66</v>
-      </c>
-      <c r="W14" t="s">
-        <v>75</v>
-      </c>
-      <c r="X14" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="H15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="O15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" t="s">
-        <v>76</v>
-      </c>
-      <c r="U15" t="s">
-        <v>24</v>
-      </c>
-      <c r="V15" t="s">
-        <v>66</v>
-      </c>
-      <c r="W15" t="s">
-        <v>77</v>
-      </c>
-      <c r="X15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="H16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="O16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16" t="s">
-        <v>57</v>
-      </c>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="U17" t="s">
-        <v>20</v>
-      </c>
-      <c r="V17" t="s">
-        <v>66</v>
-      </c>
-      <c r="W17" t="s">
-        <v>78</v>
-      </c>
-      <c r="X17" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="H18" t="s">
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="H35" t="s">
         <v>53</v>
       </c>
-      <c r="I18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
         <v>25</v>
-      </c>
-      <c r="K18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="U18" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" t="s">
-        <v>66</v>
-      </c>
-      <c r="W18" t="s">
-        <v>79</v>
-      </c>
-      <c r="X18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="H19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="U19" t="s">
-        <v>20</v>
-      </c>
-      <c r="V19" t="s">
-        <v>66</v>
-      </c>
-      <c r="W19" t="s">
-        <v>80</v>
-      </c>
-      <c r="X19" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="U20" t="s">
-        <v>20</v>
-      </c>
-      <c r="V20" t="s">
-        <v>66</v>
-      </c>
-      <c r="W20" t="s">
-        <v>81</v>
-      </c>
-      <c r="X20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="H21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="U21" t="s">
-        <v>20</v>
-      </c>
-      <c r="V21" t="s">
-        <v>66</v>
-      </c>
-      <c r="W21" t="s">
-        <v>82</v>
-      </c>
-      <c r="X21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="H22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="U22" t="s">
-        <v>20</v>
-      </c>
-      <c r="V22" t="s">
-        <v>66</v>
-      </c>
-      <c r="W22" t="s">
-        <v>83</v>
-      </c>
-      <c r="X22" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="H23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="U23" t="s">
-        <v>20</v>
-      </c>
-      <c r="V23" t="s">
-        <v>66</v>
-      </c>
-      <c r="W23" t="s">
-        <v>84</v>
-      </c>
-      <c r="X23" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="H24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="U24" t="s">
-        <v>20</v>
-      </c>
-      <c r="V24" t="s">
-        <v>66</v>
-      </c>
-      <c r="W24" t="s">
-        <v>85</v>
-      </c>
-      <c r="X24" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="H25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="H26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="U26" t="s">
-        <v>21</v>
-      </c>
-      <c r="V26" t="s">
-        <v>66</v>
-      </c>
-      <c r="W26" t="s">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="H27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="U27" t="s">
-        <v>21</v>
-      </c>
-      <c r="V27" t="s">
-        <v>66</v>
-      </c>
-      <c r="W27" t="s">
-        <v>86</v>
-      </c>
-      <c r="X27" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="H28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="U28" t="s">
-        <v>21</v>
-      </c>
-      <c r="V28" t="s">
-        <v>66</v>
-      </c>
-      <c r="W28" t="s">
-        <v>87</v>
-      </c>
-      <c r="X28" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="H29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="U29" t="s">
-        <v>21</v>
-      </c>
-      <c r="V29" t="s">
-        <v>66</v>
-      </c>
-      <c r="W29" t="s">
-        <v>73</v>
-      </c>
-      <c r="X29" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="U30" t="s">
-        <v>21</v>
-      </c>
-      <c r="V30" t="s">
-        <v>66</v>
-      </c>
-      <c r="W30" t="s">
-        <v>88</v>
-      </c>
-      <c r="X30" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="H31" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" t="s">
-        <v>56</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="U31" t="s">
-        <v>21</v>
-      </c>
-      <c r="V31" t="s">
-        <v>66</v>
-      </c>
-      <c r="W31" t="s">
-        <v>89</v>
-      </c>
-      <c r="X31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="H32" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="U32" t="s">
-        <v>21</v>
-      </c>
-      <c r="V32" t="s">
-        <v>66</v>
-      </c>
-      <c r="W32" t="s">
-        <v>71</v>
-      </c>
-      <c r="X32" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="H33" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="1"/>
-      <c r="U33" t="s">
-        <v>21</v>
-      </c>
-      <c r="V33" t="s">
-        <v>66</v>
-      </c>
-      <c r="W33" t="s">
-        <v>92</v>
-      </c>
-      <c r="X33" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="H34" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="U34" t="s">
-        <v>21</v>
-      </c>
-      <c r="V34" t="s">
-        <v>66</v>
-      </c>
-      <c r="W34" t="s">
-        <v>91</v>
-      </c>
-      <c r="X34" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="H35" t="s">
-        <v>54</v>
-      </c>
-      <c r="I35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" t="s">
-        <v>44</v>
       </c>
       <c r="K35" t="s">
         <v>56</v>
       </c>
       <c r="L35" s="1"/>
       <c r="U35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V35" t="s">
         <v>66</v>
       </c>
       <c r="W35" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="36" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s">
         <v>46</v>
-      </c>
-      <c r="D36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="H36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" t="s">
-        <v>45</v>
       </c>
       <c r="K36" t="s">
         <v>56</v>
       </c>
       <c r="L36" s="1"/>
       <c r="U36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V36" t="s">
         <v>66</v>
       </c>
       <c r="W36" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s">
         <v>52</v>
       </c>
       <c r="J37" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L37" s="1"/>
       <c r="U37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V37" t="s">
         <v>66</v>
       </c>
       <c r="W37" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
         <v>52</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L38" s="1"/>
       <c r="U38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V38" t="s">
         <v>66</v>
       </c>
       <c r="W38" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="X38" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I39" t="s">
         <v>52</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="U39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V39" t="s">
+        <v>66</v>
+      </c>
+      <c r="W39" t="s">
+        <v>83</v>
+      </c>
+      <c r="X39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="H40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I40" t="s">
         <v>52</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L40" s="1"/>
       <c r="U40" t="s">
+        <v>20</v>
+      </c>
+      <c r="V40" t="s">
+        <v>66</v>
+      </c>
+      <c r="W40" t="s">
+        <v>84</v>
+      </c>
+      <c r="X40" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="H41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" t="s">
         <v>0</v>
-      </c>
-      <c r="V40" t="s">
-        <v>66</v>
-      </c>
-      <c r="W40" t="s">
-        <v>75</v>
-      </c>
-      <c r="X40" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" t="s">
-        <v>22</v>
       </c>
       <c r="K41" t="s">
         <v>57</v>
       </c>
       <c r="L41" s="1"/>
       <c r="U41" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V41" t="s">
         <v>66</v>
       </c>
       <c r="W41" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="X41" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="1"/>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I42" t="s">
         <v>52</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s">
         <v>57</v>
       </c>
       <c r="L42" s="1"/>
-      <c r="U42" t="s">
-        <v>0</v>
-      </c>
-      <c r="V42" t="s">
-        <v>66</v>
-      </c>
-      <c r="W42" t="s">
-        <v>96</v>
-      </c>
-      <c r="X42" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y42" s="1"/>
-    </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="H43" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" s="1"/>
       <c r="U43" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V43" t="s">
         <v>66</v>
       </c>
       <c r="W43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="H44" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" t="s">
         <v>21</v>
       </c>
-      <c r="I44" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" t="s">
-        <v>25</v>
-      </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L44" s="1"/>
       <c r="U44" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V44" t="s">
         <v>66</v>
       </c>
       <c r="W44" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="X44" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="1"/>
       <c r="H45" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="P45" t="s">
+        <v>102</v>
+      </c>
+      <c r="U45" t="s">
         <v>21</v>
       </c>
-      <c r="I45" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="V45" t="s">
+        <v>66</v>
+      </c>
+      <c r="W45" t="s">
+        <v>87</v>
+      </c>
+      <c r="X45" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>46</v>
       </c>
-      <c r="K45" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="1"/>
-      <c r="U45" t="s">
-        <v>0</v>
-      </c>
-      <c r="V45" t="s">
-        <v>66</v>
-      </c>
-      <c r="W45" t="s">
-        <v>98</v>
-      </c>
-      <c r="X45" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y45" s="1"/>
-    </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="1"/>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I46" t="s">
         <v>52</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L46" s="1"/>
       <c r="U46" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V46" t="s">
         <v>66</v>
       </c>
       <c r="W46" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="X46" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="H47" t="s">
+    <row r="47" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="U47" t="s">
         <v>21</v>
       </c>
-      <c r="I47" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" t="s">
-        <v>56</v>
-      </c>
-      <c r="L47" s="1"/>
-      <c r="U47" t="s">
-        <v>0</v>
-      </c>
       <c r="V47" t="s">
         <v>66</v>
       </c>
       <c r="W47" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="X47" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="1"/>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I48" t="s">
         <v>52</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K48" t="s">
         <v>56</v>
       </c>
       <c r="L48" s="1"/>
       <c r="U48" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V48" t="s">
         <v>66</v>
       </c>
       <c r="W48" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="X48" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="1"/>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I49" t="s">
         <v>52</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49" t="s">
         <v>56</v>
       </c>
       <c r="L49" s="1"/>
       <c r="U49" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V49" t="s">
         <v>66</v>
       </c>
       <c r="W49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="1"/>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I50" t="s">
         <v>52</v>
       </c>
       <c r="J50" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L50" s="1"/>
       <c r="U50" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V50" t="s">
         <v>66</v>
       </c>
       <c r="W50" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="X50" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I51" t="s">
         <v>52</v>
       </c>
       <c r="J51" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L51" s="1"/>
       <c r="U51" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V51" t="s">
         <v>66</v>
       </c>
       <c r="W51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I52" t="s">
         <v>52</v>
       </c>
       <c r="J52" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L52" s="1"/>
       <c r="U52" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V52" t="s">
         <v>66</v>
       </c>
       <c r="W52" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="X52" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I53" t="s">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L53" s="1"/>
       <c r="U53" t="s">
+        <v>21</v>
+      </c>
+      <c r="V53" t="s">
+        <v>66</v>
+      </c>
+      <c r="W53" t="s">
+        <v>64</v>
+      </c>
+      <c r="X53" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y53" s="1"/>
+    </row>
+    <row r="54" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" t="s">
         <v>0</v>
       </c>
-      <c r="V53" t="s">
-        <v>66</v>
-      </c>
-      <c r="W53" t="s">
-        <v>101</v>
-      </c>
-      <c r="X53" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y53" s="1"/>
-    </row>
-    <row r="54" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H54" t="s">
+      <c r="K54" t="s">
+        <v>57</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="U54" t="s">
         <v>21</v>
       </c>
-      <c r="I54" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="V54" t="s">
+        <v>66</v>
+      </c>
+      <c r="W54" t="s">
+        <v>94</v>
+      </c>
+      <c r="X54" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y54" s="1"/>
+    </row>
+    <row r="55" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I55" t="s">
         <v>52</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s">
         <v>57</v>
       </c>
       <c r="L55" s="1"/>
       <c r="U55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V55" t="s">
         <v>66</v>
       </c>
       <c r="W55" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="X55" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="U56" t="s">
-        <v>23</v>
-      </c>
-      <c r="V56" t="s">
-        <v>66</v>
-      </c>
-      <c r="W56" t="s">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y56" s="1"/>
-    </row>
-    <row r="57" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" t="s">
+        <v>57</v>
+      </c>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I57" t="s">
         <v>52</v>
       </c>
       <c r="J57" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L57" s="1"/>
       <c r="U57" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V57" t="s">
         <v>66</v>
       </c>
       <c r="W57" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="X57" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" t="s">
+        <v>52</v>
+      </c>
+      <c r="J58" t="s">
         <v>22</v>
       </c>
-      <c r="I58" t="s">
-        <v>52</v>
-      </c>
-      <c r="J58" t="s">
-        <v>46</v>
-      </c>
       <c r="K58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L58" s="1"/>
       <c r="U58" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V58" t="s">
         <v>66</v>
       </c>
       <c r="W58" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="X58" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I59" t="s">
         <v>52</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L59" s="1"/>
       <c r="U59" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V59" t="s">
         <v>66</v>
       </c>
       <c r="W59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" t="s">
-        <v>52</v>
-      </c>
-      <c r="J60" t="s">
-        <v>43</v>
-      </c>
-      <c r="K60" t="s">
-        <v>56</v>
-      </c>
-      <c r="L60" s="1"/>
+    <row r="60" spans="4:25" x14ac:dyDescent="0.25">
       <c r="U60" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V60" t="s">
         <v>66</v>
       </c>
       <c r="W60" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="X60" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
         <v>52</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K61" t="s">
         <v>56</v>
       </c>
       <c r="L61" s="1"/>
       <c r="U61" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V61" t="s">
         <v>66</v>
       </c>
       <c r="W61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
         <v>52</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62" t="s">
         <v>56</v>
       </c>
       <c r="L62" s="1"/>
       <c r="U62" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V62" t="s">
         <v>66</v>
       </c>
       <c r="W62" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="X62" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I63" t="s">
         <v>52</v>
       </c>
       <c r="J63" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L63" s="1"/>
       <c r="U63" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V63" t="s">
         <v>66</v>
       </c>
       <c r="W63" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="X63" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
         <v>52</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L64" s="1"/>
       <c r="U64" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V64" t="s">
         <v>66</v>
       </c>
       <c r="W64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
         <v>52</v>
       </c>
       <c r="J65" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L65" s="1"/>
       <c r="U65" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V65" t="s">
         <v>66</v>
       </c>
       <c r="W65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
         <v>52</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L66" s="1"/>
       <c r="U66" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V66" t="s">
         <v>66</v>
       </c>
       <c r="W66" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="X66" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
         <v>52</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K67" t="s">
         <v>57</v>
       </c>
       <c r="L67" s="1"/>
       <c r="U67" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V67" t="s">
         <v>66</v>
       </c>
       <c r="W67" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="X67" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I68" t="s">
         <v>52</v>
       </c>
       <c r="J68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K68" t="s">
         <v>57</v>
       </c>
       <c r="L68" s="1"/>
       <c r="U68" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V68" t="s">
         <v>66</v>
       </c>
       <c r="W68" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="X68" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69" t="s">
+        <v>57</v>
+      </c>
+      <c r="L69" s="1"/>
       <c r="U69" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V69" t="s">
         <v>66</v>
       </c>
       <c r="W69" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="X69" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I70" t="s">
         <v>52</v>
       </c>
       <c r="J70" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L70" s="1"/>
       <c r="U70" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V70" t="s">
         <v>66</v>
       </c>
       <c r="W70" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="X70" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
         <v>52</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L71" s="1"/>
-      <c r="U71" t="s">
-        <v>23</v>
-      </c>
-      <c r="V71" t="s">
-        <v>66</v>
-      </c>
-      <c r="W71" t="s">
-        <v>95</v>
-      </c>
-      <c r="X71" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H72" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
         <v>52</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L72" s="1"/>
       <c r="U72" t="s">
@@ -2918,27 +2515,14 @@
         <v>66</v>
       </c>
       <c r="W72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H73" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" t="s">
-        <v>52</v>
-      </c>
-      <c r="J73" t="s">
-        <v>43</v>
-      </c>
-      <c r="K73" t="s">
-        <v>56</v>
-      </c>
-      <c r="L73" s="1"/>
       <c r="U73" t="s">
         <v>23</v>
       </c>
@@ -2946,22 +2530,22 @@
         <v>66</v>
       </c>
       <c r="W73" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="X73" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I74" t="s">
         <v>52</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K74" t="s">
         <v>56</v>
@@ -2974,22 +2558,22 @@
         <v>66</v>
       </c>
       <c r="W74" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X74" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I75" t="s">
         <v>52</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75" t="s">
         <v>56</v>
@@ -3002,25 +2586,25 @@
         <v>66</v>
       </c>
       <c r="W75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I76" t="s">
         <v>52</v>
       </c>
       <c r="J76" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L76" s="1"/>
       <c r="U76" t="s">
@@ -3030,25 +2614,25 @@
         <v>66</v>
       </c>
       <c r="W76" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="X76" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I77" t="s">
         <v>52</v>
       </c>
       <c r="J77" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L77" s="1"/>
       <c r="U77" t="s">
@@ -3058,25 +2642,25 @@
         <v>66</v>
       </c>
       <c r="W77" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="X77" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I78" t="s">
         <v>52</v>
       </c>
       <c r="J78" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L78" s="1"/>
       <c r="U78" t="s">
@@ -3086,25 +2670,25 @@
         <v>66</v>
       </c>
       <c r="W78" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="X78" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I79" t="s">
         <v>52</v>
       </c>
       <c r="J79" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L79" s="1"/>
       <c r="U79" t="s">
@@ -3114,22 +2698,22 @@
         <v>66</v>
       </c>
       <c r="W79" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="X79" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I80" t="s">
         <v>52</v>
       </c>
       <c r="J80" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K80" t="s">
         <v>57</v>
@@ -3142,22 +2726,22 @@
         <v>66</v>
       </c>
       <c r="W80" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="X80" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I81" t="s">
         <v>52</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K81" t="s">
         <v>57</v>
@@ -3170,442 +2754,665 @@
         <v>66</v>
       </c>
       <c r="W81" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="X81" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="Y81" s="1"/>
+    </row>
+    <row r="82" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" t="s">
+        <v>52</v>
+      </c>
+      <c r="J82" t="s">
+        <v>24</v>
+      </c>
+      <c r="K82" t="s">
+        <v>57</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="U82" t="s">
+        <v>23</v>
+      </c>
+      <c r="V82" t="s">
+        <v>66</v>
+      </c>
+      <c r="W82" t="s">
+        <v>67</v>
+      </c>
+      <c r="X82" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I83" t="s">
         <v>52</v>
       </c>
       <c r="J83" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
         <v>57</v>
       </c>
       <c r="L83" s="1"/>
+      <c r="U83" t="s">
+        <v>23</v>
+      </c>
+      <c r="V83" t="s">
+        <v>66</v>
+      </c>
+      <c r="W83" t="s">
+        <v>90</v>
+      </c>
+      <c r="X83" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I84" t="s">
         <v>52</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K84" t="s">
         <v>57</v>
       </c>
       <c r="L84" s="1"/>
+      <c r="U84" t="s">
+        <v>23</v>
+      </c>
+      <c r="V84" t="s">
+        <v>66</v>
+      </c>
+      <c r="W84" t="s">
+        <v>100</v>
+      </c>
+      <c r="X84" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I85" t="s">
         <v>52</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K85" t="s">
         <v>57</v>
       </c>
       <c r="L85" s="1"/>
+      <c r="U85" t="s">
+        <v>23</v>
+      </c>
+      <c r="V85" t="s">
+        <v>66</v>
+      </c>
+      <c r="W85" t="s">
+        <v>101</v>
+      </c>
+      <c r="X85" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H86" t="s">
-        <v>25</v>
-      </c>
-      <c r="I86" t="s">
-        <v>52</v>
-      </c>
-      <c r="J86" t="s">
-        <v>43</v>
-      </c>
-      <c r="K86" t="s">
-        <v>57</v>
-      </c>
-      <c r="L86" s="1"/>
+      <c r="U86" t="s">
+        <v>23</v>
+      </c>
+      <c r="V86" t="s">
+        <v>66</v>
+      </c>
+      <c r="W86" t="s">
+        <v>64</v>
+      </c>
+      <c r="X86" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H87" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" t="s">
+        <v>52</v>
+      </c>
+      <c r="J87" t="s">
         <v>25</v>
       </c>
-      <c r="I87" t="s">
-        <v>52</v>
-      </c>
-      <c r="J87" t="s">
-        <v>44</v>
-      </c>
       <c r="K87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L87" s="1"/>
+      <c r="U87" t="s">
+        <v>23</v>
+      </c>
+      <c r="V87" t="s">
+        <v>66</v>
+      </c>
+      <c r="W87" t="s">
+        <v>94</v>
+      </c>
+      <c r="X87" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I88" t="s">
         <v>52</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L88" s="1"/>
+      <c r="U88" t="s">
+        <v>23</v>
+      </c>
+      <c r="V88" t="s">
+        <v>66</v>
+      </c>
+      <c r="W88" t="s">
+        <v>95</v>
+      </c>
+      <c r="X88" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I89" t="s">
         <v>52</v>
       </c>
       <c r="J89" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K89" t="s">
         <v>56</v>
       </c>
       <c r="L89" s="1"/>
+      <c r="U89" t="s">
+        <v>23</v>
+      </c>
+      <c r="V89" t="s">
+        <v>66</v>
+      </c>
+      <c r="W89" t="s">
+        <v>73</v>
+      </c>
+      <c r="X89" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H90" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I90" t="s">
         <v>52</v>
       </c>
       <c r="J90" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K90" t="s">
         <v>56</v>
       </c>
       <c r="L90" s="1"/>
+      <c r="U90" t="s">
+        <v>23</v>
+      </c>
+      <c r="V90" t="s">
+        <v>66</v>
+      </c>
+      <c r="W90" t="s">
+        <v>88</v>
+      </c>
+      <c r="X90" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H91" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I91" t="s">
         <v>52</v>
       </c>
       <c r="J91" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K91" t="s">
         <v>56</v>
       </c>
       <c r="L91" s="1"/>
+      <c r="U91" t="s">
+        <v>23</v>
+      </c>
+      <c r="V91" t="s">
+        <v>66</v>
+      </c>
+      <c r="W91" t="s">
+        <v>89</v>
+      </c>
+      <c r="X91" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I92" t="s">
         <v>52</v>
       </c>
       <c r="J92" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K92" t="s">
         <v>56</v>
       </c>
       <c r="L92" s="1"/>
+      <c r="U92" t="s">
+        <v>23</v>
+      </c>
+      <c r="V92" t="s">
+        <v>66</v>
+      </c>
+      <c r="W92" t="s">
+        <v>74</v>
+      </c>
+      <c r="X92" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I93" t="s">
         <v>52</v>
       </c>
       <c r="J93" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L93" s="1"/>
+      <c r="U93" t="s">
+        <v>23</v>
+      </c>
+      <c r="V93" t="s">
+        <v>66</v>
+      </c>
+      <c r="W93" t="s">
+        <v>86</v>
+      </c>
+      <c r="X93" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I94" t="s">
         <v>52</v>
       </c>
       <c r="J94" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L94" s="1"/>
+      <c r="U94" t="s">
+        <v>23</v>
+      </c>
+      <c r="V94" t="s">
+        <v>66</v>
+      </c>
+      <c r="W94" t="s">
+        <v>87</v>
+      </c>
+      <c r="X94" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y94" s="1"/>
+    </row>
+    <row r="95" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" t="s">
+        <v>52</v>
+      </c>
+      <c r="J95" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" t="s">
+        <v>57</v>
+      </c>
+      <c r="L95" s="1"/>
+      <c r="U95" t="s">
+        <v>23</v>
+      </c>
+      <c r="V95" t="s">
+        <v>66</v>
+      </c>
+      <c r="W95" t="s">
+        <v>71</v>
+      </c>
+      <c r="X95" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H96" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I96" t="s">
         <v>52</v>
       </c>
       <c r="J96" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" t="s">
+        <v>57</v>
+      </c>
+      <c r="L96" s="1"/>
+      <c r="U96" t="s">
+        <v>23</v>
+      </c>
+      <c r="V96" t="s">
+        <v>66</v>
+      </c>
+      <c r="W96" t="s">
+        <v>92</v>
+      </c>
+      <c r="X96" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y96" s="1"/>
+    </row>
+    <row r="97" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" t="s">
+        <v>52</v>
+      </c>
+      <c r="J97" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97" t="s">
+        <v>57</v>
+      </c>
+      <c r="L97" s="1"/>
+      <c r="U97" t="s">
+        <v>23</v>
+      </c>
+      <c r="V97" t="s">
+        <v>66</v>
+      </c>
+      <c r="W97" t="s">
+        <v>91</v>
+      </c>
+      <c r="X97" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y97" s="1"/>
+    </row>
+    <row r="98" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" t="s">
+        <v>52</v>
+      </c>
+      <c r="J98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K98" t="s">
+        <v>57</v>
+      </c>
+      <c r="L98" s="1"/>
+      <c r="U98" t="s">
+        <v>23</v>
+      </c>
+      <c r="V98" t="s">
+        <v>66</v>
+      </c>
+      <c r="W98" t="s">
+        <v>93</v>
+      </c>
+      <c r="X98" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y98" s="1"/>
+    </row>
+    <row r="100" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
         <v>25</v>
       </c>
-      <c r="K96" t="s">
-        <v>57</v>
-      </c>
-      <c r="L96" s="1"/>
-    </row>
-    <row r="97" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H97" t="s">
-        <v>55</v>
-      </c>
-      <c r="I97" t="s">
-        <v>52</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="I100" t="s">
+        <v>52</v>
+      </c>
+      <c r="J100" t="s">
+        <v>25</v>
+      </c>
+      <c r="K100" t="s">
+        <v>57</v>
+      </c>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" t="s">
+        <v>52</v>
+      </c>
+      <c r="J101" t="s">
         <v>46</v>
       </c>
-      <c r="K97" t="s">
-        <v>57</v>
-      </c>
-      <c r="L97" s="1"/>
-    </row>
-    <row r="98" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H98" t="s">
-        <v>55</v>
-      </c>
-      <c r="I98" t="s">
-        <v>52</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="K101" t="s">
+        <v>57</v>
+      </c>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s">
+        <v>52</v>
+      </c>
+      <c r="J102" t="s">
         <v>42</v>
       </c>
-      <c r="K98" t="s">
-        <v>57</v>
-      </c>
-      <c r="L98" s="1"/>
-    </row>
-    <row r="99" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H99" t="s">
-        <v>55</v>
-      </c>
-      <c r="I99" t="s">
-        <v>52</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="K102" t="s">
+        <v>57</v>
+      </c>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" t="s">
+        <v>52</v>
+      </c>
+      <c r="J103" t="s">
         <v>43</v>
       </c>
-      <c r="K99" t="s">
-        <v>57</v>
-      </c>
-      <c r="L99" s="1"/>
-    </row>
-    <row r="100" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H100" t="s">
-        <v>55</v>
-      </c>
-      <c r="I100" t="s">
-        <v>52</v>
-      </c>
-      <c r="J100" t="s">
+      <c r="K103" t="s">
+        <v>57</v>
+      </c>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" t="s">
+        <v>52</v>
+      </c>
+      <c r="J104" t="s">
         <v>44</v>
       </c>
-      <c r="K100" t="s">
-        <v>57</v>
-      </c>
-      <c r="L100" s="1"/>
-    </row>
-    <row r="101" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H101" t="s">
-        <v>55</v>
-      </c>
-      <c r="I101" t="s">
-        <v>52</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="K104" t="s">
+        <v>57</v>
+      </c>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" t="s">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s">
         <v>45</v>
       </c>
-      <c r="K101" t="s">
-        <v>57</v>
-      </c>
-      <c r="L101" s="1"/>
-    </row>
-    <row r="102" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H102" t="s">
-        <v>55</v>
-      </c>
-      <c r="I102" t="s">
-        <v>52</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="K105" t="s">
+        <v>57</v>
+      </c>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s">
+        <v>52</v>
+      </c>
+      <c r="J106" t="s">
         <v>0</v>
       </c>
-      <c r="K102" t="s">
-        <v>56</v>
-      </c>
-      <c r="L102" s="1"/>
-    </row>
-    <row r="103" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H103" t="s">
-        <v>55</v>
-      </c>
-      <c r="I103" t="s">
-        <v>52</v>
-      </c>
-      <c r="J103" t="s">
+      <c r="K106" t="s">
+        <v>56</v>
+      </c>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" t="s">
+        <v>52</v>
+      </c>
+      <c r="J107" t="s">
         <v>20</v>
       </c>
-      <c r="K103" t="s">
-        <v>56</v>
-      </c>
-      <c r="L103" s="1"/>
-    </row>
-    <row r="104" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H104" t="s">
-        <v>55</v>
-      </c>
-      <c r="I104" t="s">
-        <v>52</v>
-      </c>
-      <c r="J104" t="s">
+      <c r="K107" t="s">
+        <v>56</v>
+      </c>
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" t="s">
+        <v>52</v>
+      </c>
+      <c r="J108" t="s">
         <v>24</v>
       </c>
-      <c r="K104" t="s">
-        <v>56</v>
-      </c>
-      <c r="L104" s="1"/>
-    </row>
-    <row r="105" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H105" t="s">
-        <v>55</v>
-      </c>
-      <c r="I105" t="s">
-        <v>52</v>
-      </c>
-      <c r="J105" t="s">
+      <c r="K108" t="s">
+        <v>56</v>
+      </c>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>25</v>
+      </c>
+      <c r="I109" t="s">
+        <v>52</v>
+      </c>
+      <c r="J109" t="s">
         <v>21</v>
       </c>
-      <c r="K105" t="s">
-        <v>56</v>
-      </c>
-      <c r="L105" s="1"/>
-    </row>
-    <row r="106" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H106" t="s">
-        <v>55</v>
-      </c>
-      <c r="I106" t="s">
-        <v>52</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="K109" t="s">
+        <v>56</v>
+      </c>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s">
         <v>22</v>
       </c>
-      <c r="K106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L106" s="1"/>
-    </row>
-    <row r="107" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H107" t="s">
-        <v>55</v>
-      </c>
-      <c r="I107" t="s">
-        <v>52</v>
-      </c>
-      <c r="J107" t="s">
-        <v>23</v>
-      </c>
-      <c r="K107" t="s">
-        <v>56</v>
-      </c>
-      <c r="L107" s="1"/>
-    </row>
-    <row r="109" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H109" t="s">
-        <v>42</v>
-      </c>
-      <c r="I109" t="s">
-        <v>52</v>
-      </c>
-      <c r="J109" t="s">
+      <c r="K110" t="s">
+        <v>56</v>
+      </c>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
         <v>25</v>
       </c>
-      <c r="K109" t="s">
-        <v>57</v>
-      </c>
-      <c r="L109" s="1"/>
-    </row>
-    <row r="110" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H110" t="s">
-        <v>42</v>
-      </c>
-      <c r="I110" t="s">
-        <v>52</v>
-      </c>
-      <c r="J110" t="s">
-        <v>46</v>
-      </c>
-      <c r="K110" t="s">
-        <v>57</v>
-      </c>
-      <c r="L110" s="1"/>
-    </row>
-    <row r="111" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H111" t="s">
-        <v>42</v>
-      </c>
       <c r="I111" t="s">
         <v>52</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L111" s="1"/>
-    </row>
-    <row r="112" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H112" t="s">
-        <v>42</v>
-      </c>
-      <c r="I112" t="s">
-        <v>52</v>
-      </c>
-      <c r="J112" t="s">
-        <v>43</v>
-      </c>
-      <c r="K112" t="s">
-        <v>57</v>
-      </c>
-      <c r="L112" s="1"/>
     </row>
     <row r="113" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H113" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I113" t="s">
         <v>52</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K113" t="s">
         <v>57</v>
@@ -3614,13 +3421,13 @@
     </row>
     <row r="114" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H114" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I114" t="s">
         <v>52</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114" t="s">
         <v>57</v>
@@ -3629,73 +3436,73 @@
     </row>
     <row r="115" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H115" t="s">
+        <v>55</v>
+      </c>
+      <c r="I115" t="s">
+        <v>52</v>
+      </c>
+      <c r="J115" t="s">
         <v>42</v>
       </c>
-      <c r="I115" t="s">
-        <v>52</v>
-      </c>
-      <c r="J115" t="s">
-        <v>0</v>
-      </c>
       <c r="K115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H116" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I116" t="s">
         <v>52</v>
       </c>
       <c r="J116" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L116" s="1"/>
     </row>
     <row r="117" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H117" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I117" t="s">
         <v>52</v>
       </c>
       <c r="J117" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L117" s="1"/>
     </row>
     <row r="118" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H118" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I118" t="s">
         <v>52</v>
       </c>
       <c r="J118" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H119" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I119" t="s">
         <v>52</v>
       </c>
       <c r="J119" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K119" t="s">
         <v>56</v>
@@ -3704,88 +3511,88 @@
     </row>
     <row r="120" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H120" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I120" t="s">
         <v>52</v>
       </c>
       <c r="J120" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K120" t="s">
         <v>56</v>
       </c>
       <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>55</v>
+      </c>
+      <c r="I121" t="s">
+        <v>52</v>
+      </c>
+      <c r="J121" t="s">
+        <v>24</v>
+      </c>
+      <c r="K121" t="s">
+        <v>56</v>
+      </c>
+      <c r="L121" s="1"/>
     </row>
     <row r="122" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H122" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I122" t="s">
         <v>52</v>
       </c>
       <c r="J122" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K122" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L122" s="1"/>
     </row>
     <row r="123" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H123" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I123" t="s">
         <v>52</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L123" s="1"/>
     </row>
     <row r="124" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H124" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I124" t="s">
         <v>52</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K124" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L124" s="1"/>
-    </row>
-    <row r="125" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H125" t="s">
-        <v>43</v>
-      </c>
-      <c r="I125" t="s">
-        <v>52</v>
-      </c>
-      <c r="J125" t="s">
-        <v>43</v>
-      </c>
-      <c r="K125" t="s">
-        <v>57</v>
-      </c>
-      <c r="L125" s="1"/>
     </row>
     <row r="126" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I126" t="s">
         <v>52</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K126" t="s">
         <v>57</v>
@@ -3794,13 +3601,13 @@
     </row>
     <row r="127" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I127" t="s">
         <v>52</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K127" t="s">
         <v>57</v>
@@ -3809,73 +3616,73 @@
     </row>
     <row r="128" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I128" t="s">
         <v>52</v>
       </c>
       <c r="J128" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L128" s="1"/>
     </row>
     <row r="129" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H129" t="s">
+        <v>42</v>
+      </c>
+      <c r="I129" t="s">
+        <v>52</v>
+      </c>
+      <c r="J129" t="s">
         <v>43</v>
       </c>
-      <c r="I129" t="s">
-        <v>52</v>
-      </c>
-      <c r="J129" t="s">
-        <v>20</v>
-      </c>
       <c r="K129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L129" s="1"/>
     </row>
     <row r="130" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I130" t="s">
         <v>52</v>
       </c>
       <c r="J130" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L130" s="1"/>
     </row>
     <row r="131" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I131" t="s">
         <v>52</v>
       </c>
       <c r="J131" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L131" s="1"/>
     </row>
     <row r="132" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I132" t="s">
         <v>52</v>
       </c>
       <c r="J132" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K132" t="s">
         <v>56</v>
@@ -3884,88 +3691,88 @@
     </row>
     <row r="133" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I133" t="s">
         <v>52</v>
       </c>
       <c r="J133" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K133" t="s">
         <v>56</v>
       </c>
       <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>42</v>
+      </c>
+      <c r="I134" t="s">
+        <v>52</v>
+      </c>
+      <c r="J134" t="s">
+        <v>24</v>
+      </c>
+      <c r="K134" t="s">
+        <v>56</v>
+      </c>
+      <c r="L134" s="1"/>
     </row>
     <row r="135" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I135" t="s">
         <v>52</v>
       </c>
       <c r="J135" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K135" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L135" s="1"/>
     </row>
     <row r="136" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I136" t="s">
         <v>52</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K136" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L136" s="1"/>
     </row>
     <row r="137" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H137" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I137" t="s">
         <v>52</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K137" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L137" s="1"/>
-    </row>
-    <row r="138" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H138" t="s">
-        <v>44</v>
-      </c>
-      <c r="I138" t="s">
-        <v>52</v>
-      </c>
-      <c r="J138" t="s">
-        <v>43</v>
-      </c>
-      <c r="K138" t="s">
-        <v>57</v>
-      </c>
-      <c r="L138" s="1"/>
     </row>
     <row r="139" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I139" t="s">
         <v>52</v>
       </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K139" t="s">
         <v>57</v>
@@ -3974,13 +3781,13 @@
     </row>
     <row r="140" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I140" t="s">
         <v>52</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140" t="s">
         <v>57</v>
@@ -3989,73 +3796,73 @@
     </row>
     <row r="141" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I141" t="s">
         <v>52</v>
       </c>
       <c r="J141" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L141" s="1"/>
     </row>
     <row r="142" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I142" t="s">
         <v>52</v>
       </c>
       <c r="J142" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L142" s="1"/>
     </row>
     <row r="143" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H143" t="s">
+        <v>43</v>
+      </c>
+      <c r="I143" t="s">
+        <v>52</v>
+      </c>
+      <c r="J143" t="s">
         <v>44</v>
       </c>
-      <c r="I143" t="s">
-        <v>52</v>
-      </c>
-      <c r="J143" t="s">
-        <v>24</v>
-      </c>
       <c r="K143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L143" s="1"/>
     </row>
     <row r="144" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I144" t="s">
         <v>52</v>
       </c>
       <c r="J144" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L144" s="1"/>
     </row>
     <row r="145" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I145" t="s">
         <v>52</v>
       </c>
       <c r="J145" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K145" t="s">
         <v>56</v>
@@ -4064,88 +3871,88 @@
     </row>
     <row r="146" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I146" t="s">
         <v>52</v>
       </c>
       <c r="J146" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K146" t="s">
         <v>56</v>
       </c>
       <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>43</v>
+      </c>
+      <c r="I147" t="s">
+        <v>52</v>
+      </c>
+      <c r="J147" t="s">
+        <v>24</v>
+      </c>
+      <c r="K147" t="s">
+        <v>56</v>
+      </c>
+      <c r="L147" s="1"/>
     </row>
     <row r="148" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I148" t="s">
         <v>52</v>
       </c>
       <c r="J148" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K148" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L148" s="1"/>
     </row>
     <row r="149" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H149" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I149" t="s">
         <v>52</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L149" s="1"/>
     </row>
     <row r="150" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H150" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I150" t="s">
         <v>52</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K150" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L150" s="1"/>
-    </row>
-    <row r="151" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H151" t="s">
-        <v>45</v>
-      </c>
-      <c r="I151" t="s">
-        <v>52</v>
-      </c>
-      <c r="J151" t="s">
-        <v>43</v>
-      </c>
-      <c r="K151" t="s">
-        <v>57</v>
-      </c>
-      <c r="L151" s="1"/>
     </row>
     <row r="152" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I152" t="s">
         <v>52</v>
       </c>
       <c r="J152" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K152" t="s">
         <v>57</v>
@@ -4154,13 +3961,13 @@
     </row>
     <row r="153" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I153" t="s">
         <v>52</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K153" t="s">
         <v>57</v>
@@ -4169,73 +3976,73 @@
     </row>
     <row r="154" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I154" t="s">
         <v>52</v>
       </c>
       <c r="J154" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L154" s="1"/>
     </row>
     <row r="155" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I155" t="s">
         <v>52</v>
       </c>
       <c r="J155" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L155" s="1"/>
     </row>
     <row r="156" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I156" t="s">
         <v>52</v>
       </c>
       <c r="J156" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L156" s="1"/>
     </row>
     <row r="157" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H157" t="s">
+        <v>44</v>
+      </c>
+      <c r="I157" t="s">
+        <v>52</v>
+      </c>
+      <c r="J157" t="s">
         <v>45</v>
       </c>
-      <c r="I157" t="s">
-        <v>52</v>
-      </c>
-      <c r="J157" t="s">
-        <v>21</v>
-      </c>
       <c r="K157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L157" s="1"/>
     </row>
     <row r="158" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I158" t="s">
         <v>52</v>
       </c>
       <c r="J158" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K158" t="s">
         <v>56</v>
@@ -4244,20 +4051,264 @@
     </row>
     <row r="159" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H159" t="s">
+        <v>44</v>
+      </c>
+      <c r="I159" t="s">
+        <v>52</v>
+      </c>
+      <c r="J159" t="s">
+        <v>20</v>
+      </c>
+      <c r="K159" t="s">
+        <v>56</v>
+      </c>
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>44</v>
+      </c>
+      <c r="I160" t="s">
+        <v>52</v>
+      </c>
+      <c r="J160" t="s">
+        <v>24</v>
+      </c>
+      <c r="K160" t="s">
+        <v>56</v>
+      </c>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>44</v>
+      </c>
+      <c r="I161" t="s">
+        <v>52</v>
+      </c>
+      <c r="J161" t="s">
+        <v>21</v>
+      </c>
+      <c r="K161" t="s">
+        <v>56</v>
+      </c>
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>44</v>
+      </c>
+      <c r="I162" t="s">
+        <v>52</v>
+      </c>
+      <c r="J162" t="s">
+        <v>22</v>
+      </c>
+      <c r="K162" t="s">
+        <v>56</v>
+      </c>
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>44</v>
+      </c>
+      <c r="I163" t="s">
+        <v>52</v>
+      </c>
+      <c r="J163" t="s">
+        <v>23</v>
+      </c>
+      <c r="K163" t="s">
+        <v>56</v>
+      </c>
+      <c r="L163" s="1"/>
+    </row>
+    <row r="165" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
         <v>45</v>
       </c>
-      <c r="I159" t="s">
-        <v>52</v>
-      </c>
-      <c r="J159" t="s">
-        <v>23</v>
-      </c>
-      <c r="K159" t="s">
-        <v>56</v>
-      </c>
-      <c r="L159" s="1"/>
+      <c r="I165" t="s">
+        <v>52</v>
+      </c>
+      <c r="J165" t="s">
+        <v>25</v>
+      </c>
+      <c r="K165" t="s">
+        <v>57</v>
+      </c>
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>45</v>
+      </c>
+      <c r="I166" t="s">
+        <v>52</v>
+      </c>
+      <c r="J166" t="s">
+        <v>46</v>
+      </c>
+      <c r="K166" t="s">
+        <v>57</v>
+      </c>
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H167" t="s">
+        <v>45</v>
+      </c>
+      <c r="I167" t="s">
+        <v>52</v>
+      </c>
+      <c r="J167" t="s">
+        <v>42</v>
+      </c>
+      <c r="K167" t="s">
+        <v>57</v>
+      </c>
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>45</v>
+      </c>
+      <c r="I168" t="s">
+        <v>52</v>
+      </c>
+      <c r="J168" t="s">
+        <v>43</v>
+      </c>
+      <c r="K168" t="s">
+        <v>57</v>
+      </c>
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>45</v>
+      </c>
+      <c r="I169" t="s">
+        <v>52</v>
+      </c>
+      <c r="J169" t="s">
+        <v>44</v>
+      </c>
+      <c r="K169" t="s">
+        <v>57</v>
+      </c>
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>45</v>
+      </c>
+      <c r="I170" t="s">
+        <v>52</v>
+      </c>
+      <c r="J170" t="s">
+        <v>45</v>
+      </c>
+      <c r="K170" t="s">
+        <v>57</v>
+      </c>
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>45</v>
+      </c>
+      <c r="I171" t="s">
+        <v>52</v>
+      </c>
+      <c r="J171" t="s">
+        <v>0</v>
+      </c>
+      <c r="K171" t="s">
+        <v>56</v>
+      </c>
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>45</v>
+      </c>
+      <c r="I172" t="s">
+        <v>52</v>
+      </c>
+      <c r="J172" t="s">
+        <v>20</v>
+      </c>
+      <c r="K172" t="s">
+        <v>56</v>
+      </c>
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>45</v>
+      </c>
+      <c r="I173" t="s">
+        <v>52</v>
+      </c>
+      <c r="J173" t="s">
+        <v>24</v>
+      </c>
+      <c r="K173" t="s">
+        <v>56</v>
+      </c>
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>45</v>
+      </c>
+      <c r="I174" t="s">
+        <v>52</v>
+      </c>
+      <c r="J174" t="s">
+        <v>21</v>
+      </c>
+      <c r="K174" t="s">
+        <v>56</v>
+      </c>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>45</v>
+      </c>
+      <c r="I175" t="s">
+        <v>52</v>
+      </c>
+      <c r="J175" t="s">
+        <v>22</v>
+      </c>
+      <c r="K175" t="s">
+        <v>56</v>
+      </c>
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>45</v>
+      </c>
+      <c r="I176" t="s">
+        <v>52</v>
+      </c>
+      <c r="J176" t="s">
+        <v>23</v>
+      </c>
+      <c r="K176" t="s">
+        <v>56</v>
+      </c>
+      <c r="L176" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:AA9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3E2E9A-F438-4DD2-9070-DB7A2323672C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC073BD8-AD40-435A-A1DD-77775FCB96FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D9:AA176"/>
+  <dimension ref="D3:AA162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,968 +693,1407 @@
     <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="U8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="1"/>
+    </row>
     <row r="9" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-    </row>
-    <row r="18" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="U9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="U10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="U11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="U12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" t="s">
+        <v>73</v>
+      </c>
+      <c r="X12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="U13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" t="s">
+        <v>66</v>
+      </c>
+      <c r="W13" t="s">
+        <v>68</v>
+      </c>
+      <c r="X13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="U14" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" t="s">
+        <v>66</v>
+      </c>
+      <c r="W14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="U15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" t="s">
+        <v>66</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="U17" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="4:27" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="O18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W18" t="s">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>47</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="H19" t="s">
-        <v>3</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="1"/>
       <c r="O19" t="s">
-        <v>59</v>
-      </c>
-      <c r="U19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="4:27" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="P19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" t="s">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="U20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="4:27" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="V20" t="s">
+        <v>66</v>
+      </c>
+      <c r="W20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="U21" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" t="s">
+        <v>66</v>
+      </c>
+      <c r="W21" t="s">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="U22" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W22" t="s">
+        <v>80</v>
+      </c>
+      <c r="X22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="U23" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" t="s">
+        <v>66</v>
+      </c>
+      <c r="W23" t="s">
+        <v>81</v>
+      </c>
+      <c r="X23" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="U24" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" t="s">
+        <v>66</v>
+      </c>
+      <c r="W24" t="s">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="U25" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" t="s">
+        <v>66</v>
+      </c>
+      <c r="W25" t="s">
+        <v>83</v>
+      </c>
+      <c r="X25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="H26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="U26" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" t="s">
+        <v>66</v>
+      </c>
+      <c r="W26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="H21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>2</v>
-      </c>
-      <c r="O21" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>63</v>
-      </c>
-      <c r="R21" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U21" t="s">
-        <v>61</v>
-      </c>
-      <c r="V21" t="s">
-        <v>62</v>
-      </c>
-      <c r="W21" t="s">
-        <v>63</v>
-      </c>
-      <c r="X21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="H22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="O22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>64</v>
-      </c>
-      <c r="R22" t="s">
-        <v>57</v>
-      </c>
-      <c r="S22" s="1"/>
-      <c r="U22" t="s">
-        <v>22</v>
-      </c>
-      <c r="V22" t="s">
-        <v>66</v>
-      </c>
-      <c r="W22" t="s">
-        <v>67</v>
-      </c>
-      <c r="X22" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="K27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="U27" t="s">
         <v>20</v>
       </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="H23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="O23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>64</v>
-      </c>
-      <c r="R23" t="s">
-        <v>57</v>
-      </c>
-      <c r="S23" s="1"/>
-      <c r="U23" t="s">
-        <v>22</v>
-      </c>
-      <c r="V23" t="s">
-        <v>66</v>
-      </c>
-      <c r="W23" t="s">
-        <v>64</v>
-      </c>
-      <c r="X23" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="V27" t="s">
+        <v>66</v>
+      </c>
+      <c r="W27" t="s">
+        <v>85</v>
+      </c>
+      <c r="X27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="H28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
         <v>20</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="H24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="O24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P24" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>64</v>
-      </c>
-      <c r="R24" t="s">
-        <v>57</v>
-      </c>
-      <c r="S24" s="1"/>
-      <c r="U24" t="s">
-        <v>22</v>
-      </c>
-      <c r="V24" t="s">
-        <v>66</v>
-      </c>
-      <c r="W24" t="s">
-        <v>71</v>
-      </c>
-      <c r="X24" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="H25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="O25" t="s">
-        <v>43</v>
-      </c>
-      <c r="P25" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>64</v>
-      </c>
-      <c r="R25" t="s">
-        <v>57</v>
-      </c>
-      <c r="S25" s="1"/>
-      <c r="U25" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" t="s">
-        <v>66</v>
-      </c>
-      <c r="W25" t="s">
-        <v>72</v>
-      </c>
-      <c r="X25" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="H26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K28" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>44</v>
       </c>
-      <c r="K26" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="O26" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>64</v>
-      </c>
-      <c r="R26" t="s">
-        <v>57</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="U26" t="s">
-        <v>22</v>
-      </c>
-      <c r="V26" t="s">
-        <v>66</v>
-      </c>
-      <c r="W26" t="s">
-        <v>73</v>
-      </c>
-      <c r="X26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="H27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="O27" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R27" t="s">
-        <v>57</v>
-      </c>
-      <c r="S27" s="1"/>
-      <c r="U27" t="s">
-        <v>22</v>
-      </c>
-      <c r="V27" t="s">
-        <v>66</v>
-      </c>
-      <c r="W27" t="s">
-        <v>68</v>
-      </c>
-      <c r="X27" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="H28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="O28" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>64</v>
-      </c>
-      <c r="R28" t="s">
-        <v>57</v>
-      </c>
-      <c r="S28" s="1"/>
-      <c r="U28" t="s">
-        <v>22</v>
-      </c>
-      <c r="V28" t="s">
-        <v>66</v>
-      </c>
-      <c r="W28" t="s">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F29" s="1"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
         <v>52</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
         <v>57</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="O29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>64</v>
-      </c>
-      <c r="R29" t="s">
-        <v>57</v>
-      </c>
-      <c r="S29" s="1"/>
       <c r="U29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V29" t="s">
         <v>66</v>
       </c>
       <c r="W29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F30" s="1"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
         <v>52</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
         <v>57</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="O30" t="s">
-        <v>24</v>
-      </c>
-      <c r="P30" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>64</v>
-      </c>
-      <c r="R30" t="s">
-        <v>57</v>
-      </c>
-      <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="U30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" t="s">
+        <v>66</v>
+      </c>
+      <c r="W30" t="s">
+        <v>86</v>
+      </c>
+      <c r="X30" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F31" s="1"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
         <v>52</v>
       </c>
       <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="P31" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" t="s">
         <v>21</v>
       </c>
-      <c r="K31" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="O31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>64</v>
-      </c>
-      <c r="R31" t="s">
-        <v>57</v>
-      </c>
-      <c r="S31" s="1"/>
-      <c r="U31" t="s">
-        <v>24</v>
-      </c>
       <c r="V31" t="s">
         <v>66</v>
       </c>
       <c r="W31" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="X31" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F32" s="1"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
         <v>52</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
         <v>57</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="O32" t="s">
-        <v>22</v>
-      </c>
-      <c r="P32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>64</v>
-      </c>
-      <c r="R32" t="s">
-        <v>57</v>
-      </c>
-      <c r="S32" s="1"/>
-      <c r="T32" t="s">
-        <v>76</v>
-      </c>
       <c r="U32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V32" t="s">
         <v>66</v>
       </c>
       <c r="W32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="H33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" s="1"/>
-      <c r="O33" t="s">
-        <v>23</v>
-      </c>
-      <c r="P33" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>64</v>
-      </c>
-      <c r="R33" t="s">
-        <v>57</v>
-      </c>
-      <c r="S33" s="1"/>
+      <c r="U33" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" t="s">
+        <v>66</v>
+      </c>
+      <c r="W33" t="s">
+        <v>88</v>
+      </c>
+      <c r="X33" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F34" s="1"/>
+      <c r="H34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="1"/>
       <c r="U34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V34" t="s">
         <v>66</v>
       </c>
       <c r="W34" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="X34" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I35" t="s">
         <v>52</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s">
         <v>56</v>
       </c>
       <c r="L35" s="1"/>
       <c r="U35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V35" t="s">
         <v>66</v>
       </c>
       <c r="W35" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X35" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F36" s="1"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s">
         <v>52</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K36" t="s">
         <v>56</v>
       </c>
       <c r="L36" s="1"/>
       <c r="U36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V36" t="s">
         <v>66</v>
       </c>
       <c r="W36" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X36" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F37" s="1"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I37" t="s">
         <v>52</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K37" t="s">
         <v>56</v>
       </c>
       <c r="L37" s="1"/>
       <c r="U37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V37" t="s">
         <v>66</v>
       </c>
       <c r="W37" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="X37" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F38" s="1"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I38" t="s">
         <v>52</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38" t="s">
         <v>56</v>
       </c>
       <c r="L38" s="1"/>
       <c r="U38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V38" t="s">
         <v>66</v>
       </c>
       <c r="W38" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="X38" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="1"/>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I39" t="s">
         <v>52</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s">
         <v>56</v>
       </c>
       <c r="L39" s="1"/>
       <c r="U39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V39" t="s">
         <v>66</v>
       </c>
       <c r="W39" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="X39" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="1"/>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s">
         <v>52</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L40" s="1"/>
       <c r="U40" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" t="s">
+        <v>66</v>
+      </c>
+      <c r="W40" t="s">
+        <v>94</v>
+      </c>
+      <c r="X40" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" t="s">
         <v>20</v>
-      </c>
-      <c r="V40" t="s">
-        <v>66</v>
-      </c>
-      <c r="W40" t="s">
-        <v>84</v>
-      </c>
-      <c r="X40" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" t="s">
-        <v>0</v>
       </c>
       <c r="K41" t="s">
         <v>57</v>
       </c>
       <c r="L41" s="1"/>
       <c r="U41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V41" t="s">
         <v>66</v>
       </c>
       <c r="W41" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="X41" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="1"/>
       <c r="H42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s">
         <v>52</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K42" t="s">
         <v>57</v>
@@ -1662,852 +2101,779 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="1"/>
       <c r="H43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s">
         <v>52</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
         <v>57</v>
       </c>
       <c r="L43" s="1"/>
       <c r="U43" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="V43" t="s">
         <v>66</v>
       </c>
       <c r="W43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="1"/>
       <c r="H44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I44" t="s">
         <v>52</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
         <v>57</v>
       </c>
       <c r="L44" s="1"/>
       <c r="U44" t="s">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>66</v>
+      </c>
+      <c r="W44" t="s">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="U45" t="s">
+        <v>0</v>
+      </c>
+      <c r="V45" t="s">
+        <v>66</v>
+      </c>
+      <c r="W45" t="s">
+        <v>96</v>
+      </c>
+      <c r="X45" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="U46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>66</v>
+      </c>
+      <c r="W46" t="s">
+        <v>72</v>
+      </c>
+      <c r="X46" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
         <v>21</v>
       </c>
-      <c r="V44" t="s">
-        <v>66</v>
-      </c>
-      <c r="W44" t="s">
-        <v>86</v>
-      </c>
-      <c r="X44" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y44" s="1"/>
-    </row>
-    <row r="45" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
+      <c r="I47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="U47" t="s">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>66</v>
+      </c>
+      <c r="W47" t="s">
+        <v>97</v>
+      </c>
+      <c r="X47" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y47" s="1"/>
+    </row>
+    <row r="48" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" t="s">
         <v>46</v>
-      </c>
-      <c r="E45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="H45" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="1"/>
-      <c r="P45" t="s">
-        <v>102</v>
-      </c>
-      <c r="U45" t="s">
-        <v>21</v>
-      </c>
-      <c r="V45" t="s">
-        <v>66</v>
-      </c>
-      <c r="W45" t="s">
-        <v>87</v>
-      </c>
-      <c r="X45" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y45" s="1"/>
-    </row>
-    <row r="46" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="H46" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" t="s">
-        <v>57</v>
-      </c>
-      <c r="L46" s="1"/>
-      <c r="U46" t="s">
-        <v>21</v>
-      </c>
-      <c r="V46" t="s">
-        <v>66</v>
-      </c>
-      <c r="W46" t="s">
-        <v>73</v>
-      </c>
-      <c r="X46" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="U47" t="s">
-        <v>21</v>
-      </c>
-      <c r="V47" t="s">
-        <v>66</v>
-      </c>
-      <c r="W47" t="s">
-        <v>88</v>
-      </c>
-      <c r="X47" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y47" s="1"/>
-    </row>
-    <row r="48" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="H48" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" t="s">
-        <v>25</v>
       </c>
       <c r="K48" t="s">
         <v>56</v>
       </c>
       <c r="L48" s="1"/>
       <c r="U48" t="s">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>66</v>
+      </c>
+      <c r="W48" t="s">
+        <v>98</v>
+      </c>
+      <c r="X48" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y48" s="1"/>
+    </row>
+    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
         <v>21</v>
       </c>
-      <c r="V48" t="s">
-        <v>66</v>
-      </c>
-      <c r="W48" t="s">
-        <v>89</v>
-      </c>
-      <c r="X48" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y48" s="1"/>
-    </row>
-    <row r="49" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="H49" t="s">
-        <v>54</v>
-      </c>
       <c r="I49" t="s">
         <v>52</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K49" t="s">
         <v>56</v>
       </c>
       <c r="L49" s="1"/>
       <c r="U49" t="s">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>66</v>
+      </c>
+      <c r="W49" t="s">
+        <v>99</v>
+      </c>
+      <c r="X49" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y49" s="1"/>
+    </row>
+    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
         <v>21</v>
       </c>
-      <c r="V49" t="s">
-        <v>66</v>
-      </c>
-      <c r="W49" t="s">
-        <v>71</v>
-      </c>
-      <c r="X49" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y49" s="1"/>
-    </row>
-    <row r="50" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="H50" t="s">
-        <v>54</v>
-      </c>
       <c r="I50" t="s">
         <v>52</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50" t="s">
         <v>56</v>
       </c>
       <c r="L50" s="1"/>
       <c r="U50" t="s">
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>66</v>
+      </c>
+      <c r="W50" t="s">
+        <v>68</v>
+      </c>
+      <c r="X50" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y50" s="1"/>
+    </row>
+    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
         <v>21</v>
       </c>
-      <c r="V50" t="s">
-        <v>66</v>
-      </c>
-      <c r="W50" t="s">
-        <v>92</v>
-      </c>
-      <c r="X50" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y50" s="1"/>
-    </row>
-    <row r="51" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="H51" t="s">
-        <v>54</v>
-      </c>
       <c r="I51" t="s">
         <v>52</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51" t="s">
         <v>56</v>
       </c>
       <c r="L51" s="1"/>
       <c r="U51" t="s">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>66</v>
+      </c>
+      <c r="W51" t="s">
+        <v>69</v>
+      </c>
+      <c r="X51" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y51" s="1"/>
+    </row>
+    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
         <v>21</v>
       </c>
-      <c r="V51" t="s">
-        <v>66</v>
-      </c>
-      <c r="W51" t="s">
-        <v>91</v>
-      </c>
-      <c r="X51" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y51" s="1"/>
-    </row>
-    <row r="52" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="H52" t="s">
-        <v>54</v>
-      </c>
       <c r="I52" t="s">
         <v>52</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s">
         <v>56</v>
       </c>
       <c r="L52" s="1"/>
       <c r="U52" t="s">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
+        <v>66</v>
+      </c>
+      <c r="W52" t="s">
+        <v>70</v>
+      </c>
+      <c r="X52" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y52" s="1"/>
+    </row>
+    <row r="53" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
         <v>21</v>
       </c>
-      <c r="V52" t="s">
-        <v>66</v>
-      </c>
-      <c r="W52" t="s">
-        <v>93</v>
-      </c>
-      <c r="X52" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y52" s="1"/>
-    </row>
-    <row r="53" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="H53" t="s">
-        <v>54</v>
-      </c>
       <c r="I53" t="s">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L53" s="1"/>
       <c r="U53" t="s">
+        <v>0</v>
+      </c>
+      <c r="V53" t="s">
+        <v>66</v>
+      </c>
+      <c r="W53" t="s">
+        <v>67</v>
+      </c>
+      <c r="X53" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y53" s="1"/>
+    </row>
+    <row r="54" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
         <v>21</v>
       </c>
-      <c r="V53" t="s">
-        <v>66</v>
-      </c>
-      <c r="W53" t="s">
-        <v>64</v>
-      </c>
-      <c r="X53" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y53" s="1"/>
-    </row>
-    <row r="54" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="H54" t="s">
-        <v>54</v>
-      </c>
       <c r="I54" t="s">
         <v>52</v>
       </c>
       <c r="J54" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s">
         <v>57</v>
       </c>
       <c r="L54" s="1"/>
       <c r="U54" t="s">
+        <v>0</v>
+      </c>
+      <c r="V54" t="s">
+        <v>66</v>
+      </c>
+      <c r="W54" t="s">
+        <v>90</v>
+      </c>
+      <c r="X54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y54" s="1"/>
+    </row>
+    <row r="55" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
         <v>21</v>
       </c>
-      <c r="V54" t="s">
-        <v>66</v>
-      </c>
-      <c r="W54" t="s">
-        <v>94</v>
-      </c>
-      <c r="X54" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y54" s="1"/>
-    </row>
-    <row r="55" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="H55" t="s">
-        <v>54</v>
-      </c>
       <c r="I55" t="s">
         <v>52</v>
       </c>
       <c r="J55" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K55" t="s">
         <v>57</v>
       </c>
       <c r="L55" s="1"/>
       <c r="U55" t="s">
+        <v>0</v>
+      </c>
+      <c r="V55" t="s">
+        <v>66</v>
+      </c>
+      <c r="W55" t="s">
+        <v>100</v>
+      </c>
+      <c r="X55" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y55" s="1"/>
+    </row>
+    <row r="56" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
         <v>21</v>
       </c>
-      <c r="V55" t="s">
-        <v>66</v>
-      </c>
-      <c r="W55" t="s">
-        <v>95</v>
-      </c>
-      <c r="X55" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y55" s="1"/>
-    </row>
-    <row r="56" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="H56" t="s">
-        <v>54</v>
-      </c>
       <c r="I56" t="s">
         <v>52</v>
       </c>
       <c r="J56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
         <v>57</v>
       </c>
       <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="U56" t="s">
+        <v>0</v>
+      </c>
+      <c r="V56" t="s">
+        <v>66</v>
+      </c>
+      <c r="W56" t="s">
+        <v>101</v>
+      </c>
+      <c r="X56" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y56" s="1"/>
+    </row>
+    <row r="57" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
         <v>52</v>
       </c>
       <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>57</v>
+      </c>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
         <v>21</v>
       </c>
-      <c r="K57" t="s">
-        <v>57</v>
-      </c>
-      <c r="L57" s="1"/>
-      <c r="U57" t="s">
-        <v>0</v>
-      </c>
-      <c r="V57" t="s">
-        <v>66</v>
-      </c>
-      <c r="W57" t="s">
-        <v>75</v>
-      </c>
-      <c r="X57" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y57" s="1"/>
-    </row>
-    <row r="58" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="H58" t="s">
-        <v>54</v>
-      </c>
       <c r="I58" t="s">
         <v>52</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
         <v>57</v>
       </c>
       <c r="L58" s="1"/>
       <c r="U58" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V58" t="s">
         <v>66</v>
       </c>
       <c r="W58" t="s">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y58" s="1"/>
+    </row>
+    <row r="59" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="U59" t="s">
+        <v>23</v>
+      </c>
+      <c r="V59" t="s">
+        <v>66</v>
+      </c>
+      <c r="W59" t="s">
         <v>77</v>
       </c>
-      <c r="X58" t="s">
+      <c r="X59" t="s">
         <v>77</v>
       </c>
-      <c r="Y58" s="1"/>
-    </row>
-    <row r="59" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="H59" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" t="s">
-        <v>57</v>
-      </c>
-      <c r="L59" s="1"/>
-      <c r="U59" t="s">
-        <v>0</v>
-      </c>
-      <c r="V59" t="s">
-        <v>66</v>
-      </c>
-      <c r="W59" t="s">
+      <c r="Y59" s="1"/>
+    </row>
+    <row r="60" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="U60" t="s">
+        <v>23</v>
+      </c>
+      <c r="V60" t="s">
+        <v>66</v>
+      </c>
+      <c r="W60" t="s">
         <v>96</v>
       </c>
-      <c r="X59" t="s">
+      <c r="X60" t="s">
         <v>96</v>
       </c>
-      <c r="Y59" s="1"/>
-    </row>
-    <row r="60" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="U60" t="s">
-        <v>0</v>
-      </c>
-      <c r="V60" t="s">
-        <v>66</v>
-      </c>
-      <c r="W60" t="s">
-        <v>72</v>
-      </c>
-      <c r="X60" t="s">
-        <v>72</v>
-      </c>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s">
         <v>52</v>
       </c>
       <c r="J61" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K61" t="s">
         <v>56</v>
       </c>
       <c r="L61" s="1"/>
       <c r="U61" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V61" t="s">
         <v>66</v>
       </c>
       <c r="W61" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="X61" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I62" t="s">
         <v>52</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K62" t="s">
         <v>56</v>
       </c>
       <c r="L62" s="1"/>
       <c r="U62" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V62" t="s">
         <v>66</v>
       </c>
       <c r="W62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I63" t="s">
         <v>52</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63" t="s">
         <v>56</v>
       </c>
       <c r="L63" s="1"/>
       <c r="U63" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V63" t="s">
         <v>66</v>
       </c>
       <c r="W63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s">
         <v>52</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64" t="s">
         <v>56</v>
       </c>
       <c r="L64" s="1"/>
       <c r="U64" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V64" t="s">
         <v>66</v>
       </c>
       <c r="W64" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="X64" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I65" t="s">
         <v>52</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65" t="s">
         <v>56</v>
       </c>
       <c r="L65" s="1"/>
       <c r="U65" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V65" t="s">
         <v>66</v>
       </c>
       <c r="W65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I66" t="s">
         <v>52</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L66" s="1"/>
       <c r="U66" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V66" t="s">
         <v>66</v>
       </c>
       <c r="W66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I67" t="s">
         <v>52</v>
       </c>
       <c r="J67" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K67" t="s">
         <v>57</v>
       </c>
       <c r="L67" s="1"/>
       <c r="U67" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V67" t="s">
         <v>66</v>
       </c>
       <c r="W67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I68" t="s">
         <v>52</v>
       </c>
       <c r="J68" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K68" t="s">
         <v>57</v>
       </c>
       <c r="L68" s="1"/>
       <c r="U68" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V68" t="s">
         <v>66</v>
       </c>
       <c r="W68" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="X68" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H69" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" t="s">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s">
         <v>21</v>
-      </c>
-      <c r="I69" t="s">
-        <v>52</v>
-      </c>
-      <c r="J69" t="s">
-        <v>24</v>
       </c>
       <c r="K69" t="s">
         <v>57</v>
       </c>
       <c r="L69" s="1"/>
       <c r="U69" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V69" t="s">
         <v>66</v>
       </c>
       <c r="W69" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X69" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I70" t="s">
         <v>52</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K70" t="s">
         <v>57</v>
       </c>
       <c r="L70" s="1"/>
       <c r="U70" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V70" t="s">
         <v>66</v>
       </c>
       <c r="W70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I71" t="s">
         <v>52</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K71" t="s">
         <v>57</v>
       </c>
       <c r="L71" s="1"/>
+      <c r="U71" t="s">
+        <v>23</v>
+      </c>
+      <c r="V71" t="s">
+        <v>66</v>
+      </c>
+      <c r="W71" t="s">
+        <v>101</v>
+      </c>
+      <c r="X71" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" t="s">
-        <v>52</v>
-      </c>
-      <c r="J72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K72" t="s">
-        <v>57</v>
-      </c>
-      <c r="L72" s="1"/>
       <c r="U72" t="s">
         <v>23</v>
       </c>
@@ -2515,14 +2881,27 @@
         <v>66</v>
       </c>
       <c r="W72" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="X72" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>52</v>
+      </c>
+      <c r="J73" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" t="s">
+        <v>56</v>
+      </c>
+      <c r="L73" s="1"/>
       <c r="U73" t="s">
         <v>23</v>
       </c>
@@ -2530,22 +2909,22 @@
         <v>66</v>
       </c>
       <c r="W73" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="X73" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
         <v>52</v>
       </c>
       <c r="J74" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K74" t="s">
         <v>56</v>
@@ -2558,22 +2937,22 @@
         <v>66</v>
       </c>
       <c r="W74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I75" t="s">
         <v>52</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K75" t="s">
         <v>56</v>
@@ -2586,22 +2965,22 @@
         <v>66</v>
       </c>
       <c r="W75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
         <v>52</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76" t="s">
         <v>56</v>
@@ -2614,22 +2993,22 @@
         <v>66</v>
       </c>
       <c r="W76" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="X76" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I77" t="s">
         <v>52</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K77" t="s">
         <v>56</v>
@@ -2642,22 +3021,22 @@
         <v>66</v>
       </c>
       <c r="W77" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X77" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
         <v>52</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K78" t="s">
         <v>56</v>
@@ -2670,25 +3049,25 @@
         <v>66</v>
       </c>
       <c r="W78" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X78" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I79" t="s">
         <v>52</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L79" s="1"/>
       <c r="U79" t="s">
@@ -2698,22 +3077,22 @@
         <v>66</v>
       </c>
       <c r="W79" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="X79" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s">
         <v>52</v>
       </c>
       <c r="J80" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K80" t="s">
         <v>57</v>
@@ -2726,22 +3105,22 @@
         <v>66</v>
       </c>
       <c r="W80" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="X80" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I81" t="s">
         <v>52</v>
       </c>
       <c r="J81" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K81" t="s">
         <v>57</v>
@@ -2754,22 +3133,22 @@
         <v>66</v>
       </c>
       <c r="W81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s">
         <v>52</v>
       </c>
       <c r="J82" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
         <v>57</v>
@@ -2782,22 +3161,22 @@
         <v>66</v>
       </c>
       <c r="W82" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="X82" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" t="s">
+        <v>52</v>
+      </c>
+      <c r="J83" t="s">
         <v>22</v>
-      </c>
-      <c r="I83" t="s">
-        <v>52</v>
-      </c>
-      <c r="J83" t="s">
-        <v>21</v>
       </c>
       <c r="K83" t="s">
         <v>57</v>
@@ -2810,22 +3189,22 @@
         <v>66</v>
       </c>
       <c r="W83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I84" t="s">
         <v>52</v>
       </c>
       <c r="J84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
         <v>57</v>
@@ -2838,581 +3217,397 @@
         <v>66</v>
       </c>
       <c r="W84" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="X84" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H85" t="s">
-        <v>22</v>
-      </c>
-      <c r="I85" t="s">
-        <v>52</v>
-      </c>
-      <c r="J85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K85" t="s">
-        <v>57</v>
-      </c>
-      <c r="L85" s="1"/>
-      <c r="U85" t="s">
-        <v>23</v>
-      </c>
-      <c r="V85" t="s">
-        <v>66</v>
-      </c>
-      <c r="W85" t="s">
-        <v>101</v>
-      </c>
-      <c r="X85" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y85" s="1"/>
-    </row>
     <row r="86" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="U86" t="s">
-        <v>23</v>
-      </c>
-      <c r="V86" t="s">
-        <v>66</v>
-      </c>
-      <c r="W86" t="s">
-        <v>64</v>
-      </c>
-      <c r="X86" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y86" s="1"/>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s">
+        <v>52</v>
+      </c>
+      <c r="J86" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" t="s">
+        <v>57</v>
+      </c>
+      <c r="L86" s="1"/>
     </row>
     <row r="87" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I87" t="s">
         <v>52</v>
       </c>
       <c r="J87" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L87" s="1"/>
-      <c r="U87" t="s">
-        <v>23</v>
-      </c>
-      <c r="V87" t="s">
-        <v>66</v>
-      </c>
-      <c r="W87" t="s">
-        <v>94</v>
-      </c>
-      <c r="X87" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H88" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I88" t="s">
         <v>52</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L88" s="1"/>
-      <c r="U88" t="s">
-        <v>23</v>
-      </c>
-      <c r="V88" t="s">
-        <v>66</v>
-      </c>
-      <c r="W88" t="s">
-        <v>95</v>
-      </c>
-      <c r="X88" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I89" t="s">
         <v>52</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L89" s="1"/>
-      <c r="U89" t="s">
-        <v>23</v>
-      </c>
-      <c r="V89" t="s">
-        <v>66</v>
-      </c>
-      <c r="W89" t="s">
-        <v>73</v>
-      </c>
-      <c r="X89" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I90" t="s">
         <v>52</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L90" s="1"/>
-      <c r="U90" t="s">
-        <v>23</v>
-      </c>
-      <c r="V90" t="s">
-        <v>66</v>
-      </c>
-      <c r="W90" t="s">
-        <v>88</v>
-      </c>
-      <c r="X90" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I91" t="s">
         <v>52</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L91" s="1"/>
-      <c r="U91" t="s">
-        <v>23</v>
-      </c>
-      <c r="V91" t="s">
-        <v>66</v>
-      </c>
-      <c r="W91" t="s">
-        <v>89</v>
-      </c>
-      <c r="X91" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H92" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I92" t="s">
         <v>52</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
         <v>56</v>
       </c>
       <c r="L92" s="1"/>
-      <c r="U92" t="s">
-        <v>23</v>
-      </c>
-      <c r="V92" t="s">
-        <v>66</v>
-      </c>
-      <c r="W92" t="s">
-        <v>74</v>
-      </c>
-      <c r="X92" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H93" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I93" t="s">
         <v>52</v>
       </c>
       <c r="J93" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L93" s="1"/>
-      <c r="U93" t="s">
-        <v>23</v>
-      </c>
-      <c r="V93" t="s">
-        <v>66</v>
-      </c>
-      <c r="W93" t="s">
-        <v>86</v>
-      </c>
-      <c r="X93" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I94" t="s">
         <v>52</v>
       </c>
       <c r="J94" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L94" s="1"/>
-      <c r="U94" t="s">
-        <v>23</v>
-      </c>
-      <c r="V94" t="s">
-        <v>66</v>
-      </c>
-      <c r="W94" t="s">
-        <v>87</v>
-      </c>
-      <c r="X94" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H95" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I95" t="s">
         <v>52</v>
       </c>
       <c r="J95" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L95" s="1"/>
-      <c r="U95" t="s">
-        <v>23</v>
-      </c>
-      <c r="V95" t="s">
-        <v>66</v>
-      </c>
-      <c r="W95" t="s">
-        <v>71</v>
-      </c>
-      <c r="X95" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H96" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I96" t="s">
         <v>52</v>
       </c>
       <c r="J96" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" t="s">
+        <v>56</v>
+      </c>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" t="s">
+        <v>52</v>
+      </c>
+      <c r="J97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K97" t="s">
+        <v>56</v>
+      </c>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="99" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>55</v>
+      </c>
+      <c r="I99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J99" t="s">
+        <v>25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>57</v>
+      </c>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>55</v>
+      </c>
+      <c r="I100" t="s">
+        <v>52</v>
+      </c>
+      <c r="J100" t="s">
+        <v>46</v>
+      </c>
+      <c r="K100" t="s">
+        <v>57</v>
+      </c>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>55</v>
+      </c>
+      <c r="I101" t="s">
+        <v>52</v>
+      </c>
+      <c r="J101" t="s">
+        <v>42</v>
+      </c>
+      <c r="K101" t="s">
+        <v>57</v>
+      </c>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>55</v>
+      </c>
+      <c r="I102" t="s">
+        <v>52</v>
+      </c>
+      <c r="J102" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102" t="s">
+        <v>57</v>
+      </c>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>55</v>
+      </c>
+      <c r="I103" t="s">
+        <v>52</v>
+      </c>
+      <c r="J103" t="s">
+        <v>44</v>
+      </c>
+      <c r="K103" t="s">
+        <v>57</v>
+      </c>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>55</v>
+      </c>
+      <c r="I104" t="s">
+        <v>52</v>
+      </c>
+      <c r="J104" t="s">
+        <v>45</v>
+      </c>
+      <c r="K104" t="s">
+        <v>57</v>
+      </c>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>55</v>
+      </c>
+      <c r="I105" t="s">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>56</v>
+      </c>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>55</v>
+      </c>
+      <c r="I106" t="s">
+        <v>52</v>
+      </c>
+      <c r="J106" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" t="s">
+        <v>56</v>
+      </c>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>55</v>
+      </c>
+      <c r="I107" t="s">
+        <v>52</v>
+      </c>
+      <c r="J107" t="s">
+        <v>24</v>
+      </c>
+      <c r="K107" t="s">
+        <v>56</v>
+      </c>
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>55</v>
+      </c>
+      <c r="I108" t="s">
+        <v>52</v>
+      </c>
+      <c r="J108" t="s">
         <v>21</v>
       </c>
-      <c r="K96" t="s">
-        <v>57</v>
-      </c>
-      <c r="L96" s="1"/>
-      <c r="U96" t="s">
-        <v>23</v>
-      </c>
-      <c r="V96" t="s">
-        <v>66</v>
-      </c>
-      <c r="W96" t="s">
-        <v>92</v>
-      </c>
-      <c r="X96" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y96" s="1"/>
-    </row>
-    <row r="97" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H97" t="s">
-        <v>23</v>
-      </c>
-      <c r="I97" t="s">
-        <v>52</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="K108" t="s">
+        <v>56</v>
+      </c>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>55</v>
+      </c>
+      <c r="I109" t="s">
+        <v>52</v>
+      </c>
+      <c r="J109" t="s">
         <v>22</v>
       </c>
-      <c r="K97" t="s">
-        <v>57</v>
-      </c>
-      <c r="L97" s="1"/>
-      <c r="U97" t="s">
-        <v>23</v>
-      </c>
-      <c r="V97" t="s">
-        <v>66</v>
-      </c>
-      <c r="W97" t="s">
-        <v>91</v>
-      </c>
-      <c r="X97" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y97" s="1"/>
-    </row>
-    <row r="98" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H98" t="s">
-        <v>23</v>
-      </c>
-      <c r="I98" t="s">
-        <v>52</v>
-      </c>
-      <c r="J98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K98" t="s">
-        <v>57</v>
-      </c>
-      <c r="L98" s="1"/>
-      <c r="U98" t="s">
-        <v>23</v>
-      </c>
-      <c r="V98" t="s">
-        <v>66</v>
-      </c>
-      <c r="W98" t="s">
-        <v>93</v>
-      </c>
-      <c r="X98" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y98" s="1"/>
-    </row>
-    <row r="100" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H100" t="s">
+      <c r="K109" t="s">
+        <v>56</v>
+      </c>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>55</v>
+      </c>
+      <c r="I110" t="s">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s">
+        <v>23</v>
+      </c>
+      <c r="K110" t="s">
+        <v>56</v>
+      </c>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="112" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>42</v>
+      </c>
+      <c r="I112" t="s">
+        <v>52</v>
+      </c>
+      <c r="J112" t="s">
         <v>25</v>
       </c>
-      <c r="I100" t="s">
-        <v>52</v>
-      </c>
-      <c r="J100" t="s">
-        <v>25</v>
-      </c>
-      <c r="K100" t="s">
-        <v>57</v>
-      </c>
-      <c r="L100" s="1"/>
-    </row>
-    <row r="101" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H101" t="s">
-        <v>25</v>
-      </c>
-      <c r="I101" t="s">
-        <v>52</v>
-      </c>
-      <c r="J101" t="s">
-        <v>46</v>
-      </c>
-      <c r="K101" t="s">
-        <v>57</v>
-      </c>
-      <c r="L101" s="1"/>
-    </row>
-    <row r="102" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H102" t="s">
-        <v>25</v>
-      </c>
-      <c r="I102" t="s">
-        <v>52</v>
-      </c>
-      <c r="J102" t="s">
-        <v>42</v>
-      </c>
-      <c r="K102" t="s">
-        <v>57</v>
-      </c>
-      <c r="L102" s="1"/>
-    </row>
-    <row r="103" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H103" t="s">
-        <v>25</v>
-      </c>
-      <c r="I103" t="s">
-        <v>52</v>
-      </c>
-      <c r="J103" t="s">
-        <v>43</v>
-      </c>
-      <c r="K103" t="s">
-        <v>57</v>
-      </c>
-      <c r="L103" s="1"/>
-    </row>
-    <row r="104" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H104" t="s">
-        <v>25</v>
-      </c>
-      <c r="I104" t="s">
-        <v>52</v>
-      </c>
-      <c r="J104" t="s">
-        <v>44</v>
-      </c>
-      <c r="K104" t="s">
-        <v>57</v>
-      </c>
-      <c r="L104" s="1"/>
-    </row>
-    <row r="105" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H105" t="s">
-        <v>25</v>
-      </c>
-      <c r="I105" t="s">
-        <v>52</v>
-      </c>
-      <c r="J105" t="s">
-        <v>45</v>
-      </c>
-      <c r="K105" t="s">
-        <v>57</v>
-      </c>
-      <c r="L105" s="1"/>
-    </row>
-    <row r="106" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H106" t="s">
-        <v>25</v>
-      </c>
-      <c r="I106" t="s">
-        <v>52</v>
-      </c>
-      <c r="J106" t="s">
-        <v>0</v>
-      </c>
-      <c r="K106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L106" s="1"/>
-    </row>
-    <row r="107" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H107" t="s">
-        <v>25</v>
-      </c>
-      <c r="I107" t="s">
-        <v>52</v>
-      </c>
-      <c r="J107" t="s">
-        <v>20</v>
-      </c>
-      <c r="K107" t="s">
-        <v>56</v>
-      </c>
-      <c r="L107" s="1"/>
-    </row>
-    <row r="108" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H108" t="s">
-        <v>25</v>
-      </c>
-      <c r="I108" t="s">
-        <v>52</v>
-      </c>
-      <c r="J108" t="s">
-        <v>24</v>
-      </c>
-      <c r="K108" t="s">
-        <v>56</v>
-      </c>
-      <c r="L108" s="1"/>
-    </row>
-    <row r="109" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H109" t="s">
-        <v>25</v>
-      </c>
-      <c r="I109" t="s">
-        <v>52</v>
-      </c>
-      <c r="J109" t="s">
-        <v>21</v>
-      </c>
-      <c r="K109" t="s">
-        <v>56</v>
-      </c>
-      <c r="L109" s="1"/>
-    </row>
-    <row r="110" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H110" t="s">
-        <v>25</v>
-      </c>
-      <c r="I110" t="s">
-        <v>52</v>
-      </c>
-      <c r="J110" t="s">
-        <v>22</v>
-      </c>
-      <c r="K110" t="s">
-        <v>56</v>
-      </c>
-      <c r="L110" s="1"/>
-    </row>
-    <row r="111" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H111" t="s">
-        <v>25</v>
-      </c>
-      <c r="I111" t="s">
-        <v>52</v>
-      </c>
-      <c r="J111" t="s">
-        <v>23</v>
-      </c>
-      <c r="K111" t="s">
-        <v>56</v>
-      </c>
-      <c r="L111" s="1"/>
+      <c r="K112" t="s">
+        <v>57</v>
+      </c>
+      <c r="L112" s="1"/>
     </row>
     <row r="113" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H113" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I113" t="s">
         <v>52</v>
       </c>
       <c r="J113" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K113" t="s">
         <v>57</v>
@@ -3421,13 +3616,13 @@
     </row>
     <row r="114" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H114" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I114" t="s">
         <v>52</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K114" t="s">
         <v>57</v>
@@ -3436,13 +3631,13 @@
     </row>
     <row r="115" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H115" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I115" t="s">
         <v>52</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K115" t="s">
         <v>57</v>
@@ -3451,13 +3646,13 @@
     </row>
     <row r="116" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H116" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I116" t="s">
         <v>52</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116" t="s">
         <v>57</v>
@@ -3466,13 +3661,13 @@
     </row>
     <row r="117" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H117" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I117" t="s">
         <v>52</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K117" t="s">
         <v>57</v>
@@ -3481,28 +3676,28 @@
     </row>
     <row r="118" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H118" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I118" t="s">
         <v>52</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H119" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I119" t="s">
         <v>52</v>
       </c>
       <c r="J119" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K119" t="s">
         <v>56</v>
@@ -3511,13 +3706,13 @@
     </row>
     <row r="120" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H120" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I120" t="s">
         <v>52</v>
       </c>
       <c r="J120" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K120" t="s">
         <v>56</v>
@@ -3526,13 +3721,13 @@
     </row>
     <row r="121" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H121" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I121" t="s">
         <v>52</v>
       </c>
       <c r="J121" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K121" t="s">
         <v>56</v>
@@ -3541,13 +3736,13 @@
     </row>
     <row r="122" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H122" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I122" t="s">
         <v>52</v>
       </c>
       <c r="J122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K122" t="s">
         <v>56</v>
@@ -3556,43 +3751,43 @@
     </row>
     <row r="123" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H123" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I123" t="s">
         <v>52</v>
       </c>
       <c r="J123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K123" t="s">
         <v>56</v>
       </c>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H124" t="s">
-        <v>55</v>
-      </c>
-      <c r="I124" t="s">
-        <v>52</v>
-      </c>
-      <c r="J124" t="s">
-        <v>23</v>
-      </c>
-      <c r="K124" t="s">
-        <v>56</v>
-      </c>
-      <c r="L124" s="1"/>
+    <row r="125" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>43</v>
+      </c>
+      <c r="I125" t="s">
+        <v>52</v>
+      </c>
+      <c r="J125" t="s">
+        <v>25</v>
+      </c>
+      <c r="K125" t="s">
+        <v>57</v>
+      </c>
+      <c r="L125" s="1"/>
     </row>
     <row r="126" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I126" t="s">
         <v>52</v>
       </c>
       <c r="J126" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K126" t="s">
         <v>57</v>
@@ -3601,13 +3796,13 @@
     </row>
     <row r="127" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H127" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" t="s">
+        <v>52</v>
+      </c>
+      <c r="J127" t="s">
         <v>42</v>
-      </c>
-      <c r="I127" t="s">
-        <v>52</v>
-      </c>
-      <c r="J127" t="s">
-        <v>46</v>
       </c>
       <c r="K127" t="s">
         <v>57</v>
@@ -3616,13 +3811,13 @@
     </row>
     <row r="128" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I128" t="s">
         <v>52</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K128" t="s">
         <v>57</v>
@@ -3631,13 +3826,13 @@
     </row>
     <row r="129" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I129" t="s">
         <v>52</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K129" t="s">
         <v>57</v>
@@ -3646,13 +3841,13 @@
     </row>
     <row r="130" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I130" t="s">
         <v>52</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130" t="s">
         <v>57</v>
@@ -3661,28 +3856,28 @@
     </row>
     <row r="131" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I131" t="s">
         <v>52</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L131" s="1"/>
     </row>
     <row r="132" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I132" t="s">
         <v>52</v>
       </c>
       <c r="J132" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K132" t="s">
         <v>56</v>
@@ -3691,13 +3886,13 @@
     </row>
     <row r="133" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I133" t="s">
         <v>52</v>
       </c>
       <c r="J133" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K133" t="s">
         <v>56</v>
@@ -3706,13 +3901,13 @@
     </row>
     <row r="134" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I134" t="s">
         <v>52</v>
       </c>
       <c r="J134" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K134" t="s">
         <v>56</v>
@@ -3721,13 +3916,13 @@
     </row>
     <row r="135" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I135" t="s">
         <v>52</v>
       </c>
       <c r="J135" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K135" t="s">
         <v>56</v>
@@ -3736,43 +3931,43 @@
     </row>
     <row r="136" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I136" t="s">
         <v>52</v>
       </c>
       <c r="J136" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K136" t="s">
         <v>56</v>
       </c>
       <c r="L136" s="1"/>
     </row>
-    <row r="137" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H137" t="s">
-        <v>42</v>
-      </c>
-      <c r="I137" t="s">
-        <v>52</v>
-      </c>
-      <c r="J137" t="s">
-        <v>23</v>
-      </c>
-      <c r="K137" t="s">
-        <v>56</v>
-      </c>
-      <c r="L137" s="1"/>
+    <row r="138" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>44</v>
+      </c>
+      <c r="I138" t="s">
+        <v>52</v>
+      </c>
+      <c r="J138" t="s">
+        <v>25</v>
+      </c>
+      <c r="K138" t="s">
+        <v>57</v>
+      </c>
+      <c r="L138" s="1"/>
     </row>
     <row r="139" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I139" t="s">
         <v>52</v>
       </c>
       <c r="J139" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K139" t="s">
         <v>57</v>
@@ -3781,13 +3976,13 @@
     </row>
     <row r="140" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I140" t="s">
         <v>52</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K140" t="s">
         <v>57</v>
@@ -3796,13 +3991,13 @@
     </row>
     <row r="141" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H141" t="s">
+        <v>44</v>
+      </c>
+      <c r="I141" t="s">
+        <v>52</v>
+      </c>
+      <c r="J141" t="s">
         <v>43</v>
-      </c>
-      <c r="I141" t="s">
-        <v>52</v>
-      </c>
-      <c r="J141" t="s">
-        <v>42</v>
       </c>
       <c r="K141" t="s">
         <v>57</v>
@@ -3811,13 +4006,13 @@
     </row>
     <row r="142" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I142" t="s">
         <v>52</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K142" t="s">
         <v>57</v>
@@ -3826,13 +4021,13 @@
     </row>
     <row r="143" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I143" t="s">
         <v>52</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143" t="s">
         <v>57</v>
@@ -3841,28 +4036,28 @@
     </row>
     <row r="144" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I144" t="s">
         <v>52</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L144" s="1"/>
     </row>
     <row r="145" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I145" t="s">
         <v>52</v>
       </c>
       <c r="J145" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K145" t="s">
         <v>56</v>
@@ -3871,13 +4066,13 @@
     </row>
     <row r="146" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I146" t="s">
         <v>52</v>
       </c>
       <c r="J146" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K146" t="s">
         <v>56</v>
@@ -3886,13 +4081,13 @@
     </row>
     <row r="147" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I147" t="s">
         <v>52</v>
       </c>
       <c r="J147" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K147" t="s">
         <v>56</v>
@@ -3901,13 +4096,13 @@
     </row>
     <row r="148" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I148" t="s">
         <v>52</v>
       </c>
       <c r="J148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K148" t="s">
         <v>56</v>
@@ -3916,43 +4111,43 @@
     </row>
     <row r="149" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I149" t="s">
         <v>52</v>
       </c>
       <c r="J149" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K149" t="s">
         <v>56</v>
       </c>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H150" t="s">
-        <v>43</v>
-      </c>
-      <c r="I150" t="s">
-        <v>52</v>
-      </c>
-      <c r="J150" t="s">
-        <v>23</v>
-      </c>
-      <c r="K150" t="s">
-        <v>56</v>
-      </c>
-      <c r="L150" s="1"/>
+    <row r="151" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>45</v>
+      </c>
+      <c r="I151" t="s">
+        <v>52</v>
+      </c>
+      <c r="J151" t="s">
+        <v>25</v>
+      </c>
+      <c r="K151" t="s">
+        <v>57</v>
+      </c>
+      <c r="L151" s="1"/>
     </row>
     <row r="152" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I152" t="s">
         <v>52</v>
       </c>
       <c r="J152" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K152" t="s">
         <v>57</v>
@@ -3961,13 +4156,13 @@
     </row>
     <row r="153" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I153" t="s">
         <v>52</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K153" t="s">
         <v>57</v>
@@ -3976,13 +4171,13 @@
     </row>
     <row r="154" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I154" t="s">
         <v>52</v>
       </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K154" t="s">
         <v>57</v>
@@ -3991,13 +4186,13 @@
     </row>
     <row r="155" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H155" t="s">
+        <v>45</v>
+      </c>
+      <c r="I155" t="s">
+        <v>52</v>
+      </c>
+      <c r="J155" t="s">
         <v>44</v>
-      </c>
-      <c r="I155" t="s">
-        <v>52</v>
-      </c>
-      <c r="J155" t="s">
-        <v>43</v>
       </c>
       <c r="K155" t="s">
         <v>57</v>
@@ -4006,13 +4201,13 @@
     </row>
     <row r="156" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H156" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I156" t="s">
         <v>52</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K156" t="s">
         <v>57</v>
@@ -4021,28 +4216,28 @@
     </row>
     <row r="157" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I157" t="s">
         <v>52</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L157" s="1"/>
     </row>
     <row r="158" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H158" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I158" t="s">
         <v>52</v>
       </c>
       <c r="J158" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K158" t="s">
         <v>56</v>
@@ -4051,13 +4246,13 @@
     </row>
     <row r="159" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H159" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I159" t="s">
         <v>52</v>
       </c>
       <c r="J159" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K159" t="s">
         <v>56</v>
@@ -4066,13 +4261,13 @@
     </row>
     <row r="160" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H160" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I160" t="s">
         <v>52</v>
       </c>
       <c r="J160" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K160" t="s">
         <v>56</v>
@@ -4081,13 +4276,13 @@
     </row>
     <row r="161" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H161" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I161" t="s">
         <v>52</v>
       </c>
       <c r="J161" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K161" t="s">
         <v>56</v>
@@ -4096,218 +4291,23 @@
     </row>
     <row r="162" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I162" t="s">
         <v>52</v>
       </c>
       <c r="J162" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K162" t="s">
         <v>56</v>
       </c>
       <c r="L162" s="1"/>
-    </row>
-    <row r="163" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H163" t="s">
-        <v>44</v>
-      </c>
-      <c r="I163" t="s">
-        <v>52</v>
-      </c>
-      <c r="J163" t="s">
-        <v>23</v>
-      </c>
-      <c r="K163" t="s">
-        <v>56</v>
-      </c>
-      <c r="L163" s="1"/>
-    </row>
-    <row r="165" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H165" t="s">
-        <v>45</v>
-      </c>
-      <c r="I165" t="s">
-        <v>52</v>
-      </c>
-      <c r="J165" t="s">
-        <v>25</v>
-      </c>
-      <c r="K165" t="s">
-        <v>57</v>
-      </c>
-      <c r="L165" s="1"/>
-    </row>
-    <row r="166" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H166" t="s">
-        <v>45</v>
-      </c>
-      <c r="I166" t="s">
-        <v>52</v>
-      </c>
-      <c r="J166" t="s">
-        <v>46</v>
-      </c>
-      <c r="K166" t="s">
-        <v>57</v>
-      </c>
-      <c r="L166" s="1"/>
-    </row>
-    <row r="167" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H167" t="s">
-        <v>45</v>
-      </c>
-      <c r="I167" t="s">
-        <v>52</v>
-      </c>
-      <c r="J167" t="s">
-        <v>42</v>
-      </c>
-      <c r="K167" t="s">
-        <v>57</v>
-      </c>
-      <c r="L167" s="1"/>
-    </row>
-    <row r="168" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H168" t="s">
-        <v>45</v>
-      </c>
-      <c r="I168" t="s">
-        <v>52</v>
-      </c>
-      <c r="J168" t="s">
-        <v>43</v>
-      </c>
-      <c r="K168" t="s">
-        <v>57</v>
-      </c>
-      <c r="L168" s="1"/>
-    </row>
-    <row r="169" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H169" t="s">
-        <v>45</v>
-      </c>
-      <c r="I169" t="s">
-        <v>52</v>
-      </c>
-      <c r="J169" t="s">
-        <v>44</v>
-      </c>
-      <c r="K169" t="s">
-        <v>57</v>
-      </c>
-      <c r="L169" s="1"/>
-    </row>
-    <row r="170" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H170" t="s">
-        <v>45</v>
-      </c>
-      <c r="I170" t="s">
-        <v>52</v>
-      </c>
-      <c r="J170" t="s">
-        <v>45</v>
-      </c>
-      <c r="K170" t="s">
-        <v>57</v>
-      </c>
-      <c r="L170" s="1"/>
-    </row>
-    <row r="171" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H171" t="s">
-        <v>45</v>
-      </c>
-      <c r="I171" t="s">
-        <v>52</v>
-      </c>
-      <c r="J171" t="s">
-        <v>0</v>
-      </c>
-      <c r="K171" t="s">
-        <v>56</v>
-      </c>
-      <c r="L171" s="1"/>
-    </row>
-    <row r="172" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H172" t="s">
-        <v>45</v>
-      </c>
-      <c r="I172" t="s">
-        <v>52</v>
-      </c>
-      <c r="J172" t="s">
-        <v>20</v>
-      </c>
-      <c r="K172" t="s">
-        <v>56</v>
-      </c>
-      <c r="L172" s="1"/>
-    </row>
-    <row r="173" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H173" t="s">
-        <v>45</v>
-      </c>
-      <c r="I173" t="s">
-        <v>52</v>
-      </c>
-      <c r="J173" t="s">
-        <v>24</v>
-      </c>
-      <c r="K173" t="s">
-        <v>56</v>
-      </c>
-      <c r="L173" s="1"/>
-    </row>
-    <row r="174" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H174" t="s">
-        <v>45</v>
-      </c>
-      <c r="I174" t="s">
-        <v>52</v>
-      </c>
-      <c r="J174" t="s">
-        <v>21</v>
-      </c>
-      <c r="K174" t="s">
-        <v>56</v>
-      </c>
-      <c r="L174" s="1"/>
-    </row>
-    <row r="175" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H175" t="s">
-        <v>45</v>
-      </c>
-      <c r="I175" t="s">
-        <v>52</v>
-      </c>
-      <c r="J175" t="s">
-        <v>22</v>
-      </c>
-      <c r="K175" t="s">
-        <v>56</v>
-      </c>
-      <c r="L175" s="1"/>
-    </row>
-    <row r="176" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H176" t="s">
-        <v>45</v>
-      </c>
-      <c r="I176" t="s">
-        <v>52</v>
-      </c>
-      <c r="J176" t="s">
-        <v>23</v>
-      </c>
-      <c r="K176" t="s">
-        <v>56</v>
-      </c>
-      <c r="L176" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:AA9"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="M3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFC5B7C-3397-45E1-BB77-93A83C47B5E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E202A3-2E86-4FE6-BE54-9F8A02C76989}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="139">
   <si>
     <t>White Rook</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Test if board is setup correctly</t>
   </si>
   <si>
-    <t>Test if piece can kill other piece</t>
-  </si>
-  <si>
     <t>Killer</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>Blak Pawn</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -437,6 +431,12 @@
   </si>
   <si>
     <t>A7</t>
+  </si>
+  <si>
+    <t>Testing function CanMoveTo for "attacking"</t>
+  </si>
+  <si>
+    <t>Attack</t>
   </si>
 </sst>
 </file>
@@ -499,12 +499,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:AP163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,66 +810,67 @@
     <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.85546875" customWidth="1"/>
+    <col min="27" max="27" width="13" customWidth="1"/>
     <col min="28" max="28" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="3" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4" spans="4:42" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="4:42" x14ac:dyDescent="0.25">
@@ -877,13 +878,13 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="4:42" x14ac:dyDescent="0.25">
@@ -891,13 +892,13 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>1</v>
@@ -906,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z6" t="s">
         <v>3</v>
@@ -917,7 +918,7 @@
     </row>
     <row r="7" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -929,23 +930,23 @@
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M7" s="1"/>
       <c r="S7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
         <v>59</v>
-      </c>
-      <c r="T7" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" t="s">
-        <v>61</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -954,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="Z7" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="4:42" x14ac:dyDescent="0.25">
@@ -964,41 +965,41 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="I8" t="s">
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M8" s="1"/>
       <c r="S8" t="s">
         <v>23</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W8" s="3"/>
       <c r="Z8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB8" t="s">
         <v>47</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>48</v>
       </c>
       <c r="AC8" t="s">
         <v>1</v>
@@ -1007,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="AL8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="4:42" x14ac:dyDescent="0.25">
@@ -1017,46 +1018,46 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="I9" t="s">
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M9" s="1"/>
       <c r="S9" t="s">
         <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
-      </c>
-      <c r="W9" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W9" s="3"/>
       <c r="Z9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB9" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD9" s="4"/>
+      <c r="AC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="3"/>
     </row>
     <row r="10" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
@@ -1065,69 +1066,69 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2"/>
       <c r="I10" t="s">
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M10" s="1"/>
       <c r="S10" t="s">
         <v>40</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
-      </c>
-      <c r="W10" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W10" s="3"/>
       <c r="Z10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB10" t="s">
         <v>44</v>
       </c>
-      <c r="AC10" t="s">
-        <v>54</v>
+      <c r="AC10" t="b">
+        <v>1</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AI10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL10" t="s">
         <v>117</v>
       </c>
-      <c r="AK10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>119</v>
-      </c>
       <c r="AM10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP10" t="s">
         <v>128</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="4:42" x14ac:dyDescent="0.25">
@@ -1137,69 +1138,69 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2"/>
       <c r="I11" t="s">
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M11" s="1"/>
       <c r="S11" t="s">
         <v>41</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
-      </c>
-      <c r="W11" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W11" s="3"/>
       <c r="Z11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB11" t="s">
         <v>40</v>
       </c>
-      <c r="AC11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD11" s="4"/>
+      <c r="AC11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3"/>
       <c r="AI11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AJ11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AK11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AM11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AN11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AO11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AP11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="4:42" x14ac:dyDescent="0.25">
@@ -1209,69 +1210,69 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="2"/>
       <c r="I12" t="s">
         <v>20</v>
       </c>
       <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
         <v>64</v>
       </c>
-      <c r="K12" t="s">
-        <v>66</v>
-      </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M12" s="1"/>
       <c r="S12" t="s">
         <v>42</v>
       </c>
       <c r="T12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
-      </c>
-      <c r="W12" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W12" s="3"/>
       <c r="Z12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB12" t="s">
         <v>41</v>
       </c>
-      <c r="AC12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD12" s="4"/>
+      <c r="AC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="3"/>
       <c r="AI12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AJ12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AL12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AN12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AO12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AP12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="4:42" x14ac:dyDescent="0.25">
@@ -1281,69 +1282,69 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="2"/>
       <c r="I13" t="s">
         <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M13" s="1"/>
       <c r="S13" t="s">
         <v>43</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W13" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W13" s="3"/>
       <c r="Z13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB13" t="s">
         <v>42</v>
       </c>
-      <c r="AC13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD13" s="4"/>
+      <c r="AC13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3"/>
       <c r="AI13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AJ13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AK13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN13" t="s">
         <v>69</v>
       </c>
-      <c r="AM13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>71</v>
-      </c>
       <c r="AO13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AP13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="4:42" x14ac:dyDescent="0.25">
@@ -1351,71 +1352,71 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="I14" t="s">
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M14" s="1"/>
       <c r="S14" t="s">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>55</v>
-      </c>
-      <c r="W14" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W14" s="3"/>
       <c r="Z14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA14" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB14" t="s">
         <v>43</v>
       </c>
-      <c r="AC14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD14" s="4"/>
+      <c r="AC14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="3"/>
       <c r="AI14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO14" t="s">
         <v>65</v>
       </c>
-      <c r="AM14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN14" t="s">
+      <c r="AP14" t="s">
         <v>66</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="4:42" x14ac:dyDescent="0.25">
@@ -1423,58 +1424,58 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="S15" t="s">
         <v>18</v>
       </c>
       <c r="T15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>55</v>
-      </c>
-      <c r="W15" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W15" s="3"/>
       <c r="Z15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA15" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB15" t="s">
         <v>0</v>
       </c>
-      <c r="AC15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD15" s="4"/>
+      <c r="AC15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3"/>
       <c r="AI15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AO15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AP15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="4:42" x14ac:dyDescent="0.25">
@@ -1484,69 +1485,69 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
       <c r="I16" t="s">
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="M16" s="4"/>
       <c r="S16" t="s">
         <v>22</v>
       </c>
       <c r="T16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>55</v>
-      </c>
-      <c r="W16" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W16" s="3"/>
       <c r="Z16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA16" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB16" t="s">
         <v>18</v>
       </c>
-      <c r="AC16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD16" s="4"/>
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3"/>
       <c r="AI16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AJ16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AK16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AL16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO16" t="s">
         <v>82</v>
       </c>
-      <c r="AM16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>84</v>
-      </c>
       <c r="AP16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="4:42" x14ac:dyDescent="0.25">
@@ -1556,72 +1557,72 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="M17" s="4"/>
       <c r="S17" t="s">
         <v>19</v>
       </c>
       <c r="T17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
-      </c>
-      <c r="W17" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W17" s="3"/>
       <c r="Z17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA17" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB17" t="s">
         <v>22</v>
       </c>
-      <c r="AC17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD17" s="4"/>
+      <c r="AC17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3"/>
       <c r="AI17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AJ17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AK17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AL17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AM17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AN17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AO17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AP17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="4:42" x14ac:dyDescent="0.25">
@@ -1631,33 +1632,33 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
       <c r="S18" t="s">
         <v>20</v>
       </c>
       <c r="T18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>55</v>
-      </c>
-      <c r="W18" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W18" s="3"/>
       <c r="Z18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA18" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB18" t="s">
         <v>19</v>
       </c>
-      <c r="AC18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD18" s="4"/>
+      <c r="AC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3"/>
     </row>
     <row r="19" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
@@ -1666,48 +1667,48 @@
       <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
       <c r="I19" t="s">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M19" s="1"/>
       <c r="S19" t="s">
         <v>21</v>
       </c>
       <c r="T19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>55</v>
-      </c>
-      <c r="W19" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W19" s="3"/>
       <c r="Z19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA19" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB19" t="s">
         <v>20</v>
       </c>
-      <c r="AC19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD19" s="4"/>
+      <c r="AC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3"/>
       <c r="AL19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="4:42" x14ac:dyDescent="0.25">
@@ -1717,33 +1718,33 @@
       <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
       <c r="I20" t="s">
         <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M20" s="1"/>
       <c r="Z20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA20" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="AB20" t="s">
         <v>21</v>
       </c>
-      <c r="AC20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD20" s="4"/>
+      <c r="AC20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3"/>
     </row>
     <row r="21" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
@@ -1752,18 +1753,18 @@
       <c r="E21" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="4"/>
       <c r="I21" t="s">
         <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M21" s="1"/>
     </row>
@@ -1774,33 +1775,33 @@
       <c r="E22" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
       <c r="I22" t="s">
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M22" s="1"/>
       <c r="Z22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB22" t="s">
         <v>23</v>
       </c>
-      <c r="AC22" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD22" s="4"/>
+      <c r="AC22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="3"/>
     </row>
     <row r="23" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
@@ -1809,33 +1810,33 @@
       <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="4"/>
       <c r="I23" t="s">
         <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M23" s="1"/>
       <c r="Z23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB23" t="s">
         <v>44</v>
       </c>
-      <c r="AC23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD23" s="4"/>
+      <c r="AC23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
@@ -1844,33 +1845,33 @@
       <c r="E24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="4"/>
       <c r="I24" t="s">
         <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M24" s="1"/>
       <c r="Z24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB24" t="s">
         <v>40</v>
       </c>
-      <c r="AC24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD24" s="4"/>
+      <c r="AC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="3"/>
     </row>
     <row r="25" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
@@ -1879,33 +1880,33 @@
       <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="4"/>
       <c r="I25" t="s">
         <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M25" s="1"/>
       <c r="Z25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB25" t="s">
         <v>41</v>
       </c>
-      <c r="AC25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD25" s="4"/>
+      <c r="AC25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="3"/>
     </row>
     <row r="26" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
@@ -1914,33 +1915,33 @@
       <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="4"/>
       <c r="I26" t="s">
         <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M26" s="1"/>
       <c r="Z26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB26" t="s">
         <v>42</v>
       </c>
-      <c r="AC26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD26" s="4"/>
+      <c r="AC26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="3"/>
     </row>
     <row r="27" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
@@ -1949,20 +1950,20 @@
       <c r="E27" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="4"/>
       <c r="Z27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB27" t="s">
         <v>43</v>
       </c>
-      <c r="AC27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD27" s="4"/>
+      <c r="AC27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="3"/>
     </row>
     <row r="28" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
@@ -1971,33 +1972,33 @@
       <c r="E28" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="4"/>
       <c r="I28" t="s">
         <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M28" s="1"/>
       <c r="Z28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB28" t="s">
         <v>0</v>
       </c>
-      <c r="AC28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD28" s="4"/>
+      <c r="AC28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
@@ -2006,33 +2007,33 @@
       <c r="E29" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="4"/>
       <c r="I29" t="s">
         <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M29" s="1"/>
       <c r="Z29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB29" t="s">
         <v>18</v>
       </c>
-      <c r="AC29" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD29" s="4"/>
+      <c r="AC29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3"/>
     </row>
     <row r="30" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
@@ -2041,33 +2042,33 @@
       <c r="E30" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="4"/>
       <c r="I30" t="s">
         <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M30" s="1"/>
       <c r="Z30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB30" t="s">
         <v>22</v>
       </c>
-      <c r="AC30" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD30" s="4"/>
+      <c r="AC30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3"/>
     </row>
     <row r="31" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
@@ -2076,33 +2077,33 @@
       <c r="E31" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="4"/>
       <c r="I31" t="s">
         <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M31" s="1"/>
       <c r="Z31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB31" t="s">
         <v>19</v>
       </c>
-      <c r="AC31" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD31" s="4"/>
+      <c r="AC31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3"/>
     </row>
     <row r="32" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
@@ -2111,33 +2112,33 @@
       <c r="E32" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="4"/>
       <c r="I32" t="s">
         <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M32" s="1"/>
       <c r="Z32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB32" t="s">
         <v>20</v>
       </c>
-      <c r="AC32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD32" s="4"/>
+      <c r="AC32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3"/>
     </row>
     <row r="33" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
@@ -2146,33 +2147,33 @@
       <c r="E33" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="4"/>
       <c r="I33" t="s">
         <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M33" s="1"/>
       <c r="Z33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB33" t="s">
         <v>21</v>
       </c>
-      <c r="AC33" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD33" s="4"/>
+      <c r="AC33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3"/>
     </row>
     <row r="34" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
@@ -2181,18 +2182,18 @@
       <c r="E34" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="4"/>
       <c r="I34" t="s">
         <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M34" s="1"/>
     </row>
@@ -2203,33 +2204,33 @@
       <c r="E35" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="4"/>
       <c r="I35" t="s">
         <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M35" s="1"/>
       <c r="Z35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB35" t="s">
         <v>23</v>
       </c>
-      <c r="AC35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD35" s="4"/>
+      <c r="AC35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
@@ -2238,33 +2239,33 @@
       <c r="E36" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="4"/>
       <c r="I36" t="s">
         <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M36" s="1"/>
       <c r="Z36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB36" t="s">
         <v>44</v>
       </c>
-      <c r="AC36" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD36" s="4"/>
+      <c r="AC36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
@@ -2273,33 +2274,33 @@
       <c r="E37" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="4"/>
       <c r="I37" t="s">
         <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M37" s="1"/>
       <c r="Z37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB37" t="s">
         <v>40</v>
       </c>
-      <c r="AC37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD37" s="4"/>
+      <c r="AC37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="3"/>
     </row>
     <row r="38" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
@@ -2308,33 +2309,33 @@
       <c r="E38" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="4"/>
       <c r="I38" t="s">
         <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M38" s="1"/>
       <c r="Z38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB38" t="s">
         <v>41</v>
       </c>
-      <c r="AC38" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD38" s="4"/>
+      <c r="AC38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
@@ -2343,229 +2344,229 @@
       <c r="E39" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="4"/>
       <c r="I39" t="s">
         <v>19</v>
       </c>
       <c r="J39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M39" s="1"/>
       <c r="Z39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB39" t="s">
         <v>42</v>
       </c>
-      <c r="AC39" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD39" s="4"/>
+      <c r="AC39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="4:30" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
         <v>19</v>
       </c>
       <c r="J40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M40" s="1"/>
       <c r="Z40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB40" t="s">
         <v>43</v>
       </c>
-      <c r="AC40" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD40" s="4"/>
+      <c r="AC40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="3"/>
     </row>
     <row r="41" spans="4:30" x14ac:dyDescent="0.25">
       <c r="Z41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB41" t="s">
         <v>0</v>
       </c>
-      <c r="AC41" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD41" s="4"/>
+      <c r="AC41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="4:30" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M42" s="1"/>
       <c r="Z42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB42" t="s">
         <v>18</v>
       </c>
-      <c r="AC42" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD42" s="4"/>
+      <c r="AC42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="4:30" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M43" s="1"/>
       <c r="Z43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB43" t="s">
         <v>22</v>
       </c>
-      <c r="AC43" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD43" s="4"/>
+      <c r="AC43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="4:30" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M44" s="1"/>
       <c r="Z44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB44" t="s">
         <v>19</v>
       </c>
-      <c r="AC44" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD44" s="4"/>
+      <c r="AC44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3"/>
     </row>
     <row r="45" spans="4:30" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M45" s="1"/>
       <c r="Z45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB45" t="s">
         <v>20</v>
       </c>
-      <c r="AC45" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD45" s="4"/>
+      <c r="AC45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3"/>
     </row>
     <row r="46" spans="4:30" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M46" s="1"/>
       <c r="Z46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB46" t="s">
         <v>21</v>
       </c>
-      <c r="AC46" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD46" s="4"/>
+      <c r="AC46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3"/>
     </row>
     <row r="47" spans="4:30" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M47" s="1"/>
     </row>
@@ -2574,336 +2575,336 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M48" s="1"/>
       <c r="Z48" t="s">
         <v>19</v>
       </c>
       <c r="AA48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB48" t="s">
         <v>23</v>
       </c>
-      <c r="AC48" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD48" s="4"/>
+      <c r="AC48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="3"/>
     </row>
     <row r="49" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
         <v>0</v>
       </c>
       <c r="J49" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" t="s">
         <v>64</v>
       </c>
-      <c r="K49" t="s">
-        <v>66</v>
-      </c>
       <c r="L49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M49" s="1"/>
       <c r="Z49" t="s">
         <v>19</v>
       </c>
       <c r="AA49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB49" t="s">
         <v>44</v>
       </c>
-      <c r="AC49" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD49" s="4"/>
+      <c r="AC49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="3"/>
     </row>
     <row r="50" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M50" s="1"/>
       <c r="Z50" t="s">
         <v>19</v>
       </c>
       <c r="AA50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB50" t="s">
         <v>40</v>
       </c>
-      <c r="AC50" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD50" s="4"/>
+      <c r="AC50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="3"/>
     </row>
     <row r="51" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M51" s="1"/>
       <c r="Z51" t="s">
         <v>19</v>
       </c>
       <c r="AA51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB51" t="s">
         <v>41</v>
       </c>
-      <c r="AC51" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD51" s="4"/>
+      <c r="AC51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="3"/>
     </row>
     <row r="52" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M52" s="1"/>
       <c r="Z52" t="s">
         <v>19</v>
       </c>
       <c r="AA52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB52" t="s">
         <v>42</v>
       </c>
-      <c r="AC52" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD52" s="4"/>
+      <c r="AC52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="3"/>
     </row>
     <row r="53" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M53" s="1"/>
       <c r="Z53" t="s">
         <v>19</v>
       </c>
       <c r="AA53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB53" t="s">
         <v>43</v>
       </c>
-      <c r="AC53" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD53" s="4"/>
+      <c r="AC53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="3"/>
     </row>
     <row r="54" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M54" s="1"/>
       <c r="Z54" t="s">
         <v>19</v>
       </c>
       <c r="AA54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB54" t="s">
         <v>0</v>
       </c>
-      <c r="AC54" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD54" s="4"/>
+      <c r="AC54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3"/>
     </row>
     <row r="55" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M55" s="1"/>
       <c r="Z55" t="s">
         <v>19</v>
       </c>
       <c r="AA55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB55" t="s">
         <v>18</v>
       </c>
-      <c r="AC55" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD55" s="4"/>
+      <c r="AC55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="3"/>
     </row>
     <row r="56" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z56" t="s">
         <v>19</v>
       </c>
       <c r="AA56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB56" t="s">
         <v>22</v>
       </c>
-      <c r="AC56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD56" s="4"/>
+      <c r="AC56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="3"/>
     </row>
     <row r="57" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
         <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M57" s="1"/>
       <c r="Z57" t="s">
         <v>19</v>
       </c>
       <c r="AA57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB57" t="s">
         <v>19</v>
       </c>
-      <c r="AC57" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD57" s="4"/>
+      <c r="AC57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3"/>
     </row>
     <row r="58" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
         <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M58" s="1"/>
       <c r="Z58" t="s">
         <v>19</v>
       </c>
       <c r="AA58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB58" t="s">
         <v>20</v>
       </c>
-      <c r="AC58" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD58" s="4"/>
+      <c r="AC58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3"/>
     </row>
     <row r="59" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
         <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M59" s="1"/>
       <c r="Z59" t="s">
         <v>19</v>
       </c>
       <c r="AA59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB59" t="s">
         <v>21</v>
       </c>
-      <c r="AC59" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD59" s="4"/>
+      <c r="AC59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3"/>
     </row>
     <row r="60" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
         <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M60" s="1"/>
     </row>
@@ -2912,349 +2913,349 @@
         <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M61" s="1"/>
       <c r="Z61" t="s">
         <v>20</v>
       </c>
       <c r="AA61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB61" t="s">
         <v>23</v>
       </c>
-      <c r="AC61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD61" s="4"/>
+      <c r="AC61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="3"/>
     </row>
     <row r="62" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
         <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M62" s="1"/>
       <c r="Z62" t="s">
         <v>20</v>
       </c>
       <c r="AA62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB62" t="s">
         <v>44</v>
       </c>
-      <c r="AC62" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD62" s="4"/>
+      <c r="AC62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="3"/>
     </row>
     <row r="63" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
         <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M63" s="1"/>
       <c r="Z63" t="s">
         <v>20</v>
       </c>
       <c r="AA63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB63" t="s">
         <v>40</v>
       </c>
-      <c r="AC63" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD63" s="4"/>
+      <c r="AC63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="3"/>
     </row>
     <row r="64" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
         <v>21</v>
       </c>
       <c r="J64" t="s">
+        <v>62</v>
+      </c>
+      <c r="K64" t="s">
         <v>64</v>
       </c>
-      <c r="K64" t="s">
-        <v>66</v>
-      </c>
       <c r="L64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M64" s="1"/>
       <c r="Z64" t="s">
         <v>20</v>
       </c>
       <c r="AA64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB64" t="s">
         <v>41</v>
       </c>
-      <c r="AC64" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD64" s="4"/>
+      <c r="AC64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="3"/>
     </row>
     <row r="65" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
         <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M65" s="1"/>
       <c r="Z65" t="s">
         <v>20</v>
       </c>
       <c r="AA65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB65" t="s">
         <v>42</v>
       </c>
-      <c r="AC65" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD65" s="4"/>
+      <c r="AC65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="3"/>
     </row>
     <row r="66" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
         <v>21</v>
       </c>
       <c r="J66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M66" s="1"/>
       <c r="Z66" t="s">
         <v>20</v>
       </c>
       <c r="AA66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB66" t="s">
         <v>43</v>
       </c>
-      <c r="AC66" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD66" s="4"/>
+      <c r="AC66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="3"/>
     </row>
     <row r="67" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
         <v>21</v>
       </c>
       <c r="J67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M67" s="1"/>
       <c r="Z67" t="s">
         <v>20</v>
       </c>
       <c r="AA67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB67" t="s">
         <v>0</v>
       </c>
-      <c r="AC67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD67" s="4"/>
+      <c r="AC67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="3"/>
     </row>
     <row r="68" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
         <v>21</v>
       </c>
       <c r="J68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M68" s="1"/>
       <c r="Z68" t="s">
         <v>20</v>
       </c>
       <c r="AA68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB68" t="s">
         <v>18</v>
       </c>
-      <c r="AC68" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD68" s="4"/>
+      <c r="AC68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3"/>
     </row>
     <row r="69" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
         <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M69" s="1"/>
       <c r="Z69" t="s">
         <v>20</v>
       </c>
       <c r="AA69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB69" t="s">
         <v>22</v>
       </c>
-      <c r="AC69" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD69" s="4"/>
+      <c r="AC69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3"/>
     </row>
     <row r="70" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
         <v>21</v>
       </c>
       <c r="J70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M70" s="1"/>
       <c r="Z70" t="s">
         <v>20</v>
       </c>
       <c r="AA70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB70" t="s">
         <v>19</v>
       </c>
-      <c r="AC70" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD70" s="4"/>
+      <c r="AC70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3"/>
     </row>
     <row r="71" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
         <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M71" s="1"/>
       <c r="Z71" t="s">
         <v>20</v>
       </c>
       <c r="AA71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB71" t="s">
         <v>20</v>
       </c>
-      <c r="AC71" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD71" s="4"/>
+      <c r="AC71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3"/>
     </row>
     <row r="72" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
         <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M72" s="1"/>
       <c r="Z72" t="s">
         <v>20</v>
       </c>
       <c r="AA72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB72" t="s">
         <v>21</v>
       </c>
-      <c r="AC72" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD72" s="4"/>
+      <c r="AC72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="3"/>
     </row>
     <row r="73" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
         <v>21</v>
       </c>
       <c r="J73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M73" s="1"/>
     </row>
@@ -3263,1390 +3264,1390 @@
         <v>21</v>
       </c>
       <c r="J74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M74" s="1"/>
       <c r="Z74" t="s">
         <v>21</v>
       </c>
       <c r="AA74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB74" t="s">
         <v>23</v>
       </c>
-      <c r="AC74" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD74" s="4"/>
+      <c r="AC74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="3"/>
     </row>
     <row r="75" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
         <v>21</v>
       </c>
       <c r="J75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M75" s="1"/>
       <c r="Z75" t="s">
         <v>21</v>
       </c>
       <c r="AA75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB75" t="s">
         <v>44</v>
       </c>
-      <c r="AC75" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD75" s="4"/>
+      <c r="AC75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="3"/>
     </row>
     <row r="76" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
         <v>21</v>
       </c>
       <c r="J76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M76" s="1"/>
       <c r="Z76" t="s">
         <v>21</v>
       </c>
       <c r="AA76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB76" t="s">
         <v>40</v>
       </c>
-      <c r="AC76" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD76" s="4"/>
+      <c r="AC76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="3"/>
     </row>
     <row r="77" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
         <v>21</v>
       </c>
       <c r="J77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M77" s="1"/>
       <c r="Z77" t="s">
         <v>21</v>
       </c>
       <c r="AA77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB77" t="s">
         <v>41</v>
       </c>
-      <c r="AC77" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD77" s="4"/>
+      <c r="AC77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="3"/>
     </row>
     <row r="78" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
         <v>21</v>
       </c>
       <c r="J78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M78" s="1"/>
       <c r="Z78" t="s">
         <v>21</v>
       </c>
       <c r="AA78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB78" t="s">
         <v>42</v>
       </c>
-      <c r="AC78" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD78" s="4"/>
+      <c r="AC78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="3"/>
     </row>
     <row r="79" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
         <v>21</v>
       </c>
       <c r="J79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M79" s="1"/>
       <c r="Z79" t="s">
         <v>21</v>
       </c>
       <c r="AA79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB79" t="s">
         <v>43</v>
       </c>
-      <c r="AC79" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD79" s="4"/>
+      <c r="AC79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="3"/>
     </row>
     <row r="80" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
         <v>21</v>
       </c>
       <c r="J80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M80" s="1"/>
       <c r="Z80" t="s">
         <v>21</v>
       </c>
       <c r="AA80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB80" t="s">
         <v>0</v>
       </c>
-      <c r="AC80" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD80" s="4"/>
+      <c r="AC80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="3"/>
     </row>
     <row r="81" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
         <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M81" s="1"/>
       <c r="Z81" t="s">
         <v>21</v>
       </c>
       <c r="AA81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB81" t="s">
         <v>18</v>
       </c>
-      <c r="AC81" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD81" s="4"/>
+      <c r="AC81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3"/>
     </row>
     <row r="82" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
         <v>21</v>
       </c>
       <c r="J82" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M82" s="1"/>
       <c r="Z82" t="s">
         <v>21</v>
       </c>
       <c r="AA82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB82" t="s">
         <v>22</v>
       </c>
-      <c r="AC82" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD82" s="4"/>
+      <c r="AC82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="3"/>
     </row>
     <row r="83" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
         <v>21</v>
       </c>
       <c r="J83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K83" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L83" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M83" s="1"/>
       <c r="Z83" t="s">
         <v>21</v>
       </c>
       <c r="AA83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB83" t="s">
         <v>19</v>
       </c>
-      <c r="AC83" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD83" s="4"/>
+      <c r="AC83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3"/>
     </row>
     <row r="84" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z84" t="s">
         <v>21</v>
       </c>
       <c r="AA84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB84" t="s">
         <v>20</v>
       </c>
-      <c r="AC84" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD84" s="4"/>
+      <c r="AC84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3"/>
     </row>
     <row r="85" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z85" t="s">
         <v>21</v>
       </c>
       <c r="AA85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB85" t="s">
         <v>21</v>
       </c>
-      <c r="AC85" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD85" s="4"/>
+      <c r="AC85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3"/>
     </row>
     <row r="87" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z87" t="s">
         <v>23</v>
       </c>
       <c r="AA87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB87" t="s">
         <v>23</v>
       </c>
-      <c r="AC87" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD87" s="4"/>
+      <c r="AC87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="3"/>
     </row>
     <row r="88" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z88" t="s">
         <v>23</v>
       </c>
       <c r="AA88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB88" t="s">
         <v>44</v>
       </c>
-      <c r="AC88" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD88" s="4"/>
+      <c r="AC88" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD88" s="3"/>
     </row>
     <row r="89" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z89" t="s">
         <v>23</v>
       </c>
       <c r="AA89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB89" t="s">
         <v>40</v>
       </c>
-      <c r="AC89" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD89" s="4"/>
+      <c r="AC89" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="3"/>
     </row>
     <row r="90" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z90" t="s">
         <v>23</v>
       </c>
       <c r="AA90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB90" t="s">
         <v>41</v>
       </c>
-      <c r="AC90" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD90" s="4"/>
+      <c r="AC90" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="3"/>
     </row>
     <row r="91" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z91" t="s">
         <v>23</v>
       </c>
       <c r="AA91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB91" t="s">
         <v>42</v>
       </c>
-      <c r="AC91" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD91" s="4"/>
+      <c r="AC91" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="3"/>
     </row>
     <row r="92" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z92" t="s">
         <v>23</v>
       </c>
       <c r="AA92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB92" t="s">
         <v>43</v>
       </c>
-      <c r="AC92" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD92" s="4"/>
+      <c r="AC92" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD92" s="3"/>
     </row>
     <row r="93" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z93" t="s">
         <v>23</v>
       </c>
       <c r="AA93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB93" t="s">
         <v>0</v>
       </c>
-      <c r="AC93" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD93" s="4"/>
+      <c r="AC93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3"/>
     </row>
     <row r="94" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z94" t="s">
         <v>23</v>
       </c>
       <c r="AA94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB94" t="s">
         <v>18</v>
       </c>
-      <c r="AC94" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD94" s="4"/>
+      <c r="AC94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3"/>
     </row>
     <row r="95" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z95" t="s">
         <v>23</v>
       </c>
       <c r="AA95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB95" t="s">
         <v>22</v>
       </c>
-      <c r="AC95" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD95" s="4"/>
+      <c r="AC95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="3"/>
     </row>
     <row r="96" spans="9:30" x14ac:dyDescent="0.25">
       <c r="Z96" t="s">
         <v>23</v>
       </c>
       <c r="AA96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB96" t="s">
         <v>19</v>
       </c>
-      <c r="AC96" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD96" s="4"/>
+      <c r="AC96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3"/>
     </row>
     <row r="97" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z97" t="s">
         <v>23</v>
       </c>
       <c r="AA97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB97" t="s">
         <v>20</v>
       </c>
-      <c r="AC97" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD97" s="4"/>
+      <c r="AC97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3"/>
     </row>
     <row r="98" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z98" t="s">
         <v>23</v>
       </c>
       <c r="AA98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB98" t="s">
         <v>21</v>
       </c>
-      <c r="AC98" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD98" s="4"/>
+      <c r="AC98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3"/>
     </row>
     <row r="100" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB100" t="s">
         <v>23</v>
       </c>
-      <c r="AC100" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD100" s="4"/>
+      <c r="AC100" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD100" s="3"/>
     </row>
     <row r="101" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB101" t="s">
         <v>44</v>
       </c>
-      <c r="AC101" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD101" s="4"/>
+      <c r="AC101" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD101" s="3"/>
     </row>
     <row r="102" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB102" t="s">
         <v>40</v>
       </c>
-      <c r="AC102" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD102" s="4"/>
+      <c r="AC102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD102" s="3"/>
     </row>
     <row r="103" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB103" t="s">
         <v>41</v>
       </c>
-      <c r="AC103" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD103" s="4"/>
+      <c r="AC103" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD103" s="3"/>
     </row>
     <row r="104" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB104" t="s">
         <v>42</v>
       </c>
-      <c r="AC104" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD104" s="4"/>
+      <c r="AC104" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="3"/>
     </row>
     <row r="105" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB105" t="s">
         <v>43</v>
       </c>
-      <c r="AC105" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD105" s="4"/>
+      <c r="AC105" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD105" s="3"/>
     </row>
     <row r="106" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB106" t="s">
         <v>0</v>
       </c>
-      <c r="AC106" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD106" s="4"/>
+      <c r="AC106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="3"/>
     </row>
     <row r="107" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB107" t="s">
         <v>18</v>
       </c>
-      <c r="AC107" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD107" s="4"/>
+      <c r="AC107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="3"/>
     </row>
     <row r="108" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB108" t="s">
         <v>22</v>
       </c>
-      <c r="AC108" t="s">
-        <v>54</v>
+      <c r="AC108" t="b">
+        <v>0</v>
       </c>
       <c r="AD108" s="4"/>
     </row>
     <row r="109" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB109" t="s">
         <v>19</v>
       </c>
-      <c r="AC109" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD109" s="4"/>
+      <c r="AC109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="3"/>
     </row>
     <row r="110" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB110" t="s">
         <v>20</v>
       </c>
-      <c r="AC110" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD110" s="4"/>
+      <c r="AC110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="3"/>
     </row>
     <row r="111" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB111" t="s">
         <v>21</v>
       </c>
-      <c r="AC111" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD111" s="4"/>
+      <c r="AC111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="3"/>
     </row>
     <row r="113" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z113" t="s">
         <v>40</v>
       </c>
       <c r="AA113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB113" t="s">
         <v>23</v>
       </c>
-      <c r="AC113" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD113" s="4"/>
+      <c r="AC113" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD113" s="3"/>
     </row>
     <row r="114" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z114" t="s">
         <v>40</v>
       </c>
       <c r="AA114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB114" t="s">
         <v>44</v>
       </c>
-      <c r="AC114" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD114" s="4"/>
+      <c r="AC114" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD114" s="3"/>
     </row>
     <row r="115" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z115" t="s">
         <v>40</v>
       </c>
       <c r="AA115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB115" t="s">
         <v>40</v>
       </c>
-      <c r="AC115" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD115" s="4"/>
+      <c r="AC115" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="3"/>
     </row>
     <row r="116" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z116" t="s">
         <v>40</v>
       </c>
       <c r="AA116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB116" t="s">
         <v>41</v>
       </c>
-      <c r="AC116" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD116" s="4"/>
+      <c r="AC116" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD116" s="3"/>
     </row>
     <row r="117" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z117" t="s">
         <v>40</v>
       </c>
       <c r="AA117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB117" t="s">
         <v>42</v>
       </c>
-      <c r="AC117" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD117" s="4"/>
+      <c r="AC117" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD117" s="3"/>
     </row>
     <row r="118" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z118" t="s">
         <v>40</v>
       </c>
       <c r="AA118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB118" t="s">
         <v>43</v>
       </c>
-      <c r="AC118" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD118" s="4"/>
+      <c r="AC118" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD118" s="3"/>
     </row>
     <row r="119" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z119" t="s">
         <v>40</v>
       </c>
       <c r="AA119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB119" t="s">
         <v>0</v>
       </c>
-      <c r="AC119" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD119" s="4"/>
+      <c r="AC119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD119" s="3"/>
     </row>
     <row r="120" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z120" t="s">
         <v>40</v>
       </c>
       <c r="AA120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB120" t="s">
         <v>18</v>
       </c>
-      <c r="AC120" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD120" s="4"/>
+      <c r="AC120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="3"/>
     </row>
     <row r="121" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z121" t="s">
         <v>40</v>
       </c>
       <c r="AA121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB121" t="s">
         <v>22</v>
       </c>
-      <c r="AC121" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD121" s="4"/>
+      <c r="AC121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD121" s="3"/>
     </row>
     <row r="122" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z122" t="s">
         <v>40</v>
       </c>
       <c r="AA122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB122" t="s">
         <v>19</v>
       </c>
-      <c r="AC122" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD122" s="4"/>
+      <c r="AC122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD122" s="3"/>
     </row>
     <row r="123" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z123" t="s">
         <v>40</v>
       </c>
       <c r="AA123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB123" t="s">
         <v>20</v>
       </c>
-      <c r="AC123" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD123" s="4"/>
+      <c r="AC123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD123" s="3"/>
     </row>
     <row r="124" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z124" t="s">
         <v>40</v>
       </c>
       <c r="AA124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB124" t="s">
         <v>21</v>
       </c>
-      <c r="AC124" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD124" s="4"/>
+      <c r="AC124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD124" s="3"/>
     </row>
     <row r="126" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z126" t="s">
         <v>41</v>
       </c>
       <c r="AA126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB126" t="s">
         <v>23</v>
       </c>
-      <c r="AC126" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD126" s="4"/>
+      <c r="AC126" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD126" s="3"/>
     </row>
     <row r="127" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z127" t="s">
         <v>41</v>
       </c>
       <c r="AA127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB127" t="s">
         <v>44</v>
       </c>
-      <c r="AC127" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD127" s="4"/>
+      <c r="AC127" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD127" s="3"/>
     </row>
     <row r="128" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z128" t="s">
         <v>41</v>
       </c>
       <c r="AA128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB128" t="s">
         <v>40</v>
       </c>
-      <c r="AC128" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD128" s="4"/>
+      <c r="AC128" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD128" s="3"/>
     </row>
     <row r="129" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z129" t="s">
         <v>41</v>
       </c>
       <c r="AA129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB129" t="s">
         <v>41</v>
       </c>
-      <c r="AC129" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD129" s="4"/>
+      <c r="AC129" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD129" s="3"/>
     </row>
     <row r="130" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z130" t="s">
         <v>41</v>
       </c>
       <c r="AA130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB130" t="s">
         <v>42</v>
       </c>
-      <c r="AC130" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD130" s="4"/>
+      <c r="AC130" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD130" s="3"/>
     </row>
     <row r="131" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z131" t="s">
         <v>41</v>
       </c>
       <c r="AA131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB131" t="s">
         <v>43</v>
       </c>
-      <c r="AC131" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD131" s="4"/>
+      <c r="AC131" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD131" s="3"/>
     </row>
     <row r="132" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z132" t="s">
         <v>41</v>
       </c>
       <c r="AA132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB132" t="s">
         <v>0</v>
       </c>
-      <c r="AC132" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD132" s="4"/>
+      <c r="AC132" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD132" s="3"/>
     </row>
     <row r="133" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z133" t="s">
         <v>41</v>
       </c>
       <c r="AA133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB133" t="s">
         <v>18</v>
       </c>
-      <c r="AC133" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD133" s="4"/>
+      <c r="AC133" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD133" s="3"/>
     </row>
     <row r="134" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z134" t="s">
         <v>41</v>
       </c>
       <c r="AA134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB134" t="s">
         <v>22</v>
       </c>
-      <c r="AC134" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD134" s="4"/>
+      <c r="AC134" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD134" s="3"/>
     </row>
     <row r="135" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z135" t="s">
         <v>41</v>
       </c>
       <c r="AA135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB135" t="s">
         <v>19</v>
       </c>
-      <c r="AC135" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD135" s="4"/>
+      <c r="AC135" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD135" s="3"/>
     </row>
     <row r="136" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z136" t="s">
         <v>41</v>
       </c>
       <c r="AA136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB136" t="s">
         <v>20</v>
       </c>
-      <c r="AC136" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD136" s="4"/>
+      <c r="AC136" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD136" s="3"/>
     </row>
     <row r="137" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z137" t="s">
         <v>41</v>
       </c>
       <c r="AA137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB137" t="s">
         <v>21</v>
       </c>
-      <c r="AC137" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD137" s="4"/>
+      <c r="AC137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD137" s="3"/>
     </row>
     <row r="139" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z139" t="s">
         <v>42</v>
       </c>
       <c r="AA139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB139" t="s">
         <v>23</v>
       </c>
-      <c r="AC139" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD139" s="4"/>
+      <c r="AC139" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD139" s="3"/>
     </row>
     <row r="140" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z140" t="s">
         <v>42</v>
       </c>
       <c r="AA140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB140" t="s">
         <v>44</v>
       </c>
-      <c r="AC140" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD140" s="4"/>
+      <c r="AC140" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD140" s="3"/>
     </row>
     <row r="141" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z141" t="s">
         <v>42</v>
       </c>
       <c r="AA141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB141" t="s">
         <v>40</v>
       </c>
-      <c r="AC141" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD141" s="4"/>
+      <c r="AC141" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD141" s="3"/>
     </row>
     <row r="142" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z142" t="s">
         <v>42</v>
       </c>
       <c r="AA142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB142" t="s">
         <v>41</v>
       </c>
-      <c r="AC142" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD142" s="4"/>
+      <c r="AC142" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD142" s="3"/>
     </row>
     <row r="143" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z143" t="s">
         <v>42</v>
       </c>
       <c r="AA143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB143" t="s">
         <v>42</v>
       </c>
-      <c r="AC143" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD143" s="4"/>
+      <c r="AC143" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD143" s="3"/>
     </row>
     <row r="144" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z144" t="s">
         <v>42</v>
       </c>
       <c r="AA144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB144" t="s">
         <v>43</v>
       </c>
-      <c r="AC144" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD144" s="4"/>
+      <c r="AC144" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD144" s="3"/>
     </row>
     <row r="145" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z145" t="s">
         <v>42</v>
       </c>
       <c r="AA145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB145" t="s">
         <v>0</v>
       </c>
-      <c r="AC145" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD145" s="4"/>
+      <c r="AC145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="3"/>
     </row>
     <row r="146" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z146" t="s">
         <v>42</v>
       </c>
       <c r="AA146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB146" t="s">
         <v>18</v>
       </c>
-      <c r="AC146" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD146" s="4"/>
+      <c r="AC146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="3"/>
     </row>
     <row r="147" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z147" t="s">
         <v>42</v>
       </c>
       <c r="AA147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB147" t="s">
         <v>22</v>
       </c>
-      <c r="AC147" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD147" s="4"/>
+      <c r="AC147" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD147" s="3"/>
     </row>
     <row r="148" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z148" t="s">
         <v>42</v>
       </c>
       <c r="AA148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB148" t="s">
         <v>19</v>
       </c>
-      <c r="AC148" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD148" s="4"/>
+      <c r="AC148" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD148" s="3"/>
     </row>
     <row r="149" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z149" t="s">
         <v>42</v>
       </c>
       <c r="AA149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB149" t="s">
         <v>20</v>
       </c>
-      <c r="AC149" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD149" s="4"/>
+      <c r="AC149" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD149" s="3"/>
     </row>
     <row r="150" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z150" t="s">
         <v>42</v>
       </c>
       <c r="AA150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB150" t="s">
         <v>21</v>
       </c>
-      <c r="AC150" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD150" s="4"/>
+      <c r="AC150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD150" s="3"/>
     </row>
     <row r="152" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z152" t="s">
         <v>43</v>
       </c>
       <c r="AA152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB152" t="s">
         <v>23</v>
       </c>
-      <c r="AC152" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD152" s="4"/>
+      <c r="AC152" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD152" s="3"/>
     </row>
     <row r="153" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z153" t="s">
         <v>43</v>
       </c>
       <c r="AA153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB153" t="s">
         <v>44</v>
       </c>
-      <c r="AC153" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD153" s="4"/>
+      <c r="AC153" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD153" s="3"/>
     </row>
     <row r="154" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z154" t="s">
         <v>43</v>
       </c>
       <c r="AA154" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB154" t="s">
         <v>40</v>
       </c>
-      <c r="AC154" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD154" s="4"/>
+      <c r="AC154" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD154" s="3"/>
     </row>
     <row r="155" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z155" t="s">
         <v>43</v>
       </c>
       <c r="AA155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB155" t="s">
         <v>41</v>
       </c>
-      <c r="AC155" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD155" s="4"/>
+      <c r="AC155" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD155" s="3"/>
     </row>
     <row r="156" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z156" t="s">
         <v>43</v>
       </c>
       <c r="AA156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB156" t="s">
         <v>42</v>
       </c>
-      <c r="AC156" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD156" s="4"/>
+      <c r="AC156" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD156" s="3"/>
     </row>
     <row r="157" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z157" t="s">
         <v>43</v>
       </c>
       <c r="AA157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB157" t="s">
         <v>43</v>
       </c>
-      <c r="AC157" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD157" s="4"/>
+      <c r="AC157" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD157" s="3"/>
     </row>
     <row r="158" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z158" t="s">
         <v>43</v>
       </c>
       <c r="AA158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB158" t="s">
         <v>0</v>
       </c>
-      <c r="AC158" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD158" s="4"/>
+      <c r="AC158" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD158" s="3"/>
     </row>
     <row r="159" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z159" t="s">
         <v>43</v>
       </c>
       <c r="AA159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB159" t="s">
         <v>18</v>
       </c>
-      <c r="AC159" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD159" s="4"/>
+      <c r="AC159" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD159" s="3"/>
     </row>
     <row r="160" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z160" t="s">
         <v>43</v>
       </c>
       <c r="AA160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB160" t="s">
         <v>22</v>
       </c>
-      <c r="AC160" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD160" s="4"/>
+      <c r="AC160" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD160" s="3"/>
     </row>
     <row r="161" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z161" t="s">
         <v>43</v>
       </c>
       <c r="AA161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB161" t="s">
         <v>19</v>
       </c>
-      <c r="AC161" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD161" s="4"/>
+      <c r="AC161" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD161" s="3"/>
     </row>
     <row r="162" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z162" t="s">
         <v>43</v>
       </c>
       <c r="AA162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB162" t="s">
         <v>20</v>
       </c>
-      <c r="AC162" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD162" s="4"/>
+      <c r="AC162" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD162" s="3"/>
     </row>
     <row r="163" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z163" t="s">
         <v>43</v>
       </c>
       <c r="AA163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB163" t="s">
         <v>21</v>
       </c>
-      <c r="AC163" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD163" s="4"/>
+      <c r="AC163" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD163" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E202A3-2E86-4FE6-BE54-9F8A02C76989}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102882EC-DC20-4027-9F1C-30804F726EA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4001" uniqueCount="146">
   <si>
     <t>White Rook</t>
   </si>
@@ -437,6 +437,27 @@
   </si>
   <si>
     <t>Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Move To can't hit more than one enemy </t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>Enemy 1</t>
+  </si>
+  <si>
+    <t>enemy 2</t>
+  </si>
+  <si>
+    <t>Desired Location</t>
+  </si>
+  <si>
+    <t>White Bishop [D5]</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -785,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:AP163"/>
+  <dimension ref="D2:AL163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,9 +833,11 @@
     <col min="26" max="26" width="14.85546875" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
     <col min="28" max="28" width="14.85546875" customWidth="1"/>
+    <col min="32" max="32" width="19.28515625" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>100</v>
       </c>
@@ -825,7 +848,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
         <v>98</v>
       </c>
@@ -868,12 +891,12 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:38" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -887,7 +910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>45</v>
       </c>
@@ -915,8 +938,11 @@
       <c r="Z6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="AF6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>54</v>
       </c>
@@ -957,8 +983,11 @@
       <c r="Z7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="AF7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>0</v>
       </c>
@@ -1007,11 +1036,26 @@
       <c r="AD8" t="s">
         <v>2</v>
       </c>
-      <c r="AL8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="AF8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>0</v>
       </c>
@@ -1058,8 +1102,26 @@
         <v>1</v>
       </c>
       <c r="AD9" s="3"/>
-    </row>
-    <row r="10" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="AF9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>18</v>
       </c>
@@ -1106,32 +1168,8 @@
         <v>1</v>
       </c>
       <c r="AD10" s="4"/>
-      <c r="AI10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="4:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>18</v>
       </c>
@@ -1178,32 +1216,8 @@
         <v>1</v>
       </c>
       <c r="AD11" s="3"/>
-      <c r="AI11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="4:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -1250,32 +1264,8 @@
         <v>1</v>
       </c>
       <c r="AD12" s="3"/>
-      <c r="AI12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="4:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>19</v>
       </c>
@@ -1322,32 +1312,8 @@
         <v>1</v>
       </c>
       <c r="AD13" s="3"/>
-      <c r="AI13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="4:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>20</v>
       </c>
@@ -1394,32 +1360,8 @@
         <v>1</v>
       </c>
       <c r="AD14" s="3"/>
-      <c r="AI14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="4:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>21</v>
       </c>
@@ -1453,32 +1395,8 @@
         <v>0</v>
       </c>
       <c r="AD15" s="3"/>
-      <c r="AI15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="4:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>22</v>
       </c>
@@ -1525,32 +1443,8 @@
         <v>0</v>
       </c>
       <c r="AD16" s="3"/>
-      <c r="AI16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="4:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>22</v>
       </c>
@@ -1600,32 +1494,8 @@
         <v>0</v>
       </c>
       <c r="AD17" s="3"/>
-      <c r="AI17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="4:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>22</v>
       </c>
@@ -1660,7 +1530,7 @@
       </c>
       <c r="AD18" s="3"/>
     </row>
-    <row r="19" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>22</v>
       </c>
@@ -1707,11 +1577,8 @@
         <v>0</v>
       </c>
       <c r="AD19" s="3"/>
-      <c r="AL19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="4:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1613,7 @@
       </c>
       <c r="AD20" s="3"/>
     </row>
-    <row r="21" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -1768,7 +1635,7 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>22</v>
       </c>
@@ -1803,7 +1670,7 @@
       </c>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -1838,7 +1705,7 @@
       </c>
       <c r="AD23" s="3"/>
     </row>
-    <row r="24" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>23</v>
       </c>
@@ -1873,7 +1740,7 @@
       </c>
       <c r="AD24" s="3"/>
     </row>
-    <row r="25" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>23</v>
       </c>
@@ -1894,6 +1761,9 @@
         <v>80</v>
       </c>
       <c r="M25" s="1"/>
+      <c r="S25" t="s">
+        <v>113</v>
+      </c>
       <c r="Z25" t="s">
         <v>50</v>
       </c>
@@ -1908,7 +1778,7 @@
       </c>
       <c r="AD25" s="3"/>
     </row>
-    <row r="26" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>40</v>
       </c>
@@ -1943,7 +1813,7 @@
       </c>
       <c r="AD26" s="3"/>
     </row>
-    <row r="27" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>40</v>
       </c>
@@ -1951,6 +1821,30 @@
         <v>27</v>
       </c>
       <c r="F27" s="4"/>
+      <c r="P27" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>115</v>
+      </c>
+      <c r="R27" t="s">
+        <v>116</v>
+      </c>
+      <c r="S27" t="s">
+        <v>117</v>
+      </c>
+      <c r="T27" t="s">
+        <v>95</v>
+      </c>
+      <c r="U27" t="s">
+        <v>126</v>
+      </c>
+      <c r="V27" t="s">
+        <v>127</v>
+      </c>
+      <c r="W27" t="s">
+        <v>128</v>
+      </c>
       <c r="Z27" t="s">
         <v>50</v>
       </c>
@@ -1965,7 +1859,7 @@
       </c>
       <c r="AD27" s="3"/>
     </row>
-    <row r="28" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>41</v>
       </c>
@@ -1986,6 +1880,30 @@
         <v>70</v>
       </c>
       <c r="M28" s="1"/>
+      <c r="P28" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>87</v>
+      </c>
+      <c r="R28" t="s">
+        <v>118</v>
+      </c>
+      <c r="S28" t="s">
+        <v>119</v>
+      </c>
+      <c r="T28" t="s">
+        <v>94</v>
+      </c>
+      <c r="U28" t="s">
+        <v>129</v>
+      </c>
+      <c r="V28" t="s">
+        <v>130</v>
+      </c>
+      <c r="W28" t="s">
+        <v>85</v>
+      </c>
       <c r="Z28" t="s">
         <v>50</v>
       </c>
@@ -2000,7 +1918,7 @@
       </c>
       <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>41</v>
       </c>
@@ -2021,6 +1939,30 @@
         <v>82</v>
       </c>
       <c r="M29" s="1"/>
+      <c r="P29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>120</v>
+      </c>
+      <c r="R29" t="s">
+        <v>88</v>
+      </c>
+      <c r="S29" t="s">
+        <v>77</v>
+      </c>
+      <c r="T29" t="s">
+        <v>93</v>
+      </c>
+      <c r="U29" t="s">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W29" t="s">
+        <v>131</v>
+      </c>
       <c r="Z29" t="s">
         <v>50</v>
       </c>
@@ -2035,7 +1977,7 @@
       </c>
       <c r="AD29" s="3"/>
     </row>
-    <row r="30" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>42</v>
       </c>
@@ -2056,6 +1998,30 @@
         <v>83</v>
       </c>
       <c r="M30" s="1"/>
+      <c r="P30" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>121</v>
+      </c>
+      <c r="R30" t="s">
+        <v>79</v>
+      </c>
+      <c r="S30" t="s">
+        <v>67</v>
+      </c>
+      <c r="T30" t="s">
+        <v>68</v>
+      </c>
+      <c r="U30" t="s">
+        <v>69</v>
+      </c>
+      <c r="V30" t="s">
+        <v>75</v>
+      </c>
+      <c r="W30" t="s">
+        <v>132</v>
+      </c>
       <c r="Z30" t="s">
         <v>50</v>
       </c>
@@ -2070,7 +2036,7 @@
       </c>
       <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>43</v>
       </c>
@@ -2091,6 +2057,30 @@
         <v>69</v>
       </c>
       <c r="M31" s="1"/>
+      <c r="P31" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>96</v>
+      </c>
+      <c r="R31" t="s">
+        <v>86</v>
+      </c>
+      <c r="S31" t="s">
+        <v>63</v>
+      </c>
+      <c r="T31" t="s">
+        <v>62</v>
+      </c>
+      <c r="U31" t="s">
+        <v>64</v>
+      </c>
+      <c r="V31" t="s">
+        <v>65</v>
+      </c>
+      <c r="W31" t="s">
+        <v>66</v>
+      </c>
       <c r="Z31" t="s">
         <v>50</v>
       </c>
@@ -2105,7 +2095,7 @@
       </c>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>44</v>
       </c>
@@ -2126,6 +2116,30 @@
         <v>84</v>
       </c>
       <c r="M32" s="1"/>
+      <c r="P32" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>122</v>
+      </c>
+      <c r="R32" t="s">
+        <v>78</v>
+      </c>
+      <c r="S32" t="s">
+        <v>60</v>
+      </c>
+      <c r="T32" t="s">
+        <v>71</v>
+      </c>
+      <c r="U32" t="s">
+        <v>70</v>
+      </c>
+      <c r="V32" t="s">
+        <v>74</v>
+      </c>
+      <c r="W32" t="s">
+        <v>133</v>
+      </c>
       <c r="Z32" t="s">
         <v>50</v>
       </c>
@@ -2161,6 +2175,30 @@
         <v>85</v>
       </c>
       <c r="M33" s="1"/>
+      <c r="P33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>123</v>
+      </c>
+      <c r="R33" t="s">
+        <v>90</v>
+      </c>
+      <c r="S33" t="s">
+        <v>80</v>
+      </c>
+      <c r="T33" t="s">
+        <v>73</v>
+      </c>
+      <c r="U33" t="s">
+        <v>81</v>
+      </c>
+      <c r="V33" t="s">
+        <v>82</v>
+      </c>
+      <c r="W33" t="s">
+        <v>134</v>
+      </c>
       <c r="Z33" t="s">
         <v>50</v>
       </c>
@@ -2196,6 +2234,30 @@
         <v>67</v>
       </c>
       <c r="M34" s="1"/>
+      <c r="P34" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>91</v>
+      </c>
+      <c r="R34" t="s">
+        <v>124</v>
+      </c>
+      <c r="S34" t="s">
+        <v>125</v>
+      </c>
+      <c r="T34" t="s">
+        <v>92</v>
+      </c>
+      <c r="U34" t="s">
+        <v>135</v>
+      </c>
+      <c r="V34" t="s">
+        <v>136</v>
+      </c>
+      <c r="W34" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="35" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
@@ -2253,6 +2315,9 @@
         <v>87</v>
       </c>
       <c r="M36" s="1"/>
+      <c r="S36" t="s">
+        <v>114</v>
+      </c>
       <c r="Z36" t="s">
         <v>51</v>
       </c>

--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B4A96A-50C7-421F-8FAC-4D5C8C44F6F0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3066DF5A-1F8B-4D32-B968-4FF4EDF458DA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="267">
   <si>
     <t>White Rook</t>
   </si>
@@ -480,6 +480,348 @@
   </si>
   <si>
     <t>Week9(Second Week)</t>
+  </si>
+  <si>
+    <t>Week 10 (Third Week)</t>
+  </si>
+  <si>
+    <t>Play Card Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in </t>
+  </si>
+  <si>
+    <t>Player(PlayerColour player)</t>
+  </si>
+  <si>
+    <t>Player.cs</t>
+  </si>
+  <si>
+    <t>No Test Required</t>
+  </si>
+  <si>
+    <t>DrawHand()</t>
+  </si>
+  <si>
+    <t>File In</t>
+  </si>
+  <si>
+    <t>Test Required</t>
+  </si>
+  <si>
+    <t>PlayCard()</t>
+  </si>
+  <si>
+    <t>Don’t need to test constructor</t>
+  </si>
+  <si>
+    <t>DoClick</t>
+  </si>
+  <si>
+    <t>LoadResources()</t>
+  </si>
+  <si>
+    <t>HelperFunctions.cs</t>
+  </si>
+  <si>
+    <t>No test Required</t>
+  </si>
+  <si>
+    <t>GetRelativePosition(Position origin, Position end)</t>
+  </si>
+  <si>
+    <t>GetNewPosition(Position position, List&lt;int&gt; deltaPosition)</t>
+  </si>
+  <si>
+    <t>Test the output of the function. Is It Accurate?</t>
+  </si>
+  <si>
+    <t>Position GetNewPosition(Position position, int deltaX, int deltaY)</t>
+  </si>
+  <si>
+    <t>PositionClicked ()</t>
+  </si>
+  <si>
+    <t>Function is based on user input which cannot be unit tested and as a result needs to be QA tested</t>
+  </si>
+  <si>
+    <t>Function is based on user input which cannot be unit tested and as a result need to be QA tested</t>
+  </si>
+  <si>
+    <t>GetAbsPos(Position position)</t>
+  </si>
+  <si>
+    <t>GetOpponent(PlayerColour player)</t>
+  </si>
+  <si>
+    <t>Setup(int position)</t>
+  </si>
+  <si>
+    <t>Reason / Tests to be performed</t>
+  </si>
+  <si>
+    <t>Test to see if the board is setup correctly</t>
+  </si>
+  <si>
+    <t>Test to see if the correct colour is being outputted</t>
+  </si>
+  <si>
+    <t>Game.cs</t>
+  </si>
+  <si>
+    <t>Game()</t>
+  </si>
+  <si>
+    <t>DoMove()</t>
+  </si>
+  <si>
+    <t>Play()</t>
+  </si>
+  <si>
+    <t>Setup()</t>
+  </si>
+  <si>
+    <t>Draw()</t>
+  </si>
+  <si>
+    <t>This uses swingame and cannot be tested</t>
+  </si>
+  <si>
+    <t>This is entirely based on SwinGame and cant be tested.</t>
+  </si>
+  <si>
+    <t>Function is loading resources with SwinGame. No test can be made.</t>
+  </si>
+  <si>
+    <t>This is the setup function and cant be tested as it uses Swingame (GUI)</t>
+  </si>
+  <si>
+    <t>GameMain.cs</t>
+  </si>
+  <si>
+    <t>Untesstable</t>
+  </si>
+  <si>
+    <t>Main()</t>
+  </si>
+  <si>
+    <t>Board.cs</t>
+  </si>
+  <si>
+    <t>Board()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to see if the baord </t>
+  </si>
+  <si>
+    <t>Add(Position position, Piece piece)</t>
+  </si>
+  <si>
+    <t>Remove(Position position)</t>
+  </si>
+  <si>
+    <t>Test to see if No item there / add item / see if item is there</t>
+  </si>
+  <si>
+    <t>Test setup the board and make sure the peaces are in their squares</t>
+  </si>
+  <si>
+    <t>Test to see if there is a piece in a squre / remove it / see if piece is gone.</t>
+  </si>
+  <si>
+    <t>CurrentBoardState()</t>
+  </si>
+  <si>
+    <t>Requires swingame. Untestable</t>
+  </si>
+  <si>
+    <t>Test the output to see if there are pieces in each square. (add 4 pieces to the board then run this function and confirm they are there)</t>
+  </si>
+  <si>
+    <t>Find(Position position)</t>
+  </si>
+  <si>
+    <t>Find(Kind kind, PlayerColour player)</t>
+  </si>
+  <si>
+    <t>FindList(Kind kind, PlayerColour player)</t>
+  </si>
+  <si>
+    <t>GetPositionLocation(Position position)</t>
+  </si>
+  <si>
+    <t>Contains(Kind kind, PlayerColour player)</t>
+  </si>
+  <si>
+    <t>Draw(Piece selected)</t>
+  </si>
+  <si>
+    <t>IsClear(Position begin, Position end)</t>
+  </si>
+  <si>
+    <t>Count(Kind kind)</t>
+  </si>
+  <si>
+    <t>Count(Kind kind, PlayerColour player)</t>
+  </si>
+  <si>
+    <t>Count(PlayerColour player)</t>
+  </si>
+  <si>
+    <t>Test this by adding a piece to the boardand using this to find its location / confirm output</t>
+  </si>
+  <si>
+    <t>Test this by adding pieces to the board from both black and white player teams and then run this function / confirm the location is correct.</t>
+  </si>
+  <si>
+    <t>Test this by adding 5 black and 5 white pieces of a sort, then run this to output their position / confirm output.</t>
+  </si>
+  <si>
+    <t>Test this by giving the function X and Y cordinates then confirm the output of the function.</t>
+  </si>
+  <si>
+    <t>Test this by giving it a pice kind and a player colour, this would then return at least 1 piece of that kind and the player. Confirm output</t>
+  </si>
+  <si>
+    <t>Function is using swingames. Unable to tesst</t>
+  </si>
+  <si>
+    <t>Input position begin and end and confirm the output (true or false) with expected</t>
+  </si>
+  <si>
+    <t>Test this by  placing 3 white pieces of the same type and 5 black piece of the same type on a board, output should be 8.</t>
+  </si>
+  <si>
+    <t>Test this by placing 3 white picees of the same type and 5 black pieces of the same type on a board, test to see how many white then back there are.</t>
+  </si>
+  <si>
+    <t>Test this by adding a few pices of a colour to the board, ask this to count how many pieces the owner has.</t>
+  </si>
+  <si>
+    <t>Rook.cs</t>
+  </si>
+  <si>
+    <t>Queen.cs</t>
+  </si>
+  <si>
+    <t>CanMoveTo (Board board, Position position)</t>
+  </si>
+  <si>
+    <t>NewPosition (Position position)</t>
+  </si>
+  <si>
+    <t>Test this by setting up a rook and moving it to a board location that’s valid to the rooks movement map</t>
+  </si>
+  <si>
+    <t>This is just a slave function to the CanMoveTo function and doesent require testing</t>
+  </si>
+  <si>
+    <t>CanMoveTo(Board board, Position position)</t>
+  </si>
+  <si>
+    <t>Test this by setting up a Queen and moving it to a board location that’s valid to the Queens movement map</t>
+  </si>
+  <si>
+    <t>Piece.cs</t>
+  </si>
+  <si>
+    <t>NewPosition(Position position)</t>
+  </si>
+  <si>
+    <t>ToString()</t>
+  </si>
+  <si>
+    <t>Draw(Board board)</t>
+  </si>
+  <si>
+    <t>MoveMap(Board board)</t>
+  </si>
+  <si>
+    <t>This just parses the new position to the local variable position</t>
+  </si>
+  <si>
+    <t>Test the output of this function and make sure its accurate</t>
+  </si>
+  <si>
+    <t>This test uses Swingames and user input</t>
+  </si>
+  <si>
+    <t>Pawn.cs</t>
+  </si>
+  <si>
+    <t>Test this by setting up a Pawn and moving it to a board location that’s valid to the Pawn movement map</t>
+  </si>
+  <si>
+    <t>NullPiece.cs</t>
+  </si>
+  <si>
+    <t>Test this by making ssure the piece cant move. (bool)</t>
+  </si>
+  <si>
+    <t>Knight.cs</t>
+  </si>
+  <si>
+    <t>Test this by setting up a Knight and moving it to a board location that’s valid to the Knight's movement map</t>
+  </si>
+  <si>
+    <t>King.cs</t>
+  </si>
+  <si>
+    <t>Test this by setting up a King and moving it to a board location that’s valid to the King's movement map</t>
+  </si>
+  <si>
+    <t>Bishop.cs</t>
+  </si>
+  <si>
+    <t>Test this by setting up a Bishop and moving it to a board location that’s valid to the Bishop movement map</t>
+  </si>
+  <si>
+    <t>Cards.cs</t>
+  </si>
+  <si>
+    <t>DrawSmall(int count)</t>
+  </si>
+  <si>
+    <t>DrawLarge(int x, int y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KillPiece(Kind kind, PlayerColour owner, int turn) : base(turn, owner)</t>
+  </si>
+  <si>
+    <t>IsPlayable(Game game)</t>
+  </si>
+  <si>
+    <t>Resolve(Game game)</t>
+  </si>
+  <si>
+    <t>Promote (int turn, PlayerColour owner, List&lt;Kind&gt; targets, List&lt;Kind&gt; promotionOptions) : base(turn, owner)</t>
+  </si>
+  <si>
+    <t>Demote(int turn, PlayerColour owner, List&lt;Kind&gt; targets, List&lt;Kind&gt; promotionOptions) : base(turn, owner)</t>
+  </si>
+  <si>
+    <t>FourHorsemen(int turn, PlayerColour player) : base(turn, player)</t>
+  </si>
+  <si>
+    <t>Castle(int turn, PlayerColour oSidestep(int turn, PlayerColour player) : base(turn, player) { }wner) : base(turn, owner)</t>
+  </si>
+  <si>
+    <t>Matricide(int turn, PlayerColour player) : base(turn, player) { }</t>
+  </si>
+  <si>
+    <t>Swap(int turn, PlayerColour player) : base(turn, player) { }</t>
+  </si>
+  <si>
+    <t>PapalRenunciation(int turn, PlayerColour player) : base(turn, player) { }</t>
+  </si>
+  <si>
+    <t>PapalElection(int turn, PlayerColour player) : base(turn, player) { }</t>
+  </si>
+  <si>
+    <t>This can be tested for EACH of the following cards</t>
+  </si>
+  <si>
+    <t>This can be tested by inputting required information</t>
   </si>
 </sst>
 </file>
@@ -501,7 +843,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +886,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -557,23 +905,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AL181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="J31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,10 +1222,11 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="55.5703125" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.7109375" customWidth="1"/>
     <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -898,45 +1250,47 @@
       </c>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="AB3" s="5" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="6"/>
+      <c r="AB3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -953,6 +1307,21 @@
       <c r="I6" t="s">
         <v>55</v>
       </c>
+      <c r="P6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>155</v>
+      </c>
+      <c r="R6" t="s">
+        <v>160</v>
+      </c>
+      <c r="S6" t="s">
+        <v>161</v>
+      </c>
+      <c r="T6" t="s">
+        <v>178</v>
+      </c>
       <c r="AF6" t="s">
         <v>3</v>
       </c>
@@ -970,6 +1339,21 @@
       <c r="I7" t="s">
         <v>56</v>
       </c>
+      <c r="P7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>155</v>
+      </c>
+      <c r="R7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T7" t="s">
+        <v>163</v>
+      </c>
       <c r="AF7" t="s">
         <v>135</v>
       </c>
@@ -1003,6 +1387,21 @@
       <c r="M8" t="s">
         <v>2</v>
       </c>
+      <c r="P8" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>155</v>
+      </c>
+      <c r="R8" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" t="s">
+        <v>158</v>
+      </c>
+      <c r="T8" t="s">
+        <v>174</v>
+      </c>
       <c r="AF8" t="s">
         <v>136</v>
       </c>
@@ -1046,6 +1445,21 @@
         <v>53</v>
       </c>
       <c r="M9" s="3"/>
+      <c r="P9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>155</v>
+      </c>
+      <c r="R9" t="s">
+        <v>157</v>
+      </c>
+      <c r="S9" t="s">
+        <v>158</v>
+      </c>
+      <c r="T9" t="s">
+        <v>174</v>
+      </c>
       <c r="AF9" t="s">
         <v>140</v>
       </c>
@@ -1089,6 +1503,21 @@
         <v>53</v>
       </c>
       <c r="M10" s="3"/>
+      <c r="P10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>155</v>
+      </c>
+      <c r="R10" t="s">
+        <v>157</v>
+      </c>
+      <c r="S10" t="s">
+        <v>158</v>
+      </c>
+      <c r="T10" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1111,6 +1540,21 @@
         <v>53</v>
       </c>
       <c r="M11" s="3"/>
+      <c r="P11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>155</v>
+      </c>
+      <c r="R11" t="s">
+        <v>166</v>
+      </c>
+      <c r="S11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T11" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1133,6 +1577,21 @@
         <v>53</v>
       </c>
       <c r="M12" s="3"/>
+      <c r="P12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>155</v>
+      </c>
+      <c r="R12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S12" t="s">
+        <v>161</v>
+      </c>
+      <c r="T12" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1155,6 +1614,21 @@
         <v>53</v>
       </c>
       <c r="M13" s="3"/>
+      <c r="P13" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>155</v>
+      </c>
+      <c r="R13" t="s">
+        <v>166</v>
+      </c>
+      <c r="S13" t="s">
+        <v>161</v>
+      </c>
+      <c r="T13" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1177,6 +1651,21 @@
         <v>53</v>
       </c>
       <c r="M14" s="3"/>
+      <c r="P14" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>155</v>
+      </c>
+      <c r="R14" t="s">
+        <v>166</v>
+      </c>
+      <c r="S14" t="s">
+        <v>161</v>
+      </c>
+      <c r="T14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1199,6 +1688,21 @@
         <v>53</v>
       </c>
       <c r="M15" s="3"/>
+      <c r="P15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" t="s">
+        <v>166</v>
+      </c>
+      <c r="S15" t="s">
+        <v>158</v>
+      </c>
+      <c r="T15" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1221,8 +1725,23 @@
         <v>53</v>
       </c>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>155</v>
+      </c>
+      <c r="R16" t="s">
+        <v>166</v>
+      </c>
+      <c r="S16" t="s">
+        <v>161</v>
+      </c>
+      <c r="T16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1243,8 +1762,23 @@
         <v>53</v>
       </c>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>155</v>
+      </c>
+      <c r="R17" t="s">
+        <v>166</v>
+      </c>
+      <c r="S17" t="s">
+        <v>161</v>
+      </c>
+      <c r="T17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1265,8 +1799,23 @@
         <v>53</v>
       </c>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R18" t="s">
+        <v>166</v>
+      </c>
+      <c r="S18" t="s">
+        <v>161</v>
+      </c>
+      <c r="T18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -1287,8 +1836,23 @@
         <v>53</v>
       </c>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>155</v>
+      </c>
+      <c r="R19" t="s">
+        <v>191</v>
+      </c>
+      <c r="S19" t="s">
+        <v>158</v>
+      </c>
+      <c r="T19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1309,8 +1873,23 @@
         <v>53</v>
       </c>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>155</v>
+      </c>
+      <c r="R20" t="s">
+        <v>181</v>
+      </c>
+      <c r="S20" t="s">
+        <v>158</v>
+      </c>
+      <c r="T20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -1318,8 +1897,23 @@
         <v>14</v>
       </c>
       <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>155</v>
+      </c>
+      <c r="R21" t="s">
+        <v>181</v>
+      </c>
+      <c r="S21" t="s">
+        <v>158</v>
+      </c>
+      <c r="T21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -1327,8 +1921,23 @@
         <v>16</v>
       </c>
       <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R22" t="s">
+        <v>181</v>
+      </c>
+      <c r="S22" t="s">
+        <v>158</v>
+      </c>
+      <c r="T22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1336,8 +1945,23 @@
         <v>17</v>
       </c>
       <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>155</v>
+      </c>
+      <c r="R23" t="s">
+        <v>181</v>
+      </c>
+      <c r="S23" t="s">
+        <v>158</v>
+      </c>
+      <c r="T23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -1348,8 +1972,23 @@
       <c r="I24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R24" t="s">
+        <v>181</v>
+      </c>
+      <c r="S24" t="s">
+        <v>161</v>
+      </c>
+      <c r="T24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -1360,8 +1999,23 @@
       <c r="I25" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>155</v>
+      </c>
+      <c r="R25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S25" t="s">
+        <v>158</v>
+      </c>
+      <c r="T25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>40</v>
       </c>
@@ -1384,8 +2038,23 @@
       <c r="M26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>155</v>
+      </c>
+      <c r="R26" t="s">
+        <v>194</v>
+      </c>
+      <c r="S26" t="s">
+        <v>158</v>
+      </c>
+      <c r="T26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -1406,8 +2075,23 @@
         <v>1</v>
       </c>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>155</v>
+      </c>
+      <c r="R27" t="s">
+        <v>194</v>
+      </c>
+      <c r="S27" t="s">
+        <v>161</v>
+      </c>
+      <c r="T27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1428,8 +2112,23 @@
         <v>1</v>
       </c>
       <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>155</v>
+      </c>
+      <c r="R28" t="s">
+        <v>194</v>
+      </c>
+      <c r="S28" t="s">
+        <v>161</v>
+      </c>
+      <c r="T28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -1450,8 +2149,23 @@
         <v>1</v>
       </c>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>155</v>
+      </c>
+      <c r="R29" t="s">
+        <v>194</v>
+      </c>
+      <c r="S29" t="s">
+        <v>161</v>
+      </c>
+      <c r="T29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -1472,8 +2186,23 @@
         <v>1</v>
       </c>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>155</v>
+      </c>
+      <c r="R30" t="s">
+        <v>194</v>
+      </c>
+      <c r="S30" t="s">
+        <v>161</v>
+      </c>
+      <c r="T30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>43</v>
       </c>
@@ -1494,8 +2223,23 @@
         <v>1</v>
       </c>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>155</v>
+      </c>
+      <c r="R31" t="s">
+        <v>194</v>
+      </c>
+      <c r="S31" t="s">
+        <v>161</v>
+      </c>
+      <c r="T31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>44</v>
       </c>
@@ -1516,8 +2260,23 @@
         <v>1</v>
       </c>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>155</v>
+      </c>
+      <c r="R32" t="s">
+        <v>194</v>
+      </c>
+      <c r="S32" t="s">
+        <v>161</v>
+      </c>
+      <c r="T32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>44</v>
       </c>
@@ -1538,8 +2297,23 @@
         <v>0</v>
       </c>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>155</v>
+      </c>
+      <c r="R33" t="s">
+        <v>194</v>
+      </c>
+      <c r="S33" t="s">
+        <v>161</v>
+      </c>
+      <c r="T33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>44</v>
       </c>
@@ -1560,8 +2334,23 @@
         <v>0</v>
       </c>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>155</v>
+      </c>
+      <c r="R34" t="s">
+        <v>194</v>
+      </c>
+      <c r="S34" t="s">
+        <v>161</v>
+      </c>
+      <c r="T34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>44</v>
       </c>
@@ -1582,8 +2371,23 @@
         <v>0</v>
       </c>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>155</v>
+      </c>
+      <c r="R35" t="s">
+        <v>194</v>
+      </c>
+      <c r="S35" t="s">
+        <v>161</v>
+      </c>
+      <c r="T35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -1604,8 +2408,23 @@
         <v>0</v>
       </c>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>155</v>
+      </c>
+      <c r="R36" t="s">
+        <v>194</v>
+      </c>
+      <c r="S36" t="s">
+        <v>158</v>
+      </c>
+      <c r="T36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>44</v>
       </c>
@@ -1626,8 +2445,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>155</v>
+      </c>
+      <c r="R37" t="s">
+        <v>194</v>
+      </c>
+      <c r="S37" t="s">
+        <v>161</v>
+      </c>
+      <c r="T37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>44</v>
       </c>
@@ -1648,8 +2482,23 @@
         <v>0</v>
       </c>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>155</v>
+      </c>
+      <c r="R38" t="s">
+        <v>194</v>
+      </c>
+      <c r="S38" t="s">
+        <v>161</v>
+      </c>
+      <c r="T38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>44</v>
       </c>
@@ -1657,8 +2506,23 @@
         <v>39</v>
       </c>
       <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>155</v>
+      </c>
+      <c r="R39" t="s">
+        <v>194</v>
+      </c>
+      <c r="S39" t="s">
+        <v>161</v>
+      </c>
+      <c r="T39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
         <v>50</v>
       </c>
@@ -1672,8 +2536,23 @@
         <v>1</v>
       </c>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>155</v>
+      </c>
+      <c r="R40" t="s">
+        <v>194</v>
+      </c>
+      <c r="S40" t="s">
+        <v>161</v>
+      </c>
+      <c r="T40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
         <v>50</v>
       </c>
@@ -1687,8 +2566,23 @@
         <v>1</v>
       </c>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>155</v>
+      </c>
+      <c r="R41" t="s">
+        <v>225</v>
+      </c>
+      <c r="S41" t="s">
+        <v>161</v>
+      </c>
+      <c r="T41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>50</v>
       </c>
@@ -1702,8 +2596,23 @@
         <v>1</v>
       </c>
       <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>155</v>
+      </c>
+      <c r="R42" t="s">
+        <v>225</v>
+      </c>
+      <c r="S42" t="s">
+        <v>158</v>
+      </c>
+      <c r="T42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>50</v>
       </c>
@@ -1717,8 +2626,23 @@
         <v>1</v>
       </c>
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>155</v>
+      </c>
+      <c r="R43" t="s">
+        <v>226</v>
+      </c>
+      <c r="S43" t="s">
+        <v>161</v>
+      </c>
+      <c r="T43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>50</v>
       </c>
@@ -1732,8 +2656,23 @@
         <v>1</v>
       </c>
       <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>155</v>
+      </c>
+      <c r="R44" t="s">
+        <v>233</v>
+      </c>
+      <c r="S44" t="s">
+        <v>158</v>
+      </c>
+      <c r="T44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>61</v>
       </c>
@@ -1756,8 +2695,23 @@
         <v>1</v>
       </c>
       <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>155</v>
+      </c>
+      <c r="R45" t="s">
+        <v>233</v>
+      </c>
+      <c r="S45" t="s">
+        <v>161</v>
+      </c>
+      <c r="T45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>57</v>
       </c>
@@ -1786,8 +2740,23 @@
         <v>0</v>
       </c>
       <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>155</v>
+      </c>
+      <c r="R46" t="s">
+        <v>233</v>
+      </c>
+      <c r="S46" t="s">
+        <v>158</v>
+      </c>
+      <c r="T46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>20</v>
       </c>
@@ -1814,8 +2783,23 @@
         <v>0</v>
       </c>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>155</v>
+      </c>
+      <c r="R47" t="s">
+        <v>233</v>
+      </c>
+      <c r="S47" t="s">
+        <v>158</v>
+      </c>
+      <c r="T47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>20</v>
       </c>
@@ -1842,8 +2826,23 @@
         <v>0</v>
       </c>
       <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>155</v>
+      </c>
+      <c r="R48" t="s">
+        <v>241</v>
+      </c>
+      <c r="S48" t="s">
+        <v>161</v>
+      </c>
+      <c r="T48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>20</v>
       </c>
@@ -1870,8 +2869,23 @@
         <v>0</v>
       </c>
       <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>155</v>
+      </c>
+      <c r="R49" t="s">
+        <v>241</v>
+      </c>
+      <c r="S49" t="s">
+        <v>158</v>
+      </c>
+      <c r="T49" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>20</v>
       </c>
@@ -1898,8 +2912,23 @@
         <v>0</v>
       </c>
       <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>155</v>
+      </c>
+      <c r="R50" t="s">
+        <v>243</v>
+      </c>
+      <c r="S50" t="s">
+        <v>161</v>
+      </c>
+      <c r="T50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>20</v>
       </c>
@@ -1926,8 +2955,23 @@
         <v>0</v>
       </c>
       <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>155</v>
+      </c>
+      <c r="R51" t="s">
+        <v>245</v>
+      </c>
+      <c r="S51" t="s">
+        <v>161</v>
+      </c>
+      <c r="T51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>20</v>
       </c>
@@ -1941,8 +2985,23 @@
         <v>64</v>
       </c>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>155</v>
+      </c>
+      <c r="R52" t="s">
+        <v>247</v>
+      </c>
+      <c r="S52" t="s">
+        <v>161</v>
+      </c>
+      <c r="T52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>20</v>
       </c>
@@ -1969,8 +3028,23 @@
         <v>1</v>
       </c>
       <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>155</v>
+      </c>
+      <c r="R53" t="s">
+        <v>247</v>
+      </c>
+      <c r="S53" t="s">
+        <v>158</v>
+      </c>
+      <c r="T53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>20</v>
       </c>
@@ -1997,8 +3071,23 @@
         <v>1</v>
       </c>
       <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>155</v>
+      </c>
+      <c r="R54" t="s">
+        <v>249</v>
+      </c>
+      <c r="S54" t="s">
+        <v>161</v>
+      </c>
+      <c r="T54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
         <v>51</v>
       </c>
@@ -2012,8 +3101,23 @@
         <v>1</v>
       </c>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>155</v>
+      </c>
+      <c r="R55" t="s">
+        <v>251</v>
+      </c>
+      <c r="S55" t="s">
+        <v>158</v>
+      </c>
+      <c r="T55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>22</v>
       </c>
@@ -2040,8 +3144,23 @@
         <v>1</v>
       </c>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>155</v>
+      </c>
+      <c r="R56" t="s">
+        <v>251</v>
+      </c>
+      <c r="S56" t="s">
+        <v>158</v>
+      </c>
+      <c r="T56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>147</v>
       </c>
@@ -2068,8 +3187,23 @@
         <v>1</v>
       </c>
       <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>155</v>
+      </c>
+      <c r="R57" t="s">
+        <v>251</v>
+      </c>
+      <c r="S57" t="s">
+        <v>158</v>
+      </c>
+      <c r="T57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
         <v>51</v>
       </c>
@@ -2083,8 +3217,23 @@
         <v>1</v>
       </c>
       <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>155</v>
+      </c>
+      <c r="R58" t="s">
+        <v>251</v>
+      </c>
+      <c r="S58" t="s">
+        <v>161</v>
+      </c>
+      <c r="T58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>18</v>
       </c>
@@ -2111,8 +3260,23 @@
         <v>0</v>
       </c>
       <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>155</v>
+      </c>
+      <c r="R59" t="s">
+        <v>251</v>
+      </c>
+      <c r="S59" t="s">
+        <v>161</v>
+      </c>
+      <c r="T59" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>18</v>
       </c>
@@ -2139,8 +3303,23 @@
         <v>0</v>
       </c>
       <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>155</v>
+      </c>
+      <c r="R60" t="s">
+        <v>251</v>
+      </c>
+      <c r="S60" t="s">
+        <v>161</v>
+      </c>
+      <c r="T60" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>18</v>
       </c>
@@ -2167,8 +3346,23 @@
         <v>0</v>
       </c>
       <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>155</v>
+      </c>
+      <c r="R61" t="s">
+        <v>251</v>
+      </c>
+      <c r="S61" t="s">
+        <v>161</v>
+      </c>
+      <c r="T61" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>18</v>
       </c>
@@ -2195,8 +3389,23 @@
         <v>0</v>
       </c>
       <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>155</v>
+      </c>
+      <c r="R62" t="s">
+        <v>251</v>
+      </c>
+      <c r="S62" t="s">
+        <v>161</v>
+      </c>
+      <c r="T62" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>18</v>
       </c>
@@ -2223,8 +3432,23 @@
         <v>0</v>
       </c>
       <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>155</v>
+      </c>
+      <c r="R63" t="s">
+        <v>251</v>
+      </c>
+      <c r="S63" t="s">
+        <v>161</v>
+      </c>
+      <c r="T63" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>18</v>
       </c>
@@ -2251,8 +3475,23 @@
         <v>0</v>
       </c>
       <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>155</v>
+      </c>
+      <c r="R64" t="s">
+        <v>251</v>
+      </c>
+      <c r="S64" t="s">
+        <v>161</v>
+      </c>
+      <c r="T64" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>18</v>
       </c>
@@ -2266,8 +3505,23 @@
         <v>79</v>
       </c>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>155</v>
+      </c>
+      <c r="R65" t="s">
+        <v>251</v>
+      </c>
+      <c r="S65" t="s">
+        <v>161</v>
+      </c>
+      <c r="T65" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>18</v>
       </c>
@@ -2294,8 +3548,23 @@
         <v>1</v>
       </c>
       <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>155</v>
+      </c>
+      <c r="R66" t="s">
+        <v>251</v>
+      </c>
+      <c r="S66" t="s">
+        <v>161</v>
+      </c>
+      <c r="T66" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
         <v>19</v>
       </c>
@@ -2309,8 +3578,23 @@
         <v>1</v>
       </c>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>155</v>
+      </c>
+      <c r="R67" t="s">
+        <v>251</v>
+      </c>
+      <c r="S67" t="s">
+        <v>161</v>
+      </c>
+      <c r="T67" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>19</v>
       </c>
@@ -2338,7 +3622,7 @@
       </c>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>19</v>
       </c>
@@ -2366,7 +3650,7 @@
       </c>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>19</v>
       </c>
@@ -2394,7 +3678,7 @@
       </c>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +3706,7 @@
       </c>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>19</v>
       </c>
@@ -2450,7 +3734,7 @@
       </c>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>19</v>
       </c>
@@ -2478,7 +3762,7 @@
       </c>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>19</v>
       </c>
@@ -2506,7 +3790,7 @@
       </c>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>19</v>
       </c>
@@ -2534,7 +3818,7 @@
       </c>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>19</v>
       </c>
@@ -2562,7 +3846,7 @@
       </c>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>19</v>
       </c>
@@ -2590,7 +3874,7 @@
       </c>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>19</v>
       </c>
@@ -2605,7 +3889,7 @@
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>19</v>
       </c>
@@ -2633,7 +3917,7 @@
       </c>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>19</v>
       </c>
@@ -3894,7 +5178,7 @@
       <c r="B129" t="b">
         <v>1</v>
       </c>
-      <c r="C129" s="8" t="b">
+      <c r="C129" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I129" t="s">
@@ -3975,7 +5259,7 @@
       <c r="B134" t="b">
         <v>1</v>
       </c>
-      <c r="C134" s="8" t="b">
+      <c r="C134" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I134" t="s">
@@ -4653,10 +5937,11 @@
       <c r="M181" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="AB3:AL3"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8EB515-4DDF-4A75-8ADD-ACC1A30DB75D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4BFD30-CA63-4D91-8CA9-F191355C8E02}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,7 +886,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -935,6 +935,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -948,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -971,6 +977,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1253,13 +1260,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AU180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
     <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -1378,8 +1385,8 @@
       </c>
     </row>
     <row r="7" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="I7" t="s">
         <v>269</v>
       </c>

--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4BFD30-CA63-4D91-8CA9-F191355C8E02}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07B8178-E25E-4DC5-B2F7-3BE065E0D99E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="283">
   <si>
     <t>White Rook</t>
   </si>
@@ -821,9 +821,6 @@
     <t>0,0</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Pass / Fail - Commends</t>
   </si>
   <si>
@@ -858,6 +855,21 @@
   </si>
   <si>
     <t>Test 2</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>X&amp;Y coordinates</t>
+  </si>
+  <si>
+    <t>PlayerColor.Black</t>
+  </si>
+  <si>
+    <t>B1: Pawn White</t>
+  </si>
+  <si>
+    <t>Board, Position</t>
   </si>
 </sst>
 </file>
@@ -954,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -971,13 +983,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,46 +1273,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AU180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="59.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" customWidth="1"/>
+    <col min="3" max="3" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="144" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" customWidth="1"/>
-    <col min="26" max="26" width="17.140625" customWidth="1"/>
+    <col min="25" max="25" width="15.88671875" customWidth="1"/>
+    <col min="26" max="26" width="17.109375" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" customWidth="1"/>
-    <col min="32" max="32" width="19.28515625" customWidth="1"/>
-    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.88671875" customWidth="1"/>
+    <col min="29" max="29" width="18.44140625" customWidth="1"/>
+    <col min="32" max="32" width="19.33203125" customWidth="1"/>
+    <col min="35" max="35" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14" customWidth="1"/>
-    <col min="49" max="49" width="19.42578125" customWidth="1"/>
-    <col min="55" max="55" width="13.7109375" customWidth="1"/>
-    <col min="57" max="57" width="14.28515625" customWidth="1"/>
+    <col min="49" max="49" width="19.44140625" customWidth="1"/>
+    <col min="55" max="55" width="13.6640625" customWidth="1"/>
+    <col min="57" max="57" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:47" x14ac:dyDescent="0.3">
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -1307,44 +1320,44 @@
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
     </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
       <c r="AI3" s="10"/>
       <c r="AJ3" s="10"/>
       <c r="AK3" s="7"/>
@@ -1359,7 +1372,7 @@
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
     </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:47" x14ac:dyDescent="0.3">
       <c r="H4" s="3" t="s">
         <v>97</v>
       </c>
@@ -1376,7 +1389,7 @@
       <c r="AJ4" s="11"/>
       <c r="AK4" s="11"/>
     </row>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:47" x14ac:dyDescent="0.3">
       <c r="P6" t="s">
         <v>3</v>
       </c>
@@ -1384,11 +1397,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+    <row r="7" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="I7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>262</v>
@@ -1397,7 +1410,7 @@
         <v>45</v>
       </c>
       <c r="R7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W7" t="s">
         <v>55</v>
@@ -1406,13 +1419,13 @@
         <v>134</v>
       </c>
       <c r="AH7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI7" t="s">
         <v>277</v>
       </c>
-      <c r="AI7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>147</v>
       </c>
@@ -1426,7 +1439,7 @@
         <v>153</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1438,7 +1451,7 @@
         <v>263</v>
       </c>
       <c r="J8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K8" t="s">
         <v>170</v>
@@ -1477,7 +1490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>148</v>
       </c>
@@ -1550,7 +1563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>151</v>
       </c>
@@ -1600,7 +1613,7 @@
       </c>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>154</v>
       </c>
@@ -1650,7 +1663,7 @@
       </c>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>156</v>
       </c>
@@ -1700,7 +1713,7 @@
       </c>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>157</v>
       </c>
@@ -1750,7 +1763,7 @@
       </c>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>160</v>
       </c>
@@ -1764,12 +1777,18 @@
         <v>153</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" t="s">
         <v>270</v>
       </c>
-      <c r="G14" t="s">
-        <v>271</v>
-      </c>
-      <c r="J14" s="9"/>
+      <c r="H14" t="s">
+        <v>279</v>
+      </c>
+      <c r="I14" t="s">
+        <v>278</v>
+      </c>
+      <c r="J14" s="15"/>
       <c r="K14" t="s">
         <v>162</v>
       </c>
@@ -1794,7 +1813,7 @@
       </c>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>161</v>
       </c>
@@ -1808,15 +1827,18 @@
         <v>153</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H15" t="s">
-        <v>260</v>
-      </c>
-      <c r="J15" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" s="15"/>
       <c r="K15" t="s">
         <v>162</v>
       </c>
@@ -1841,7 +1863,7 @@
       </c>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>163</v>
       </c>
@@ -1855,13 +1877,16 @@
         <v>153</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" t="s">
         <v>273</v>
       </c>
-      <c r="G16" t="s">
-        <v>274</v>
-      </c>
       <c r="H16" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="I16" t="s">
+        <v>259</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" t="s">
@@ -1888,7 +1913,7 @@
       </c>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>164</v>
       </c>
@@ -1938,7 +1963,7 @@
       </c>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>167</v>
       </c>
@@ -1958,9 +1983,12 @@
         <v>265</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>265</v>
+      </c>
+      <c r="I18" t="s">
+        <v>278</v>
+      </c>
+      <c r="J18" s="4"/>
       <c r="K18" t="s">
         <v>162</v>
       </c>
@@ -1985,7 +2013,7 @@
       </c>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>168</v>
       </c>
@@ -2002,12 +2030,15 @@
         <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H19" t="s">
-        <v>260</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>280</v>
+      </c>
+      <c r="I19" t="s">
+        <v>278</v>
+      </c>
+      <c r="J19" s="4"/>
       <c r="K19" t="s">
         <v>172</v>
       </c>
@@ -2032,7 +2063,7 @@
       </c>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>169</v>
       </c>
@@ -2049,12 +2080,15 @@
         <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H20" t="s">
-        <v>260</v>
-      </c>
-      <c r="J20" s="3"/>
+        <v>281</v>
+      </c>
+      <c r="I20" t="s">
+        <v>278</v>
+      </c>
+      <c r="J20" s="4"/>
       <c r="K20" t="s">
         <v>171</v>
       </c>
@@ -2079,7 +2113,7 @@
       </c>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>185</v>
       </c>
@@ -2129,7 +2163,7 @@
       </c>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>174</v>
       </c>
@@ -2166,7 +2200,7 @@
       </c>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>175</v>
       </c>
@@ -2206,7 +2240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>176</v>
       </c>
@@ -2246,7 +2280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>154</v>
       </c>
@@ -2298,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>177</v>
       </c>
@@ -2345,7 +2379,7 @@
       </c>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>178</v>
       </c>
@@ -2395,7 +2429,7 @@
       </c>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>187</v>
       </c>
@@ -2445,7 +2479,7 @@
       </c>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>177</v>
       </c>
@@ -2486,7 +2520,7 @@
       </c>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>189</v>
       </c>
@@ -2533,7 +2567,7 @@
       </c>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>190</v>
       </c>
@@ -2580,7 +2614,7 @@
       </c>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>194</v>
       </c>
@@ -2627,7 +2661,7 @@
       </c>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>197</v>
       </c>
@@ -2674,7 +2708,7 @@
       </c>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>198</v>
       </c>
@@ -2721,7 +2755,7 @@
       </c>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>199</v>
       </c>
@@ -2768,7 +2802,7 @@
       </c>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>200</v>
       </c>
@@ -2815,7 +2849,7 @@
       </c>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>201</v>
       </c>
@@ -2862,7 +2896,7 @@
       </c>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>202</v>
       </c>
@@ -2899,7 +2933,7 @@
       </c>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>203</v>
       </c>
@@ -2946,7 +2980,7 @@
       </c>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>204</v>
       </c>
@@ -2993,7 +3027,7 @@
       </c>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>205</v>
       </c>
@@ -3033,7 +3067,7 @@
       </c>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>206</v>
       </c>
@@ -3073,7 +3107,7 @@
       </c>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>219</v>
       </c>
@@ -3087,15 +3121,18 @@
         <v>153</v>
       </c>
       <c r="F43" t="s">
-        <v>260</v>
-      </c>
-      <c r="G43" t="s">
-        <v>260</v>
-      </c>
-      <c r="H43" t="s">
-        <v>260</v>
-      </c>
-      <c r="J43" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>278</v>
+      </c>
+      <c r="J43" s="4"/>
       <c r="K43" t="s">
         <v>221</v>
       </c>
@@ -3113,7 +3150,7 @@
       </c>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>220</v>
       </c>
@@ -3156,7 +3193,7 @@
       </c>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>223</v>
       </c>
@@ -3170,15 +3207,18 @@
         <v>153</v>
       </c>
       <c r="F45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G45" t="s">
-        <v>260</v>
-      </c>
-      <c r="H45" t="s">
-        <v>260</v>
-      </c>
-      <c r="J45" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>278</v>
+      </c>
+      <c r="J45" s="4"/>
       <c r="K45" t="s">
         <v>224</v>
       </c>
@@ -3196,7 +3236,7 @@
       </c>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>226</v>
       </c>
@@ -3242,7 +3282,7 @@
       </c>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>227</v>
       </c>
@@ -3256,15 +3296,18 @@
         <v>153</v>
       </c>
       <c r="F47" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="G47" t="s">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>260</v>
-      </c>
-      <c r="J47" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" s="4"/>
       <c r="K47" t="s">
         <v>231</v>
       </c>
@@ -3297,7 +3340,7 @@
       </c>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>228</v>
       </c>
@@ -3353,7 +3396,7 @@
       </c>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>229</v>
       </c>
@@ -3409,7 +3452,7 @@
       </c>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>223</v>
       </c>
@@ -3423,15 +3466,18 @@
         <v>153</v>
       </c>
       <c r="F50" t="s">
-        <v>260</v>
-      </c>
-      <c r="G50" t="s">
-        <v>260</v>
-      </c>
-      <c r="H50" t="s">
-        <v>260</v>
-      </c>
-      <c r="J50" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>278</v>
+      </c>
+      <c r="J50" s="4"/>
       <c r="K50" t="s">
         <v>234</v>
       </c>
@@ -3462,7 +3508,7 @@
       </c>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>226</v>
       </c>
@@ -3505,7 +3551,7 @@
       </c>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>223</v>
       </c>
@@ -3519,15 +3565,18 @@
         <v>153</v>
       </c>
       <c r="F52" t="s">
-        <v>260</v>
-      </c>
-      <c r="G52" t="s">
-        <v>260</v>
-      </c>
-      <c r="H52" t="s">
-        <v>260</v>
-      </c>
-      <c r="J52" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>278</v>
+      </c>
+      <c r="J52" s="4"/>
       <c r="K52" t="s">
         <v>236</v>
       </c>
@@ -3558,7 +3607,7 @@
       </c>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>223</v>
       </c>
@@ -3572,15 +3621,18 @@
         <v>153</v>
       </c>
       <c r="F53" t="s">
-        <v>260</v>
-      </c>
-      <c r="G53" t="s">
-        <v>260</v>
-      </c>
-      <c r="H53" t="s">
-        <v>260</v>
-      </c>
-      <c r="J53" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>278</v>
+      </c>
+      <c r="J53" s="4"/>
       <c r="K53" t="s">
         <v>238</v>
       </c>
@@ -3611,7 +3663,7 @@
       </c>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>219</v>
       </c>
@@ -3625,15 +3677,18 @@
         <v>153</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
-      </c>
-      <c r="G54" t="s">
-        <v>260</v>
-      </c>
-      <c r="H54" t="s">
-        <v>260</v>
-      </c>
-      <c r="J54" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>278</v>
+      </c>
+      <c r="J54" s="4"/>
       <c r="K54" t="s">
         <v>240</v>
       </c>
@@ -3664,7 +3719,7 @@
       </c>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>220</v>
       </c>
@@ -3720,7 +3775,7 @@
       </c>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>223</v>
       </c>
@@ -3734,15 +3789,18 @@
         <v>153</v>
       </c>
       <c r="F56" t="s">
-        <v>260</v>
-      </c>
-      <c r="G56" t="s">
-        <v>260</v>
-      </c>
-      <c r="H56" t="s">
-        <v>260</v>
-      </c>
-      <c r="J56" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>278</v>
+      </c>
+      <c r="J56" s="4"/>
       <c r="K56" t="s">
         <v>242</v>
       </c>
@@ -3773,7 +3831,7 @@
       </c>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>244</v>
       </c>
@@ -3829,7 +3887,7 @@
       </c>
       <c r="AA57" s="4"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>245</v>
       </c>
@@ -3872,7 +3930,7 @@
       </c>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>248</v>
       </c>
@@ -3915,7 +3973,7 @@
       </c>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>247</v>
       </c>
@@ -3968,7 +4026,7 @@
       </c>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>246</v>
       </c>
@@ -4021,7 +4079,7 @@
       </c>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>250</v>
       </c>
@@ -4061,7 +4119,7 @@
       </c>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>251</v>
       </c>
@@ -4101,7 +4159,7 @@
       </c>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>249</v>
       </c>
@@ -4128,7 +4186,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>252</v>
       </c>
@@ -4181,7 +4239,7 @@
       </c>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>253</v>
       </c>
@@ -4234,7 +4292,7 @@
       </c>
       <c r="AA66" s="4"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>254</v>
       </c>
@@ -4287,7 +4345,7 @@
       </c>
       <c r="AA67" s="4"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>255</v>
       </c>
@@ -4340,7 +4398,7 @@
       </c>
       <c r="AA68" s="4"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>256</v>
       </c>
@@ -4393,7 +4451,7 @@
       </c>
       <c r="AA69" s="4"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.3">
       <c r="P70" t="s">
         <v>18</v>
       </c>
@@ -4421,7 +4479,7 @@
       </c>
       <c r="AA70" s="4"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.3">
       <c r="P71" t="s">
         <v>18</v>
       </c>
@@ -4449,7 +4507,7 @@
       </c>
       <c r="AA71" s="4"/>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.3">
       <c r="P72" t="s">
         <v>18</v>
       </c>
@@ -4477,7 +4535,7 @@
       </c>
       <c r="AA72" s="4"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.3">
       <c r="P73" t="s">
         <v>18</v>
       </c>
@@ -4505,7 +4563,7 @@
       </c>
       <c r="AA73" s="4"/>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.3">
       <c r="P74" t="s">
         <v>18</v>
       </c>
@@ -4533,7 +4591,7 @@
       </c>
       <c r="AA74" s="4"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.3">
       <c r="W75" t="s">
         <v>19</v>
       </c>
@@ -4548,7 +4606,7 @@
       </c>
       <c r="AA75" s="4"/>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.3">
       <c r="P76" t="s">
         <v>19</v>
       </c>
@@ -4576,7 +4634,7 @@
       </c>
       <c r="AA76" s="4"/>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.3">
       <c r="P77" t="s">
         <v>19</v>
       </c>
@@ -4591,7 +4649,7 @@
       </c>
       <c r="T77" s="4"/>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.3">
       <c r="P78" t="s">
         <v>19</v>
       </c>
@@ -4619,7 +4677,7 @@
       </c>
       <c r="AA78" s="4"/>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.3">
       <c r="P79" t="s">
         <v>19</v>
       </c>
@@ -4647,7 +4705,7 @@
       </c>
       <c r="AA79" s="4"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.3">
       <c r="P80" t="s">
         <v>19</v>
       </c>
@@ -4675,7 +4733,7 @@
       </c>
       <c r="AA80" s="4"/>
     </row>
-    <row r="81" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P81" t="s">
         <v>19</v>
       </c>
@@ -4703,7 +4761,7 @@
       </c>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P82" t="s">
         <v>19</v>
       </c>
@@ -4731,7 +4789,7 @@
       </c>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P83" t="s">
         <v>19</v>
       </c>
@@ -4759,7 +4817,7 @@
       </c>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P84" t="s">
         <v>19</v>
       </c>
@@ -4787,7 +4845,7 @@
       </c>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P85" t="s">
         <v>19</v>
       </c>
@@ -4815,7 +4873,7 @@
       </c>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P86" t="s">
         <v>19</v>
       </c>
@@ -4843,7 +4901,7 @@
       </c>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P87" t="s">
         <v>19</v>
       </c>
@@ -4871,7 +4929,7 @@
       </c>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P88" t="s">
         <v>19</v>
       </c>
@@ -4899,7 +4957,7 @@
       </c>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P89" t="s">
         <v>19</v>
       </c>
@@ -4927,7 +4985,7 @@
       </c>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P90" t="s">
         <v>19</v>
       </c>
@@ -4942,7 +5000,7 @@
       </c>
       <c r="T90" s="4"/>
     </row>
-    <row r="91" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W91" t="s">
         <v>21</v>
       </c>
@@ -4957,7 +5015,7 @@
       </c>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P92" t="s">
         <v>0</v>
       </c>
@@ -4985,7 +5043,7 @@
       </c>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P93" t="s">
         <v>0</v>
       </c>
@@ -5013,7 +5071,7 @@
       </c>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P94" t="s">
         <v>0</v>
       </c>
@@ -5041,7 +5099,7 @@
       </c>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P95" t="s">
         <v>0</v>
       </c>
@@ -5069,7 +5127,7 @@
       </c>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P96" t="s">
         <v>0</v>
       </c>
@@ -5097,7 +5155,7 @@
       </c>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P97" t="s">
         <v>0</v>
       </c>
@@ -5125,7 +5183,7 @@
       </c>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P98" t="s">
         <v>0</v>
       </c>
@@ -5153,7 +5211,7 @@
       </c>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P99" t="s">
         <v>0</v>
       </c>
@@ -5181,7 +5239,7 @@
       </c>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P100" t="s">
         <v>0</v>
       </c>
@@ -5209,7 +5267,7 @@
       </c>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>0</v>
       </c>
@@ -5237,7 +5295,7 @@
       </c>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P102" t="s">
         <v>0</v>
       </c>
@@ -5265,7 +5323,7 @@
       </c>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P103" t="s">
         <v>0</v>
       </c>
@@ -5280,7 +5338,7 @@
       </c>
       <c r="T103" s="4"/>
     </row>
-    <row r="104" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P104" t="s">
         <v>0</v>
       </c>
@@ -5308,7 +5366,7 @@
       </c>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P105" t="s">
         <v>0</v>
       </c>
@@ -5336,7 +5394,7 @@
       </c>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P106" t="s">
         <v>0</v>
       </c>
@@ -5364,7 +5422,7 @@
       </c>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P107" t="s">
         <v>0</v>
       </c>
@@ -5392,7 +5450,7 @@
       </c>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W108" t="s">
         <v>23</v>
       </c>
@@ -5407,7 +5465,7 @@
       </c>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P109" t="s">
         <v>21</v>
       </c>
@@ -5435,7 +5493,7 @@
       </c>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P110" t="s">
         <v>21</v>
       </c>
@@ -5463,7 +5521,7 @@
       </c>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P111" t="s">
         <v>21</v>
       </c>
@@ -5491,7 +5549,7 @@
       </c>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P112" t="s">
         <v>21</v>
       </c>
@@ -5519,7 +5577,7 @@
       </c>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P113" t="s">
         <v>21</v>
       </c>
@@ -5547,7 +5605,7 @@
       </c>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P114" t="s">
         <v>21</v>
       </c>
@@ -5575,7 +5633,7 @@
       </c>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P115" t="s">
         <v>21</v>
       </c>
@@ -5603,7 +5661,7 @@
       </c>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P116" t="s">
         <v>21</v>
       </c>
@@ -5618,7 +5676,7 @@
       </c>
       <c r="T116" s="4"/>
     </row>
-    <row r="117" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P117" t="s">
         <v>21</v>
       </c>
@@ -5646,7 +5704,7 @@
       </c>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P118" t="s">
         <v>21</v>
       </c>
@@ -5674,7 +5732,7 @@
       </c>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P119" t="s">
         <v>21</v>
       </c>
@@ -5702,7 +5760,7 @@
       </c>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P120" t="s">
         <v>21</v>
       </c>
@@ -5730,7 +5788,7 @@
       </c>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P121" t="s">
         <v>21</v>
       </c>
@@ -5758,7 +5816,7 @@
       </c>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P122" t="s">
         <v>21</v>
       </c>
@@ -5786,7 +5844,7 @@
       </c>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P123" t="s">
         <v>21</v>
       </c>
@@ -5814,7 +5872,7 @@
       </c>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P124" t="s">
         <v>21</v>
       </c>
@@ -5842,7 +5900,7 @@
       </c>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P125" t="s">
         <v>21</v>
       </c>
@@ -5870,7 +5928,7 @@
       </c>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P126" t="s">
         <v>21</v>
       </c>
@@ -5898,7 +5956,7 @@
       </c>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P127" t="s">
         <v>21</v>
       </c>
@@ -5926,7 +5984,7 @@
       </c>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P128" t="s">
         <v>21</v>
       </c>
@@ -5954,7 +6012,7 @@
       </c>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P129" t="s">
         <v>21</v>
       </c>
@@ -5969,7 +6027,7 @@
       </c>
       <c r="T129" s="4"/>
     </row>
-    <row r="130" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P130" t="s">
         <v>21</v>
       </c>
@@ -5997,7 +6055,7 @@
       </c>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P131" t="s">
         <v>21</v>
       </c>
@@ -6025,7 +6083,7 @@
       </c>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P132" t="s">
         <v>21</v>
       </c>
@@ -6053,7 +6111,7 @@
       </c>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P133" t="s">
         <v>21</v>
       </c>
@@ -6081,7 +6139,7 @@
       </c>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P134" t="s">
         <v>21</v>
       </c>
@@ -6109,7 +6167,7 @@
       </c>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P135" t="s">
         <v>21</v>
       </c>
@@ -6137,7 +6195,7 @@
       </c>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P136" t="s">
         <v>21</v>
       </c>
@@ -6165,7 +6223,7 @@
       </c>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P137" t="s">
         <v>21</v>
       </c>
@@ -6193,7 +6251,7 @@
       </c>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W138" t="s">
         <v>40</v>
       </c>
@@ -6208,7 +6266,7 @@
       </c>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W139" t="s">
         <v>40</v>
       </c>
@@ -6223,7 +6281,7 @@
       </c>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P140" t="s">
         <v>3</v>
       </c>
@@ -6241,7 +6299,7 @@
       </c>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>144</v>
       </c>
@@ -6262,7 +6320,7 @@
       </c>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>145</v>
       </c>
@@ -6270,7 +6328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P143" t="b">
         <v>1</v>
       </c>
@@ -6291,7 +6349,7 @@
       </c>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W144" t="s">
         <v>41</v>
       </c>
@@ -6306,7 +6364,7 @@
       </c>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P145" t="s">
         <v>55</v>
       </c>
@@ -6324,7 +6382,7 @@
       </c>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P146" t="s">
         <v>146</v>
       </c>
@@ -6345,7 +6403,7 @@
       </c>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>1</v>
       </c>
@@ -6366,7 +6424,7 @@
       </c>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="16:27" x14ac:dyDescent="0.3">
       <c r="P148" t="b">
         <v>1</v>
       </c>
@@ -6387,7 +6445,7 @@
       </c>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W149" t="s">
         <v>41</v>
       </c>
@@ -6402,7 +6460,7 @@
       </c>
       <c r="AA149" s="4"/>
     </row>
-    <row r="150" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W150" t="s">
         <v>41</v>
       </c>
@@ -6417,7 +6475,7 @@
       </c>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W151" t="s">
         <v>41</v>
       </c>
@@ -6432,7 +6490,7 @@
       </c>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W152" t="s">
         <v>41</v>
       </c>
@@ -6447,7 +6505,7 @@
       </c>
       <c r="AA152" s="4"/>
     </row>
-    <row r="153" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W153" t="s">
         <v>41</v>
       </c>
@@ -6462,7 +6520,7 @@
       </c>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W154" t="s">
         <v>41</v>
       </c>
@@ -6477,7 +6535,7 @@
       </c>
       <c r="AA154" s="4"/>
     </row>
-    <row r="156" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W156" t="s">
         <v>42</v>
       </c>
@@ -6492,7 +6550,7 @@
       </c>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W157" t="s">
         <v>42</v>
       </c>
@@ -6507,7 +6565,7 @@
       </c>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W158" t="s">
         <v>42</v>
       </c>
@@ -6522,7 +6580,7 @@
       </c>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W159" t="s">
         <v>42</v>
       </c>
@@ -6537,7 +6595,7 @@
       </c>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="16:27" x14ac:dyDescent="0.3">
       <c r="W160" t="s">
         <v>42</v>
       </c>
@@ -6552,7 +6610,7 @@
       </c>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W161" t="s">
         <v>42</v>
       </c>
@@ -6567,7 +6625,7 @@
       </c>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W162" t="s">
         <v>42</v>
       </c>
@@ -6582,7 +6640,7 @@
       </c>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W163" t="s">
         <v>42</v>
       </c>
@@ -6597,7 +6655,7 @@
       </c>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W164" t="s">
         <v>42</v>
       </c>
@@ -6612,7 +6670,7 @@
       </c>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W165" t="s">
         <v>42</v>
       </c>
@@ -6627,7 +6685,7 @@
       </c>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W166" t="s">
         <v>42</v>
       </c>
@@ -6642,7 +6700,7 @@
       </c>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W167" t="s">
         <v>42</v>
       </c>
@@ -6657,7 +6715,7 @@
       </c>
       <c r="AA167" s="4"/>
     </row>
-    <row r="169" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W169" t="s">
         <v>43</v>
       </c>
@@ -6672,7 +6730,7 @@
       </c>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W170" t="s">
         <v>43</v>
       </c>
@@ -6687,7 +6745,7 @@
       </c>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W171" t="s">
         <v>43</v>
       </c>
@@ -6702,7 +6760,7 @@
       </c>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W172" t="s">
         <v>43</v>
       </c>
@@ -6717,7 +6775,7 @@
       </c>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W173" t="s">
         <v>43</v>
       </c>
@@ -6732,7 +6790,7 @@
       </c>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W174" t="s">
         <v>43</v>
       </c>
@@ -6747,7 +6805,7 @@
       </c>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W175" t="s">
         <v>43</v>
       </c>
@@ -6762,7 +6820,7 @@
       </c>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W176" t="s">
         <v>43</v>
       </c>
@@ -6777,7 +6835,7 @@
       </c>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W177" t="s">
         <v>43</v>
       </c>
@@ -6792,7 +6850,7 @@
       </c>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W178" t="s">
         <v>43</v>
       </c>
@@ -6807,7 +6865,7 @@
       </c>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W179" t="s">
         <v>43</v>
       </c>
@@ -6822,7 +6880,7 @@
       </c>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="23:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="23:27" x14ac:dyDescent="0.3">
       <c r="W180" t="s">
         <v>43</v>
       </c>
@@ -6855,14 +6913,14 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>88</v>
       </c>
@@ -6888,7 +6946,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>102</v>
       </c>
@@ -6914,7 +6972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>103</v>
       </c>
@@ -6940,7 +6998,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>104</v>
       </c>
@@ -6966,7 +7024,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>96</v>
       </c>
@@ -6992,7 +7050,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>105</v>
       </c>
@@ -7018,7 +7076,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>106</v>
       </c>
@@ -7044,7 +7102,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>107</v>
       </c>
@@ -7070,7 +7128,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>109</v>
       </c>

--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,25 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07B8178-E25E-4DC5-B2F7-3BE065E0D99E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C8B9E9-E0A9-46FF-B0D5-F6BCAA937FF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Game Board" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="292">
   <si>
     <t>White Rook</t>
   </si>
@@ -587,9 +592,6 @@
     <t>Board()</t>
   </si>
   <si>
-    <t xml:space="preserve">Test to see if the baord </t>
-  </si>
-  <si>
     <t>Add(Position position, Piece piece)</t>
   </si>
   <si>
@@ -599,9 +601,6 @@
     <t>Test to see if No item there / add item / see if item is there</t>
   </si>
   <si>
-    <t>Test setup the board and make sure the peaces are in their squares</t>
-  </si>
-  <si>
     <t>Test to see if there is a piece in a squre / remove it / see if piece is gone.</t>
   </si>
   <si>
@@ -833,43 +832,76 @@
     <t>A1 and A2</t>
   </si>
   <si>
-    <t>X and Y Cordinates</t>
-  </si>
-  <si>
     <t>A1 and delta</t>
   </si>
   <si>
-    <t>A1 and delta X and Y</t>
-  </si>
-  <si>
-    <t>Position A2</t>
-  </si>
-  <si>
-    <t>Player??</t>
-  </si>
-  <si>
-    <t>Pawn</t>
-  </si>
-  <si>
     <t>Test 1</t>
   </si>
   <si>
     <t>Test 2</t>
   </si>
   <si>
+    <t>PlayerColor.Black</t>
+  </si>
+  <si>
+    <t>B1: Pawn White</t>
+  </si>
+  <si>
+    <t>Pice = Pawn Position = B1</t>
+  </si>
+  <si>
     <t>James</t>
   </si>
   <si>
     <t>X&amp;Y coordinates</t>
   </si>
   <si>
-    <t>PlayerColor.Black</t>
-  </si>
-  <si>
-    <t>B1: Pawn White</t>
-  </si>
-  <si>
     <t>Board, Position</t>
+  </si>
+  <si>
+    <t>Jessy</t>
+  </si>
+  <si>
+    <t>No Input Required</t>
+  </si>
+  <si>
+    <t>Board Setup String</t>
+  </si>
+  <si>
+    <t>Position = H5 Piece = Pawn</t>
+  </si>
+  <si>
+    <t>Meet</t>
+  </si>
+  <si>
+    <t>AddPieceKing Position = H5 RemovePosition = H5</t>
+  </si>
+  <si>
+    <t>NotAPosition: NoOwner NullPiece\n</t>
+  </si>
+  <si>
+    <t>AddPieceKing Position = H5</t>
+  </si>
+  <si>
+    <t>H5: Black King\n</t>
+  </si>
+  <si>
+    <t>AddPieceKing Position = H5 AddPieceRook Position = H8</t>
+  </si>
+  <si>
+    <t>AddPieceKing Position = D5 Remove Position = D5</t>
+  </si>
+  <si>
+    <t>AddPieceKing Position = D5,A1 addPiecePawn Position = C5,F5,G5 AddPieceQueen Position = H8</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>This is tested in other functions that are tested</t>
+  </si>
+  <si>
+    <t>Handsize is to equal 10</t>
   </si>
 </sst>
 </file>
@@ -898,7 +930,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,8 +985,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -962,35 +1000,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1273,106 +1334,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AU180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59.88671875" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="144" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" customWidth="1"/>
-    <col min="26" max="26" width="17.109375" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" customWidth="1"/>
+    <col min="26" max="26" width="17.140625" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="14.88671875" customWidth="1"/>
-    <col min="29" max="29" width="18.44140625" customWidth="1"/>
-    <col min="32" max="32" width="19.33203125" customWidth="1"/>
-    <col min="35" max="35" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" customWidth="1"/>
+    <col min="32" max="32" width="19.28515625" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14" customWidth="1"/>
-    <col min="49" max="49" width="19.44140625" customWidth="1"/>
-    <col min="55" max="55" width="13.6640625" customWidth="1"/>
-    <col min="57" max="57" width="14.33203125" customWidth="1"/>
+    <col min="49" max="49" width="19.42578125" customWidth="1"/>
+    <col min="55" max="55" width="13.7109375" customWidth="1"/>
+    <col min="57" max="57" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-    </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-    </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+    </row>
+    <row r="3" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+    </row>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="G4" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>97</v>
       </c>
@@ -1382,14 +1446,25 @@
       <c r="J4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-    </row>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+    </row>
+    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
       <c r="P6" t="s">
         <v>3</v>
       </c>
@@ -1397,20 +1472,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="I7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>262</v>
-      </c>
+    <row r="7" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="L7" s="10"/>
       <c r="P7" t="s">
         <v>45</v>
       </c>
       <c r="R7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="W7" t="s">
         <v>55</v>
@@ -1419,43 +1501,44 @@
         <v>134</v>
       </c>
       <c r="AH7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AI7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F8" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
-        <v>263</v>
-      </c>
-      <c r="J8" t="s">
-        <v>266</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I8" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>170</v>
       </c>
+      <c r="L8" s="10"/>
       <c r="P8" t="s">
         <v>54</v>
       </c>
@@ -1490,35 +1573,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" t="s">
-        <v>259</v>
-      </c>
-      <c r="H9" t="s">
-        <v>259</v>
-      </c>
-      <c r="I9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" t="s">
+      <c r="F9" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="10" t="s">
         <v>155</v>
       </c>
+      <c r="L9" s="10"/>
       <c r="P9" t="s">
         <v>0</v>
       </c>
@@ -1563,35 +1647,36 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" t="s">
-        <v>259</v>
-      </c>
-      <c r="H10" t="s">
-        <v>259</v>
-      </c>
-      <c r="I10" t="s">
-        <v>259</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" t="s">
+      <c r="F10" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="L10" s="10"/>
       <c r="P10" t="s">
         <v>0</v>
       </c>
@@ -1613,35 +1698,36 @@
       </c>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G11" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" t="s">
-        <v>259</v>
-      </c>
-      <c r="I11" t="s">
-        <v>259</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" t="s">
+      <c r="F11" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="L11" s="10"/>
       <c r="P11" t="s">
         <v>18</v>
       </c>
@@ -1663,35 +1749,36 @@
       </c>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G12" t="s">
-        <v>259</v>
-      </c>
-      <c r="H12" t="s">
-        <v>259</v>
-      </c>
-      <c r="I12" t="s">
-        <v>259</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" t="s">
+      <c r="F12" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="L12" s="10"/>
       <c r="P12" t="s">
         <v>18</v>
       </c>
@@ -1713,35 +1800,36 @@
       </c>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G13" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" t="s">
-        <v>259</v>
-      </c>
-      <c r="I13" t="s">
-        <v>259</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" t="s">
+      <c r="F13" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="10" t="s">
         <v>181</v>
       </c>
+      <c r="L13" s="10"/>
       <c r="P13" t="s">
         <v>19</v>
       </c>
@@ -1763,35 +1851,36 @@
       </c>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="14" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" t="s">
-        <v>270</v>
-      </c>
-      <c r="H14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I14" t="s">
-        <v>278</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" t="s">
+      <c r="F14" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="10" t="s">
         <v>162</v>
       </c>
+      <c r="L14" s="10"/>
       <c r="P14" t="s">
         <v>19</v>
       </c>
@@ -1813,35 +1902,36 @@
       </c>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G15" t="s">
-        <v>273</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="F15" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I15" t="s">
-        <v>278</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" t="s">
+      <c r="H15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="10" t="s">
         <v>162</v>
       </c>
+      <c r="L15" s="10"/>
       <c r="P15" t="s">
         <v>20</v>
       </c>
@@ -1863,35 +1953,36 @@
       </c>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" t="s">
-        <v>273</v>
-      </c>
-      <c r="H16" t="s">
-        <v>259</v>
-      </c>
-      <c r="I16" t="s">
-        <v>259</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" t="s">
+      <c r="E16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="10" t="s">
         <v>162</v>
       </c>
+      <c r="L16" s="10"/>
       <c r="P16" t="s">
         <v>21</v>
       </c>
@@ -1913,35 +2004,36 @@
       </c>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" t="s">
-        <v>259</v>
-      </c>
-      <c r="H17" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" t="s">
-        <v>259</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" t="s">
+      <c r="F17" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="10" t="s">
         <v>165</v>
       </c>
+      <c r="L17" s="10"/>
       <c r="P17" t="s">
         <v>22</v>
       </c>
@@ -1963,35 +2055,36 @@
       </c>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C18" t="s">
-        <v>260</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G18" t="s">
-        <v>265</v>
-      </c>
-      <c r="H18" t="s">
-        <v>265</v>
-      </c>
-      <c r="I18" t="s">
-        <v>278</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" t="s">
+      <c r="G18" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="10" t="s">
         <v>162</v>
       </c>
+      <c r="L18" s="10"/>
       <c r="P18" t="s">
         <v>22</v>
       </c>
@@ -2013,35 +2106,36 @@
       </c>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="H19" t="s">
-        <v>280</v>
-      </c>
-      <c r="I19" t="s">
-        <v>278</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="10" t="s">
         <v>172</v>
       </c>
+      <c r="L19" s="10"/>
       <c r="P19" t="s">
         <v>22</v>
       </c>
@@ -2063,35 +2157,36 @@
       </c>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" t="s">
-        <v>275</v>
-      </c>
-      <c r="H20" t="s">
-        <v>281</v>
-      </c>
-      <c r="I20" t="s">
-        <v>278</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" t="s">
+      <c r="F20" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="L20" s="10"/>
       <c r="P20" t="s">
         <v>22</v>
       </c>
@@ -2113,35 +2208,36 @@
       </c>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G21" t="s">
-        <v>259</v>
-      </c>
-      <c r="H21" t="s">
-        <v>259</v>
-      </c>
-      <c r="I21" t="s">
-        <v>259</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" t="s">
+      <c r="F21" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="L21" s="10"/>
       <c r="P21" t="s">
         <v>22</v>
       </c>
@@ -2163,35 +2259,36 @@
       </c>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G22" t="s">
-        <v>259</v>
-      </c>
-      <c r="H22" t="s">
-        <v>259</v>
-      </c>
-      <c r="I22" t="s">
-        <v>259</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" t="s">
+      <c r="F22" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="L22" s="10"/>
       <c r="P22" t="s">
         <v>22</v>
       </c>
@@ -2200,35 +2297,36 @@
       </c>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C23" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G23" t="s">
-        <v>259</v>
-      </c>
-      <c r="H23" t="s">
-        <v>259</v>
-      </c>
-      <c r="I23" t="s">
-        <v>259</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" t="s">
+      <c r="F23" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="L23" s="10"/>
       <c r="P23" t="s">
         <v>22</v>
       </c>
@@ -2240,35 +2338,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C24" t="s">
-        <v>260</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G24" t="s">
-        <v>259</v>
-      </c>
-      <c r="H24" t="s">
-        <v>259</v>
-      </c>
-      <c r="I24" t="s">
-        <v>259</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" t="s">
+      <c r="F24" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="10" t="s">
         <v>180</v>
       </c>
+      <c r="L24" s="10"/>
       <c r="P24" t="s">
         <v>22</v>
       </c>
@@ -2280,35 +2379,36 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G25" t="s">
-        <v>259</v>
-      </c>
-      <c r="H25" t="s">
-        <v>259</v>
-      </c>
-      <c r="I25" t="s">
-        <v>259</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" t="s">
+      <c r="F25" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="L25" s="10"/>
       <c r="P25" t="s">
         <v>23</v>
       </c>
@@ -2332,32 +2432,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G26" t="s">
-        <v>260</v>
-      </c>
-      <c r="H26" t="s">
-        <v>260</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" t="s">
-        <v>188</v>
-      </c>
+      <c r="F26" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="L26" s="10"/>
       <c r="P26" t="s">
         <v>23</v>
       </c>
@@ -2379,35 +2483,36 @@
       </c>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C27" t="s">
-        <v>260</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G27" t="s">
-        <v>259</v>
-      </c>
-      <c r="H27" t="s">
-        <v>259</v>
-      </c>
-      <c r="I27" t="s">
-        <v>259</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" t="s">
+      <c r="F27" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="10" t="s">
         <v>179</v>
       </c>
+      <c r="L27" s="10"/>
       <c r="P27" t="s">
         <v>40</v>
       </c>
@@ -2429,35 +2534,36 @@
       </c>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C28" t="s">
-        <v>260</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F28" t="s">
-        <v>259</v>
-      </c>
-      <c r="G28" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" t="s">
-        <v>259</v>
-      </c>
-      <c r="I28" t="s">
-        <v>259</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" t="s">
-        <v>195</v>
-      </c>
+      <c r="F28" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="L28" s="10"/>
       <c r="P28" t="s">
         <v>40</v>
       </c>
@@ -2479,26 +2585,36 @@
       </c>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C29" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E29" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" t="s">
-        <v>260</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" t="s">
-        <v>192</v>
-      </c>
+      <c r="E29" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="L29" s="10"/>
       <c r="P29" t="s">
         <v>41</v>
       </c>
@@ -2520,32 +2636,36 @@
       </c>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" t="s">
-        <v>260</v>
-      </c>
-      <c r="D30" t="s">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F30" t="s">
-        <v>260</v>
-      </c>
-      <c r="G30" t="s">
-        <v>260</v>
-      </c>
-      <c r="H30" t="s">
-        <v>260</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" t="s">
-        <v>191</v>
-      </c>
+      <c r="F30" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="L30" s="10"/>
       <c r="P30" t="s">
         <v>41</v>
       </c>
@@ -2567,32 +2687,36 @@
       </c>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F31" t="s">
-        <v>260</v>
-      </c>
-      <c r="G31" t="s">
-        <v>260</v>
-      </c>
-      <c r="H31" t="s">
-        <v>260</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" t="s">
-        <v>193</v>
-      </c>
+      <c r="F31" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="10"/>
       <c r="P31" t="s">
         <v>42</v>
       </c>
@@ -2614,32 +2738,36 @@
       </c>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" t="s">
-        <v>260</v>
-      </c>
-      <c r="G32" t="s">
-        <v>260</v>
-      </c>
-      <c r="H32" t="s">
-        <v>260</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" t="s">
-        <v>196</v>
-      </c>
+      <c r="L32" s="10"/>
       <c r="P32" t="s">
         <v>43</v>
       </c>
@@ -2661,32 +2789,36 @@
       </c>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F33" t="s">
-        <v>260</v>
-      </c>
-      <c r="G33" t="s">
-        <v>260</v>
-      </c>
-      <c r="H33" t="s">
-        <v>260</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" t="s">
-        <v>207</v>
-      </c>
+      <c r="F33" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" s="10"/>
       <c r="P33" t="s">
         <v>44</v>
       </c>
@@ -2708,32 +2840,36 @@
       </c>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" t="s">
-        <v>260</v>
-      </c>
-      <c r="D34" t="s">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F34" t="s">
-        <v>260</v>
-      </c>
-      <c r="G34" t="s">
-        <v>260</v>
-      </c>
-      <c r="H34" t="s">
-        <v>260</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" t="s">
-        <v>208</v>
-      </c>
+      <c r="F34" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="L34" s="10"/>
       <c r="P34" t="s">
         <v>44</v>
       </c>
@@ -2755,32 +2891,36 @@
       </c>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" t="s">
-        <v>260</v>
-      </c>
-      <c r="D35" t="s">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F35" t="s">
-        <v>260</v>
-      </c>
-      <c r="G35" t="s">
-        <v>260</v>
-      </c>
-      <c r="H35" t="s">
-        <v>260</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" t="s">
-        <v>209</v>
-      </c>
+      <c r="F35" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L35" s="10"/>
       <c r="P35" t="s">
         <v>44</v>
       </c>
@@ -2802,32 +2942,36 @@
       </c>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" t="s">
-        <v>260</v>
-      </c>
-      <c r="D36" t="s">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E36" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" t="s">
-        <v>260</v>
-      </c>
-      <c r="G36" t="s">
-        <v>260</v>
-      </c>
-      <c r="H36" t="s">
-        <v>260</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" t="s">
-        <v>210</v>
-      </c>
+      <c r="E36" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" s="17"/>
+      <c r="K36" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L36" s="10"/>
       <c r="P36" t="s">
         <v>44</v>
       </c>
@@ -2849,32 +2993,36 @@
       </c>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" t="s">
-        <v>260</v>
-      </c>
-      <c r="D37" t="s">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F37" t="s">
-        <v>260</v>
-      </c>
-      <c r="G37" t="s">
-        <v>260</v>
-      </c>
-      <c r="H37" t="s">
-        <v>260</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" t="s">
-        <v>211</v>
-      </c>
+      <c r="F37" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="L37" s="10"/>
       <c r="P37" t="s">
         <v>44</v>
       </c>
@@ -2896,35 +3044,36 @@
       </c>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" t="s">
-        <v>260</v>
-      </c>
-      <c r="D38" t="s">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F38" t="s">
-        <v>259</v>
-      </c>
-      <c r="G38" t="s">
-        <v>259</v>
-      </c>
-      <c r="H38" t="s">
-        <v>259</v>
-      </c>
-      <c r="I38" t="s">
-        <v>259</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" t="s">
-        <v>212</v>
-      </c>
+      <c r="F38" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J38" s="17"/>
+      <c r="K38" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L38" s="10"/>
       <c r="P38" t="s">
         <v>44</v>
       </c>
@@ -2933,32 +3082,36 @@
       </c>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>203</v>
-      </c>
-      <c r="C39" t="s">
-        <v>260</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F39" t="s">
-        <v>260</v>
-      </c>
-      <c r="G39" t="s">
-        <v>260</v>
-      </c>
-      <c r="H39" t="s">
-        <v>260</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" t="s">
-        <v>213</v>
-      </c>
+      <c r="F39" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J39" s="15"/>
+      <c r="K39" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L39" s="10"/>
       <c r="P39" t="s">
         <v>44</v>
       </c>
@@ -2980,32 +3133,36 @@
       </c>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>204</v>
-      </c>
-      <c r="C40" t="s">
-        <v>260</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F40" t="s">
-        <v>260</v>
-      </c>
-      <c r="G40" t="s">
-        <v>260</v>
-      </c>
-      <c r="H40" t="s">
-        <v>260</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" t="s">
-        <v>214</v>
-      </c>
+      <c r="F40" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" s="15"/>
+      <c r="K40" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L40" s="10"/>
       <c r="P40" t="s">
         <v>44</v>
       </c>
@@ -3027,32 +3184,36 @@
       </c>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>205</v>
-      </c>
-      <c r="C41" t="s">
-        <v>260</v>
-      </c>
-      <c r="D41" t="s">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F41" t="s">
-        <v>260</v>
-      </c>
-      <c r="G41" t="s">
-        <v>260</v>
-      </c>
-      <c r="H41" t="s">
-        <v>260</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="K41" t="s">
-        <v>215</v>
-      </c>
+      <c r="F41" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="L41" s="10"/>
       <c r="W41" t="s">
         <v>50</v>
       </c>
@@ -3067,32 +3228,36 @@
       </c>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" t="s">
-        <v>260</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F42" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" t="s">
-        <v>260</v>
-      </c>
-      <c r="H42" t="s">
-        <v>260</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42" t="s">
-        <v>216</v>
-      </c>
+      <c r="F42" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L42" s="10"/>
       <c r="W42" t="s">
         <v>50</v>
       </c>
@@ -3107,35 +3272,38 @@
       </c>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="K43" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C43" t="s">
-        <v>260</v>
-      </c>
-      <c r="D43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E43" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" t="s">
-        <v>282</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>278</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="K43" t="s">
-        <v>221</v>
-      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
       <c r="W43" t="s">
         <v>50</v>
       </c>
@@ -3150,35 +3318,36 @@
       </c>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J44" s="17"/>
+      <c r="K44" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C44" t="s">
-        <v>260</v>
-      </c>
-      <c r="D44" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" t="s">
-        <v>259</v>
-      </c>
-      <c r="G44" t="s">
-        <v>259</v>
-      </c>
-      <c r="H44" t="s">
-        <v>259</v>
-      </c>
-      <c r="I44" t="s">
-        <v>259</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" t="s">
-        <v>222</v>
-      </c>
+      <c r="L44" s="10"/>
       <c r="W44" t="s">
         <v>50</v>
       </c>
@@ -3193,35 +3362,36 @@
       </c>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" t="s">
-        <v>260</v>
-      </c>
-      <c r="D45" t="s">
-        <v>218</v>
-      </c>
-      <c r="E45" t="s">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F45" t="s">
-        <v>282</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>278</v>
-      </c>
-      <c r="J45" s="4"/>
-      <c r="K45" t="s">
-        <v>224</v>
-      </c>
+      <c r="F45" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="L45" s="10"/>
       <c r="W45" t="s">
         <v>50</v>
       </c>
@@ -3236,35 +3406,36 @@
       </c>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>226</v>
-      </c>
-      <c r="C46" t="s">
-        <v>260</v>
-      </c>
-      <c r="D46" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46" t="s">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F46" t="s">
-        <v>259</v>
-      </c>
-      <c r="G46" t="s">
-        <v>259</v>
-      </c>
-      <c r="H46" t="s">
-        <v>259</v>
-      </c>
-      <c r="I46" t="s">
-        <v>259</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" t="s">
-        <v>230</v>
-      </c>
+      <c r="F46" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J46" s="17"/>
+      <c r="K46" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L46" s="10"/>
       <c r="P46" t="s">
         <v>61</v>
       </c>
@@ -3282,35 +3453,36 @@
       </c>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>227</v>
-      </c>
-      <c r="C47" t="s">
-        <v>260</v>
-      </c>
-      <c r="D47" t="s">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E47" t="s">
+      <c r="C47" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I47" t="s">
-        <v>278</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" t="s">
-        <v>231</v>
-      </c>
+      <c r="I47" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J47" s="15"/>
+      <c r="K47" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L47" s="10"/>
       <c r="P47" t="s">
         <v>57</v>
       </c>
@@ -3340,35 +3512,36 @@
       </c>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>228</v>
-      </c>
-      <c r="C48" t="s">
-        <v>260</v>
-      </c>
-      <c r="D48" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" t="s">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F48" t="s">
-        <v>259</v>
-      </c>
-      <c r="G48" t="s">
-        <v>259</v>
-      </c>
-      <c r="H48" t="s">
-        <v>259</v>
-      </c>
-      <c r="I48" t="s">
-        <v>259</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" t="s">
-        <v>232</v>
-      </c>
+      <c r="F48" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J48" s="17"/>
+      <c r="K48" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="L48" s="10"/>
       <c r="P48" t="s">
         <v>20</v>
       </c>
@@ -3396,35 +3569,36 @@
       </c>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>229</v>
-      </c>
-      <c r="C49" t="s">
-        <v>260</v>
-      </c>
-      <c r="D49" t="s">
-        <v>225</v>
-      </c>
-      <c r="E49" t="s">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F49" t="s">
-        <v>259</v>
-      </c>
-      <c r="G49" t="s">
-        <v>259</v>
-      </c>
-      <c r="H49" t="s">
-        <v>259</v>
-      </c>
-      <c r="I49" t="s">
-        <v>259</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" t="s">
+      <c r="F49" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J49" s="17"/>
+      <c r="K49" s="10" t="s">
         <v>179</v>
       </c>
+      <c r="L49" s="10"/>
       <c r="P49" t="s">
         <v>20</v>
       </c>
@@ -3452,35 +3626,36 @@
       </c>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" t="s">
-        <v>260</v>
-      </c>
-      <c r="D50" t="s">
-        <v>233</v>
-      </c>
-      <c r="E50" t="s">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F50" t="s">
-        <v>282</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>278</v>
-      </c>
-      <c r="J50" s="4"/>
-      <c r="K50" t="s">
-        <v>234</v>
-      </c>
+      <c r="F50" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G50" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="L50" s="10"/>
       <c r="P50" t="s">
         <v>20</v>
       </c>
@@ -3508,35 +3683,36 @@
       </c>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>226</v>
-      </c>
-      <c r="C51" t="s">
-        <v>260</v>
-      </c>
-      <c r="D51" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" t="s">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F51" t="s">
-        <v>259</v>
-      </c>
-      <c r="G51" t="s">
-        <v>259</v>
-      </c>
-      <c r="H51" t="s">
-        <v>259</v>
-      </c>
-      <c r="I51" t="s">
-        <v>259</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" t="s">
-        <v>222</v>
-      </c>
+      <c r="F51" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J51" s="17"/>
+      <c r="K51" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L51" s="10"/>
       <c r="P51" t="s">
         <v>20</v>
       </c>
@@ -3551,35 +3727,36 @@
       </c>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D52" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" t="s">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F52" t="s">
-        <v>282</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>278</v>
-      </c>
-      <c r="J52" s="4"/>
-      <c r="K52" t="s">
-        <v>236</v>
-      </c>
+      <c r="F52" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J52" s="15"/>
+      <c r="K52" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="L52" s="10"/>
       <c r="P52" t="s">
         <v>20</v>
       </c>
@@ -3607,35 +3784,36 @@
       </c>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" t="s">
-        <v>260</v>
-      </c>
-      <c r="D53" t="s">
-        <v>237</v>
-      </c>
-      <c r="E53" t="s">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F53" t="s">
-        <v>282</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>278</v>
-      </c>
-      <c r="J53" s="4"/>
-      <c r="K53" t="s">
-        <v>238</v>
-      </c>
+      <c r="F53" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J53" s="15"/>
+      <c r="K53" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="L53" s="10"/>
       <c r="P53" t="s">
         <v>20</v>
       </c>
@@ -3663,35 +3841,36 @@
       </c>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>219</v>
-      </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
-      <c r="D54" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" t="s">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F54" t="s">
-        <v>282</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>278</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54" t="s">
-        <v>240</v>
-      </c>
+      <c r="F54" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G54" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J54" s="15"/>
+      <c r="K54" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="L54" s="10"/>
       <c r="P54" t="s">
         <v>20</v>
       </c>
@@ -3719,35 +3898,36 @@
       </c>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C55" t="s">
-        <v>260</v>
-      </c>
-      <c r="D55" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55" t="s">
-        <v>259</v>
-      </c>
-      <c r="G55" t="s">
-        <v>259</v>
-      </c>
-      <c r="H55" t="s">
-        <v>259</v>
-      </c>
-      <c r="I55" t="s">
-        <v>259</v>
-      </c>
-      <c r="J55" s="3"/>
-      <c r="K55" t="s">
-        <v>222</v>
-      </c>
+      <c r="L55" s="10"/>
       <c r="P55" t="s">
         <v>20</v>
       </c>
@@ -3775,35 +3955,36 @@
       </c>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" t="s">
-        <v>260</v>
-      </c>
-      <c r="D56" t="s">
-        <v>241</v>
-      </c>
-      <c r="E56" t="s">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F56" t="s">
-        <v>282</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="s">
-        <v>278</v>
-      </c>
-      <c r="J56" s="4"/>
-      <c r="K56" t="s">
-        <v>242</v>
-      </c>
+      <c r="F56" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G56" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J56" s="15"/>
+      <c r="K56" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L56" s="10"/>
       <c r="P56" t="s">
         <v>20</v>
       </c>
@@ -3831,35 +4012,36 @@
       </c>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>244</v>
-      </c>
-      <c r="C57" t="s">
-        <v>260</v>
-      </c>
-      <c r="D57" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" t="s">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F57" t="s">
-        <v>259</v>
-      </c>
-      <c r="G57" t="s">
-        <v>259</v>
-      </c>
-      <c r="H57" t="s">
-        <v>259</v>
-      </c>
-      <c r="I57" t="s">
-        <v>259</v>
-      </c>
-      <c r="J57" s="3"/>
-      <c r="K57" t="s">
+      <c r="F57" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J57" s="17"/>
+      <c r="K57" s="10" t="s">
         <v>179</v>
       </c>
+      <c r="L57" s="10"/>
       <c r="P57" t="s">
         <v>20</v>
       </c>
@@ -3887,35 +4069,36 @@
       </c>
       <c r="AA57" s="4"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" t="s">
-        <v>260</v>
-      </c>
-      <c r="D58" t="s">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E58" t="s">
+      <c r="C58" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F58" t="s">
-        <v>259</v>
-      </c>
-      <c r="G58" t="s">
-        <v>259</v>
-      </c>
-      <c r="H58" t="s">
-        <v>259</v>
-      </c>
-      <c r="I58" t="s">
-        <v>259</v>
-      </c>
-      <c r="J58" s="3"/>
-      <c r="K58" t="s">
+      <c r="F58" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J58" s="17"/>
+      <c r="K58" s="10" t="s">
         <v>179</v>
       </c>
+      <c r="L58" s="10"/>
       <c r="W58" t="s">
         <v>51</v>
       </c>
@@ -3930,35 +4113,36 @@
       </c>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>248</v>
-      </c>
-      <c r="C59" t="s">
-        <v>260</v>
-      </c>
-      <c r="D59" t="s">
-        <v>243</v>
-      </c>
-      <c r="E59" t="s">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F59" t="s">
-        <v>259</v>
-      </c>
-      <c r="G59" t="s">
-        <v>259</v>
-      </c>
-      <c r="H59" t="s">
-        <v>259</v>
-      </c>
-      <c r="I59" t="s">
-        <v>259</v>
-      </c>
-      <c r="J59" s="3"/>
-      <c r="K59" t="s">
+      <c r="F59" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J59" s="17"/>
+      <c r="K59" s="10" t="s">
         <v>179</v>
       </c>
+      <c r="L59" s="10"/>
       <c r="W59" t="s">
         <v>51</v>
       </c>
@@ -3973,32 +4157,34 @@
       </c>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60" t="s">
-        <v>260</v>
-      </c>
-      <c r="D60" t="s">
-        <v>243</v>
-      </c>
-      <c r="E60" t="s">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F60" t="s">
-        <v>260</v>
-      </c>
-      <c r="G60" t="s">
-        <v>260</v>
-      </c>
-      <c r="H60" t="s">
-        <v>260</v>
-      </c>
-      <c r="J60" s="3"/>
-      <c r="K60" t="s">
-        <v>257</v>
-      </c>
+      <c r="F60" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="L60" s="10"/>
       <c r="P60" t="s">
         <v>22</v>
       </c>
@@ -4026,32 +4212,34 @@
       </c>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>246</v>
-      </c>
-      <c r="C61" t="s">
-        <v>260</v>
-      </c>
-      <c r="D61" t="s">
-        <v>243</v>
-      </c>
-      <c r="E61" t="s">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F61" t="s">
-        <v>260</v>
-      </c>
-      <c r="G61" t="s">
-        <v>260</v>
-      </c>
-      <c r="H61" t="s">
-        <v>260</v>
-      </c>
-      <c r="J61" s="3"/>
-      <c r="K61" t="s">
-        <v>258</v>
-      </c>
+      <c r="F61" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="L61" s="10"/>
       <c r="P61" t="s">
         <v>143</v>
       </c>
@@ -4079,32 +4267,34 @@
       </c>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>250</v>
-      </c>
-      <c r="C62" t="s">
-        <v>260</v>
-      </c>
-      <c r="D62" t="s">
-        <v>243</v>
-      </c>
-      <c r="E62" t="s">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F62" t="s">
-        <v>260</v>
-      </c>
-      <c r="G62" t="s">
-        <v>260</v>
-      </c>
-      <c r="H62" t="s">
-        <v>260</v>
-      </c>
-      <c r="J62" s="3"/>
-      <c r="K62" t="s">
-        <v>258</v>
-      </c>
+      <c r="F62" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I62" s="10"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="L62" s="10"/>
       <c r="W62" t="s">
         <v>51</v>
       </c>
@@ -4119,32 +4309,34 @@
       </c>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>251</v>
-      </c>
-      <c r="C63" t="s">
-        <v>260</v>
-      </c>
-      <c r="D63" t="s">
-        <v>243</v>
-      </c>
-      <c r="E63" t="s">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F63" t="s">
-        <v>260</v>
-      </c>
-      <c r="G63" t="s">
-        <v>260</v>
-      </c>
-      <c r="H63" t="s">
-        <v>260</v>
-      </c>
-      <c r="J63" s="3"/>
-      <c r="K63" t="s">
-        <v>258</v>
-      </c>
+      <c r="F63" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I63" s="10"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="L63" s="10"/>
       <c r="W63" t="s">
         <v>51</v>
       </c>
@@ -4159,59 +4351,63 @@
       </c>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>249</v>
-      </c>
-      <c r="C64" t="s">
-        <v>260</v>
-      </c>
-      <c r="D64" t="s">
-        <v>243</v>
-      </c>
-      <c r="E64" t="s">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F64" t="s">
-        <v>260</v>
-      </c>
-      <c r="G64" t="s">
-        <v>260</v>
-      </c>
-      <c r="H64" t="s">
-        <v>260</v>
-      </c>
-      <c r="J64" s="3"/>
-      <c r="K64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>252</v>
-      </c>
-      <c r="C65" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65" t="s">
-        <v>243</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="F64" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I64" s="10"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="L64" s="10"/>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F65" t="s">
-        <v>260</v>
-      </c>
-      <c r="G65" t="s">
-        <v>260</v>
-      </c>
-      <c r="H65" t="s">
-        <v>260</v>
-      </c>
-      <c r="J65" s="3"/>
-      <c r="K65" t="s">
-        <v>258</v>
-      </c>
+      <c r="F65" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I65" s="10"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="L65" s="10"/>
       <c r="P65" t="s">
         <v>18</v>
       </c>
@@ -4239,32 +4435,34 @@
       </c>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>253</v>
-      </c>
-      <c r="C66" t="s">
-        <v>260</v>
-      </c>
-      <c r="D66" t="s">
-        <v>243</v>
-      </c>
-      <c r="E66" t="s">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F66" t="s">
-        <v>260</v>
-      </c>
-      <c r="G66" t="s">
-        <v>260</v>
-      </c>
-      <c r="H66" t="s">
-        <v>260</v>
-      </c>
-      <c r="J66" s="3"/>
-      <c r="K66" t="s">
-        <v>258</v>
-      </c>
+      <c r="F66" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I66" s="10"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="L66" s="10"/>
       <c r="P66" t="s">
         <v>18</v>
       </c>
@@ -4292,32 +4490,34 @@
       </c>
       <c r="AA66" s="4"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>254</v>
-      </c>
-      <c r="C67" t="s">
-        <v>260</v>
-      </c>
-      <c r="D67" t="s">
-        <v>243</v>
-      </c>
-      <c r="E67" t="s">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F67" t="s">
-        <v>260</v>
-      </c>
-      <c r="G67" t="s">
-        <v>260</v>
-      </c>
-      <c r="H67" t="s">
-        <v>260</v>
-      </c>
-      <c r="J67" s="3"/>
-      <c r="K67" t="s">
-        <v>258</v>
-      </c>
+      <c r="F67" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I67" s="10"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="L67" s="10"/>
       <c r="P67" t="s">
         <v>18</v>
       </c>
@@ -4345,32 +4545,34 @@
       </c>
       <c r="AA67" s="4"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>255</v>
-      </c>
-      <c r="C68" t="s">
-        <v>260</v>
-      </c>
-      <c r="D68" t="s">
-        <v>243</v>
-      </c>
-      <c r="E68" t="s">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F68" t="s">
-        <v>260</v>
-      </c>
-      <c r="G68" t="s">
-        <v>260</v>
-      </c>
-      <c r="H68" t="s">
-        <v>260</v>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" t="s">
-        <v>258</v>
-      </c>
+      <c r="F68" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I68" s="10"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="L68" s="10"/>
       <c r="P68" t="s">
         <v>18</v>
       </c>
@@ -4398,32 +4600,34 @@
       </c>
       <c r="AA68" s="4"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I69" s="10"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C69" t="s">
-        <v>260</v>
-      </c>
-      <c r="D69" t="s">
-        <v>243</v>
-      </c>
-      <c r="E69" t="s">
-        <v>153</v>
-      </c>
-      <c r="F69" t="s">
-        <v>260</v>
-      </c>
-      <c r="G69" t="s">
-        <v>260</v>
-      </c>
-      <c r="H69" t="s">
-        <v>260</v>
-      </c>
-      <c r="J69" s="3"/>
-      <c r="K69" t="s">
-        <v>258</v>
-      </c>
+      <c r="L69" s="10"/>
       <c r="P69" t="s">
         <v>18</v>
       </c>
@@ -4451,7 +4655,7 @@
       </c>
       <c r="AA69" s="4"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="P70" t="s">
         <v>18</v>
       </c>
@@ -4479,7 +4683,7 @@
       </c>
       <c r="AA70" s="4"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="P71" t="s">
         <v>18</v>
       </c>
@@ -4507,7 +4711,7 @@
       </c>
       <c r="AA71" s="4"/>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="P72" t="s">
         <v>18</v>
       </c>
@@ -4535,7 +4739,7 @@
       </c>
       <c r="AA72" s="4"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="P73" t="s">
         <v>18</v>
       </c>
@@ -4563,7 +4767,7 @@
       </c>
       <c r="AA73" s="4"/>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="P74" t="s">
         <v>18</v>
       </c>
@@ -4591,7 +4795,7 @@
       </c>
       <c r="AA74" s="4"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="W75" t="s">
         <v>19</v>
       </c>
@@ -4606,7 +4810,7 @@
       </c>
       <c r="AA75" s="4"/>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="P76" t="s">
         <v>19</v>
       </c>
@@ -4634,7 +4838,7 @@
       </c>
       <c r="AA76" s="4"/>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="P77" t="s">
         <v>19</v>
       </c>
@@ -4649,7 +4853,7 @@
       </c>
       <c r="T77" s="4"/>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="P78" t="s">
         <v>19</v>
       </c>
@@ -4677,7 +4881,7 @@
       </c>
       <c r="AA78" s="4"/>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="P79" t="s">
         <v>19</v>
       </c>
@@ -4705,7 +4909,7 @@
       </c>
       <c r="AA79" s="4"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="P80" t="s">
         <v>19</v>
       </c>
@@ -4733,7 +4937,7 @@
       </c>
       <c r="AA80" s="4"/>
     </row>
-    <row r="81" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P81" t="s">
         <v>19</v>
       </c>
@@ -4761,7 +4965,7 @@
       </c>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P82" t="s">
         <v>19</v>
       </c>
@@ -4789,7 +4993,7 @@
       </c>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P83" t="s">
         <v>19</v>
       </c>
@@ -4817,7 +5021,7 @@
       </c>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P84" t="s">
         <v>19</v>
       </c>
@@ -4845,7 +5049,7 @@
       </c>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P85" t="s">
         <v>19</v>
       </c>
@@ -4873,7 +5077,7 @@
       </c>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P86" t="s">
         <v>19</v>
       </c>
@@ -4901,7 +5105,7 @@
       </c>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P87" t="s">
         <v>19</v>
       </c>
@@ -4929,7 +5133,7 @@
       </c>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P88" t="s">
         <v>19</v>
       </c>
@@ -4957,7 +5161,7 @@
       </c>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P89" t="s">
         <v>19</v>
       </c>
@@ -4985,7 +5189,7 @@
       </c>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P90" t="s">
         <v>19</v>
       </c>
@@ -5000,7 +5204,7 @@
       </c>
       <c r="T90" s="4"/>
     </row>
-    <row r="91" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W91" t="s">
         <v>21</v>
       </c>
@@ -5015,7 +5219,7 @@
       </c>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P92" t="s">
         <v>0</v>
       </c>
@@ -5043,7 +5247,7 @@
       </c>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P93" t="s">
         <v>0</v>
       </c>
@@ -5071,7 +5275,7 @@
       </c>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P94" t="s">
         <v>0</v>
       </c>
@@ -5099,7 +5303,7 @@
       </c>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P95" t="s">
         <v>0</v>
       </c>
@@ -5127,7 +5331,7 @@
       </c>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P96" t="s">
         <v>0</v>
       </c>
@@ -5155,7 +5359,7 @@
       </c>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P97" t="s">
         <v>0</v>
       </c>
@@ -5183,7 +5387,7 @@
       </c>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P98" t="s">
         <v>0</v>
       </c>
@@ -5211,7 +5415,7 @@
       </c>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P99" t="s">
         <v>0</v>
       </c>
@@ -5239,7 +5443,7 @@
       </c>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P100" t="s">
         <v>0</v>
       </c>
@@ -5267,7 +5471,7 @@
       </c>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P101" t="s">
         <v>0</v>
       </c>
@@ -5295,7 +5499,7 @@
       </c>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P102" t="s">
         <v>0</v>
       </c>
@@ -5323,7 +5527,7 @@
       </c>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P103" t="s">
         <v>0</v>
       </c>
@@ -5338,7 +5542,7 @@
       </c>
       <c r="T103" s="4"/>
     </row>
-    <row r="104" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P104" t="s">
         <v>0</v>
       </c>
@@ -5366,7 +5570,7 @@
       </c>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P105" t="s">
         <v>0</v>
       </c>
@@ -5394,7 +5598,7 @@
       </c>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P106" t="s">
         <v>0</v>
       </c>
@@ -5422,7 +5626,7 @@
       </c>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P107" t="s">
         <v>0</v>
       </c>
@@ -5450,7 +5654,7 @@
       </c>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W108" t="s">
         <v>23</v>
       </c>
@@ -5465,7 +5669,7 @@
       </c>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P109" t="s">
         <v>21</v>
       </c>
@@ -5493,7 +5697,7 @@
       </c>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P110" t="s">
         <v>21</v>
       </c>
@@ -5521,7 +5725,7 @@
       </c>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P111" t="s">
         <v>21</v>
       </c>
@@ -5549,7 +5753,7 @@
       </c>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P112" t="s">
         <v>21</v>
       </c>
@@ -5577,7 +5781,7 @@
       </c>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P113" t="s">
         <v>21</v>
       </c>
@@ -5605,7 +5809,7 @@
       </c>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P114" t="s">
         <v>21</v>
       </c>
@@ -5633,7 +5837,7 @@
       </c>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P115" t="s">
         <v>21</v>
       </c>
@@ -5661,7 +5865,7 @@
       </c>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P116" t="s">
         <v>21</v>
       </c>
@@ -5676,7 +5880,7 @@
       </c>
       <c r="T116" s="4"/>
     </row>
-    <row r="117" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P117" t="s">
         <v>21</v>
       </c>
@@ -5704,7 +5908,7 @@
       </c>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P118" t="s">
         <v>21</v>
       </c>
@@ -5732,7 +5936,7 @@
       </c>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P119" t="s">
         <v>21</v>
       </c>
@@ -5760,7 +5964,7 @@
       </c>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P120" t="s">
         <v>21</v>
       </c>
@@ -5788,7 +5992,7 @@
       </c>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P121" t="s">
         <v>21</v>
       </c>
@@ -5816,7 +6020,7 @@
       </c>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P122" t="s">
         <v>21</v>
       </c>
@@ -5844,7 +6048,7 @@
       </c>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P123" t="s">
         <v>21</v>
       </c>
@@ -5872,7 +6076,7 @@
       </c>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P124" t="s">
         <v>21</v>
       </c>
@@ -5900,7 +6104,7 @@
       </c>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P125" t="s">
         <v>21</v>
       </c>
@@ -5928,7 +6132,7 @@
       </c>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P126" t="s">
         <v>21</v>
       </c>
@@ -5956,7 +6160,7 @@
       </c>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P127" t="s">
         <v>21</v>
       </c>
@@ -5984,7 +6188,7 @@
       </c>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P128" t="s">
         <v>21</v>
       </c>
@@ -6012,7 +6216,7 @@
       </c>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P129" t="s">
         <v>21</v>
       </c>
@@ -6027,7 +6231,7 @@
       </c>
       <c r="T129" s="4"/>
     </row>
-    <row r="130" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P130" t="s">
         <v>21</v>
       </c>
@@ -6055,7 +6259,7 @@
       </c>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P131" t="s">
         <v>21</v>
       </c>
@@ -6083,7 +6287,7 @@
       </c>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P132" t="s">
         <v>21</v>
       </c>
@@ -6111,7 +6315,7 @@
       </c>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P133" t="s">
         <v>21</v>
       </c>
@@ -6139,7 +6343,7 @@
       </c>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P134" t="s">
         <v>21</v>
       </c>
@@ -6167,7 +6371,7 @@
       </c>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P135" t="s">
         <v>21</v>
       </c>
@@ -6195,7 +6399,7 @@
       </c>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P136" t="s">
         <v>21</v>
       </c>
@@ -6223,7 +6427,7 @@
       </c>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P137" t="s">
         <v>21</v>
       </c>
@@ -6251,7 +6455,7 @@
       </c>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W138" t="s">
         <v>40</v>
       </c>
@@ -6266,7 +6470,7 @@
       </c>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W139" t="s">
         <v>40</v>
       </c>
@@ -6281,7 +6485,7 @@
       </c>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P140" t="s">
         <v>3</v>
       </c>
@@ -6299,7 +6503,7 @@
       </c>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P141" t="s">
         <v>144</v>
       </c>
@@ -6320,7 +6524,7 @@
       </c>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P142" t="s">
         <v>145</v>
       </c>
@@ -6328,7 +6532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P143" t="b">
         <v>1</v>
       </c>
@@ -6349,7 +6553,7 @@
       </c>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W144" t="s">
         <v>41</v>
       </c>
@@ -6364,7 +6568,7 @@
       </c>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P145" t="s">
         <v>55</v>
       </c>
@@ -6382,7 +6586,7 @@
       </c>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P146" t="s">
         <v>146</v>
       </c>
@@ -6403,7 +6607,7 @@
       </c>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P147" t="s">
         <v>1</v>
       </c>
@@ -6424,7 +6628,7 @@
       </c>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P148" t="b">
         <v>1</v>
       </c>
@@ -6445,7 +6649,7 @@
       </c>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W149" t="s">
         <v>41</v>
       </c>
@@ -6460,7 +6664,7 @@
       </c>
       <c r="AA149" s="4"/>
     </row>
-    <row r="150" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W150" t="s">
         <v>41</v>
       </c>
@@ -6475,7 +6679,7 @@
       </c>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W151" t="s">
         <v>41</v>
       </c>
@@ -6490,7 +6694,7 @@
       </c>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W152" t="s">
         <v>41</v>
       </c>
@@ -6505,7 +6709,7 @@
       </c>
       <c r="AA152" s="4"/>
     </row>
-    <row r="153" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W153" t="s">
         <v>41</v>
       </c>
@@ -6520,7 +6724,7 @@
       </c>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W154" t="s">
         <v>41</v>
       </c>
@@ -6535,7 +6739,7 @@
       </c>
       <c r="AA154" s="4"/>
     </row>
-    <row r="156" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W156" t="s">
         <v>42</v>
       </c>
@@ -6550,7 +6754,7 @@
       </c>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W157" t="s">
         <v>42</v>
       </c>
@@ -6565,7 +6769,7 @@
       </c>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W158" t="s">
         <v>42</v>
       </c>
@@ -6580,7 +6784,7 @@
       </c>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W159" t="s">
         <v>42</v>
       </c>
@@ -6595,7 +6799,7 @@
       </c>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" spans="16:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W160" t="s">
         <v>42</v>
       </c>
@@ -6610,7 +6814,7 @@
       </c>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W161" t="s">
         <v>42</v>
       </c>
@@ -6625,7 +6829,7 @@
       </c>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W162" t="s">
         <v>42</v>
       </c>
@@ -6640,7 +6844,7 @@
       </c>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="163" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W163" t="s">
         <v>42</v>
       </c>
@@ -6655,7 +6859,7 @@
       </c>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W164" t="s">
         <v>42</v>
       </c>
@@ -6670,7 +6874,7 @@
       </c>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W165" t="s">
         <v>42</v>
       </c>
@@ -6685,7 +6889,7 @@
       </c>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W166" t="s">
         <v>42</v>
       </c>
@@ -6700,7 +6904,7 @@
       </c>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="167" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W167" t="s">
         <v>42</v>
       </c>
@@ -6715,7 +6919,7 @@
       </c>
       <c r="AA167" s="4"/>
     </row>
-    <row r="169" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="169" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W169" t="s">
         <v>43</v>
       </c>
@@ -6730,7 +6934,7 @@
       </c>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="170" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W170" t="s">
         <v>43</v>
       </c>
@@ -6745,7 +6949,7 @@
       </c>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="171" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W171" t="s">
         <v>43</v>
       </c>
@@ -6760,7 +6964,7 @@
       </c>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="172" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W172" t="s">
         <v>43</v>
       </c>
@@ -6775,7 +6979,7 @@
       </c>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="173" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W173" t="s">
         <v>43</v>
       </c>
@@ -6790,7 +6994,7 @@
       </c>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="174" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W174" t="s">
         <v>43</v>
       </c>
@@ -6805,7 +7009,7 @@
       </c>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="175" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W175" t="s">
         <v>43</v>
       </c>
@@ -6820,7 +7024,7 @@
       </c>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="176" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W176" t="s">
         <v>43</v>
       </c>
@@ -6835,7 +7039,7 @@
       </c>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W177" t="s">
         <v>43</v>
       </c>
@@ -6850,7 +7054,7 @@
       </c>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W178" t="s">
         <v>43</v>
       </c>
@@ -6865,7 +7069,7 @@
       </c>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W179" t="s">
         <v>43</v>
       </c>
@@ -6880,7 +7084,7 @@
       </c>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W180" t="s">
         <v>43</v>
       </c>
@@ -6913,14 +7117,14 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>88</v>
       </c>
@@ -6946,7 +7150,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>102</v>
       </c>
@@ -6972,7 +7176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>103</v>
       </c>
@@ -6998,7 +7202,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>104</v>
       </c>
@@ -7024,7 +7228,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>96</v>
       </c>
@@ -7050,7 +7254,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>105</v>
       </c>
@@ -7076,7 +7280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>106</v>
       </c>
@@ -7102,7 +7306,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>107</v>
       </c>
@@ -7128,7 +7332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>109</v>
       </c>

--- a/UnitTestFile/UniTests.xlsx
+++ b/UnitTestFile/UniTests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C8B9E9-E0A9-46FF-B0D5-F6BCAA937FF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019E59CC-9299-4A83-9EF5-BF70F9AC32ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="290">
   <si>
     <t>White Rook</t>
   </si>
@@ -469,9 +469,6 @@
     <t>Tests to see if a cell is filled</t>
   </si>
   <si>
-    <t>Play Card Function</t>
-  </si>
-  <si>
     <t>Player(PlayerColour player)</t>
   </si>
   <si>
@@ -808,9 +805,6 @@
     <t>ALL UNIT TESTS</t>
   </si>
   <si>
-    <t>CLICK ON CELL (LOTS OF TEXT IN THESE CELLS)</t>
-  </si>
-  <si>
     <t>Unit Tesster</t>
   </si>
   <si>
@@ -820,15 +814,9 @@
     <t>0,0</t>
   </si>
   <si>
-    <t>Pass / Fail - Commends</t>
-  </si>
-  <si>
     <t>Input Values</t>
   </si>
   <si>
-    <t>PUT NAME HERE</t>
-  </si>
-  <si>
     <t>A1 and A2</t>
   </si>
   <si>
@@ -902,6 +890,12 @@
   </si>
   <si>
     <t>Handsize is to equal 10</t>
+  </si>
+  <si>
+    <t>FUNCTION NAME</t>
+  </si>
+  <si>
+    <t>Pass / Fail</t>
   </si>
 </sst>
 </file>
@@ -930,7 +924,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,19 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,8 +973,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1015,15 +1003,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1031,27 +1049,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1332,23 +1350,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AU180"/>
+  <dimension ref="A1:AU180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="2" max="2" width="77.7109375" customWidth="1"/>
     <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="144" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" customWidth="1"/>
@@ -1373,98 +1391,150 @@
     <col min="57" max="57" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-    </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-    </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="G4" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-    </row>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
       <c r="P6" t="s">
         <v>3</v>
       </c>
@@ -1472,27 +1542,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="L7" s="10"/>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
       <c r="P7" t="s">
         <v>45</v>
       </c>
       <c r="R7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="W7" t="s">
         <v>55</v>
@@ -1501,44 +1578,47 @@
         <v>134</v>
       </c>
       <c r="AH7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AI7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" s="10"/>
+      <c r="I8" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
       <c r="P8" t="s">
         <v>54</v>
       </c>
@@ -1573,36 +1653,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L9" s="10"/>
+      <c r="F9" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
       <c r="P9" t="s">
         <v>0</v>
       </c>
@@ -1643,40 +1726,43 @@
       <c r="AH9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AI9" s="4" t="s">
+      <c r="AI9" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" s="10" t="s">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L10" s="10"/>
+      <c r="F10" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
       <c r="P10" t="s">
         <v>0</v>
       </c>
@@ -1696,38 +1782,41 @@
       <c r="Z10" t="s">
         <v>53</v>
       </c>
-      <c r="AA10" s="4"/>
-    </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L11" s="10"/>
+      <c r="F11" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
       <c r="P11" t="s">
         <v>18</v>
       </c>
@@ -1747,38 +1836,41 @@
       <c r="Z11" t="s">
         <v>53</v>
       </c>
-      <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L12" s="10"/>
+      <c r="F12" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
       <c r="P12" t="s">
         <v>18</v>
       </c>
@@ -1798,38 +1890,41 @@
       <c r="Z12" t="s">
         <v>53</v>
       </c>
-      <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="10"/>
+      <c r="F13" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
       <c r="P13" t="s">
         <v>19</v>
       </c>
@@ -1849,38 +1944,41 @@
       <c r="Z13" t="s">
         <v>53</v>
       </c>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="L14" s="10"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
       <c r="P14" t="s">
         <v>19</v>
       </c>
@@ -1900,38 +1998,41 @@
       <c r="Z14" t="s">
         <v>53</v>
       </c>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
       <c r="P15" t="s">
         <v>20</v>
       </c>
@@ -1951,38 +2052,41 @@
       <c r="Z15" t="s">
         <v>53</v>
       </c>
-      <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="10" t="s">
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="C16" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
       <c r="P16" t="s">
         <v>21</v>
       </c>
@@ -2002,45 +2106,48 @@
       <c r="Z16" t="s">
         <v>53</v>
       </c>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
       <c r="P17" t="s">
         <v>22</v>
       </c>
       <c r="Q17" t="s">
         <v>10</v>
       </c>
-      <c r="R17" s="4"/>
+      <c r="R17" s="3"/>
       <c r="W17" t="s">
         <v>18</v>
       </c>
@@ -2053,45 +2160,48 @@
       <c r="Z17" t="s">
         <v>53</v>
       </c>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="L18" s="10"/>
+      <c r="G18" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
       <c r="P18" t="s">
         <v>22</v>
       </c>
       <c r="Q18" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="4"/>
+      <c r="R18" s="3"/>
       <c r="W18" t="s">
         <v>22</v>
       </c>
@@ -2104,45 +2214,48 @@
       <c r="Z18" t="s">
         <v>53</v>
       </c>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="L19" s="10"/>
+      <c r="G19" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
       <c r="P19" t="s">
         <v>22</v>
       </c>
       <c r="Q19" t="s">
         <v>12</v>
       </c>
-      <c r="R19" s="4"/>
+      <c r="R19" s="3"/>
       <c r="W19" t="s">
         <v>19</v>
       </c>
@@ -2155,45 +2268,48 @@
       <c r="Z19" t="s">
         <v>53</v>
       </c>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="L20" s="10"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
       <c r="P20" t="s">
         <v>22</v>
       </c>
       <c r="Q20" t="s">
         <v>13</v>
       </c>
-      <c r="R20" s="4"/>
+      <c r="R20" s="3"/>
       <c r="W20" t="s">
         <v>20</v>
       </c>
@@ -2206,45 +2322,48 @@
       <c r="Z20" t="s">
         <v>53</v>
       </c>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
       <c r="P21" t="s">
         <v>22</v>
       </c>
       <c r="Q21" t="s">
         <v>15</v>
       </c>
-      <c r="R21" s="4"/>
+      <c r="R21" s="3"/>
       <c r="W21" t="s">
         <v>21</v>
       </c>
@@ -2257,165 +2376,177 @@
       <c r="Z21" t="s">
         <v>53</v>
       </c>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" s="10"/>
+      <c r="C22" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
       <c r="P22" t="s">
         <v>22</v>
       </c>
       <c r="Q22" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="10"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
       <c r="P23" t="s">
         <v>22</v>
       </c>
       <c r="Q23" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="4"/>
+      <c r="R23" s="3"/>
       <c r="W23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="L24" s="10"/>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
       <c r="P24" t="s">
         <v>22</v>
       </c>
       <c r="Q24" t="s">
         <v>17</v>
       </c>
-      <c r="R24" s="4"/>
+      <c r="R24" s="3"/>
       <c r="W24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="10"/>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
       <c r="P25" t="s">
         <v>23</v>
       </c>
       <c r="Q25" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="4"/>
+      <c r="R25" s="3"/>
       <c r="W25" t="s">
         <v>46</v>
       </c>
@@ -2432,43 +2563,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="L26" s="10"/>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
       <c r="P26" t="s">
         <v>23</v>
       </c>
       <c r="Q26" t="s">
         <v>25</v>
       </c>
-      <c r="R26" s="4"/>
+      <c r="R26" s="3"/>
       <c r="W26" t="s">
         <v>48</v>
       </c>
@@ -2481,45 +2615,48 @@
       <c r="Z26" t="b">
         <v>1</v>
       </c>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
       <c r="P27" t="s">
         <v>40</v>
       </c>
       <c r="Q27" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="4"/>
+      <c r="R27" s="3"/>
       <c r="W27" t="s">
         <v>48</v>
       </c>
@@ -2532,45 +2669,48 @@
       <c r="Z27" t="b">
         <v>1</v>
       </c>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="L28" s="10"/>
+      <c r="C28" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
       <c r="P28" t="s">
         <v>40</v>
       </c>
       <c r="Q28" t="s">
         <v>27</v>
       </c>
-      <c r="R28" s="4"/>
+      <c r="R28" s="3"/>
       <c r="W28" t="s">
         <v>48</v>
       </c>
@@ -2583,45 +2723,48 @@
       <c r="Z28" t="b">
         <v>1</v>
       </c>
-      <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="L29" s="10"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
       <c r="P29" t="s">
         <v>41</v>
       </c>
       <c r="Q29" t="s">
         <v>28</v>
       </c>
-      <c r="R29" s="4"/>
+      <c r="R29" s="3"/>
       <c r="W29" t="s">
         <v>48</v>
       </c>
@@ -2634,45 +2777,48 @@
       <c r="Z29" t="b">
         <v>1</v>
       </c>
-      <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G30" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="L30" s="10"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
       <c r="P30" t="s">
         <v>41</v>
       </c>
       <c r="Q30" t="s">
         <v>29</v>
       </c>
-      <c r="R30" s="4"/>
+      <c r="R30" s="3"/>
       <c r="W30" t="s">
         <v>48</v>
       </c>
@@ -2685,45 +2831,48 @@
       <c r="Z30" t="b">
         <v>1</v>
       </c>
-      <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="L31" s="10"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
       <c r="P31" t="s">
         <v>42</v>
       </c>
       <c r="Q31" t="s">
         <v>30</v>
       </c>
-      <c r="R31" s="4"/>
+      <c r="R31" s="3"/>
       <c r="W31" t="s">
         <v>48</v>
       </c>
@@ -2736,45 +2885,48 @@
       <c r="Z31" t="b">
         <v>1</v>
       </c>
-      <c r="AA31" s="4"/>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L32" s="10"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
       <c r="P32" t="s">
         <v>43</v>
       </c>
       <c r="Q32" t="s">
         <v>31</v>
       </c>
-      <c r="R32" s="4"/>
+      <c r="R32" s="3"/>
       <c r="W32" t="s">
         <v>48</v>
       </c>
@@ -2787,45 +2939,48 @@
       <c r="Z32" t="b">
         <v>0</v>
       </c>
-      <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I33" s="10" t="s">
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="L33" s="10"/>
+      <c r="H33" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L33" s="8"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
       <c r="P33" t="s">
         <v>44</v>
       </c>
       <c r="Q33" t="s">
         <v>32</v>
       </c>
-      <c r="R33" s="4"/>
+      <c r="R33" s="3"/>
       <c r="W33" t="s">
         <v>48</v>
       </c>
@@ -2838,45 +2993,48 @@
       <c r="Z33" t="b">
         <v>0</v>
       </c>
-      <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I34" s="10" t="s">
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="L34" s="10"/>
+      <c r="H34" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="K34" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
       <c r="P34" t="s">
         <v>44</v>
       </c>
       <c r="Q34" t="s">
         <v>33</v>
       </c>
-      <c r="R34" s="4"/>
+      <c r="R34" s="3"/>
       <c r="W34" t="s">
         <v>48</v>
       </c>
@@ -2889,45 +3047,48 @@
       <c r="Z34" t="b">
         <v>0</v>
       </c>
-      <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I35" s="10" t="s">
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="L35" s="10"/>
+      <c r="H35" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L35" s="8"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
       <c r="P35" t="s">
         <v>44</v>
       </c>
       <c r="Q35" t="s">
         <v>34</v>
       </c>
-      <c r="R35" s="4"/>
+      <c r="R35" s="3"/>
       <c r="W35" t="s">
         <v>48</v>
       </c>
@@ -2940,45 +3101,48 @@
       <c r="Z35" t="b">
         <v>0</v>
       </c>
-      <c r="AA35" s="4"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="L36" s="10"/>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
       <c r="P36" t="s">
         <v>44</v>
       </c>
       <c r="Q36" t="s">
         <v>35</v>
       </c>
-      <c r="R36" s="4"/>
+      <c r="R36" s="3"/>
       <c r="W36" t="s">
         <v>48</v>
       </c>
@@ -2991,45 +3155,48 @@
       <c r="Z36" t="b">
         <v>0</v>
       </c>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="I37" s="20" t="s">
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="L37" s="10"/>
+      <c r="H37" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="K37" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
       <c r="P37" t="s">
         <v>44</v>
       </c>
       <c r="Q37" t="s">
         <v>36</v>
       </c>
-      <c r="R37" s="4"/>
+      <c r="R37" s="3"/>
       <c r="W37" t="s">
         <v>48</v>
       </c>
@@ -3042,83 +3209,89 @@
       <c r="Z37" t="b">
         <v>0</v>
       </c>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="L38" s="10"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
       <c r="P38" t="s">
         <v>44</v>
       </c>
       <c r="Q38" t="s">
         <v>37</v>
       </c>
-      <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="G39" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="L39" s="10"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J39" s="12"/>
+      <c r="K39" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
       <c r="P39" t="s">
         <v>44</v>
       </c>
       <c r="Q39" t="s">
         <v>38</v>
       </c>
-      <c r="R39" s="4"/>
+      <c r="R39" s="3"/>
       <c r="W39" t="s">
         <v>50</v>
       </c>
@@ -3131,45 +3304,48 @@
       <c r="Z39" t="b">
         <v>1</v>
       </c>
-      <c r="AA39" s="4"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="G40" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="L40" s="10"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" s="12"/>
+      <c r="K40" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
       <c r="P40" t="s">
         <v>44</v>
       </c>
       <c r="Q40" t="s">
         <v>39</v>
       </c>
-      <c r="R40" s="4"/>
+      <c r="R40" s="3"/>
       <c r="W40" t="s">
         <v>50</v>
       </c>
@@ -3182,38 +3358,41 @@
       <c r="Z40" t="b">
         <v>1</v>
       </c>
-      <c r="AA40" s="4"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="G41" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="J41" s="15"/>
-      <c r="K41" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="L41" s="10"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L41" s="8"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
       <c r="W41" t="s">
         <v>50</v>
       </c>
@@ -3226,38 +3405,41 @@
       <c r="Z41" t="b">
         <v>1</v>
       </c>
-      <c r="AA41" s="4"/>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="G42" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="J42" s="15"/>
-      <c r="K42" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="L42" s="10"/>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J42" s="12"/>
+      <c r="K42" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
       <c r="W42" t="s">
         <v>50</v>
       </c>
@@ -3270,40 +3452,41 @@
       <c r="Z42" t="b">
         <v>1</v>
       </c>
-      <c r="AA42" s="4"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G43" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J43" s="15"/>
-      <c r="K43" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L43" s="8"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
       <c r="W43" t="s">
         <v>50</v>
       </c>
@@ -3316,38 +3499,41 @@
       <c r="Z43" t="b">
         <v>1</v>
       </c>
-      <c r="AA43" s="4"/>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L44" s="10"/>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
       <c r="W44" t="s">
         <v>50</v>
       </c>
@@ -3360,38 +3546,41 @@
       <c r="Z44" t="b">
         <v>1</v>
       </c>
-      <c r="AA44" s="4"/>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G45" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G45" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J45" s="15"/>
-      <c r="K45" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L45" s="10"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
       <c r="W45" t="s">
         <v>50</v>
       </c>
@@ -3404,38 +3593,41 @@
       <c r="Z45" t="b">
         <v>0</v>
       </c>
-      <c r="AA45" s="4"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D46" s="10" t="s">
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L46" s="10"/>
+      <c r="C46" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J46" s="13"/>
+      <c r="K46" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="L46" s="8"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
       <c r="P46" t="s">
         <v>61</v>
       </c>
@@ -3451,38 +3643,41 @@
       <c r="Z46" t="b">
         <v>0</v>
       </c>
-      <c r="AA46" s="4"/>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J47" s="15"/>
-      <c r="K47" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L47" s="10"/>
+      <c r="I47" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="L47" s="8"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
       <c r="P47" t="s">
         <v>57</v>
       </c>
@@ -3510,38 +3705,41 @@
       <c r="Z47" t="b">
         <v>0</v>
       </c>
-      <c r="AA47" s="4"/>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="L48" s="10"/>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L48" s="8"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
       <c r="P48" t="s">
         <v>20</v>
       </c>
@@ -3554,7 +3752,7 @@
       <c r="S48" t="b">
         <v>1</v>
       </c>
-      <c r="T48" s="4"/>
+      <c r="T48" s="3"/>
       <c r="W48" t="s">
         <v>50</v>
       </c>
@@ -3567,38 +3765,41 @@
       <c r="Z48" t="b">
         <v>0</v>
       </c>
-      <c r="AA48" s="4"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L49" s="10"/>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L49" s="8"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
       <c r="P49" t="s">
         <v>20</v>
       </c>
@@ -3611,7 +3812,7 @@
       <c r="S49" t="b">
         <v>1</v>
       </c>
-      <c r="T49" s="4"/>
+      <c r="T49" s="3"/>
       <c r="W49" t="s">
         <v>50</v>
       </c>
@@ -3624,38 +3825,41 @@
       <c r="Z49" t="b">
         <v>0</v>
       </c>
-      <c r="AA49" s="4"/>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G50" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G50" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="L50" s="10"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
       <c r="P50" t="s">
         <v>20</v>
       </c>
@@ -3668,7 +3872,7 @@
       <c r="S50" t="b">
         <v>1</v>
       </c>
-      <c r="T50" s="4"/>
+      <c r="T50" s="3"/>
       <c r="W50" t="s">
         <v>50</v>
       </c>
@@ -3681,38 +3885,41 @@
       <c r="Z50" t="b">
         <v>0</v>
       </c>
-      <c r="AA50" s="4"/>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J51" s="17"/>
-      <c r="K51" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L51" s="10"/>
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L51" s="8"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
       <c r="P51" t="s">
         <v>20</v>
       </c>
@@ -3725,38 +3932,41 @@
       <c r="S51" t="b">
         <v>1</v>
       </c>
-      <c r="T51" s="4"/>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J52" s="12"/>
+      <c r="K52" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G52" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J52" s="15"/>
-      <c r="K52" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="L52" s="10"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
       <c r="P52" t="s">
         <v>20</v>
       </c>
@@ -3769,7 +3979,7 @@
       <c r="S52" t="b">
         <v>1</v>
       </c>
-      <c r="T52" s="4"/>
+      <c r="T52" s="3"/>
       <c r="W52" t="s">
         <v>51</v>
       </c>
@@ -3782,38 +3992,41 @@
       <c r="Z52" t="b">
         <v>1</v>
       </c>
-      <c r="AA52" s="4"/>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="AA52" s="3"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G53" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J53" s="12"/>
+      <c r="K53" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G53" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J53" s="15"/>
-      <c r="K53" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="L53" s="10"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
       <c r="P53" t="s">
         <v>20</v>
       </c>
@@ -3826,7 +4039,7 @@
       <c r="S53" t="b">
         <v>1</v>
       </c>
-      <c r="T53" s="4"/>
+      <c r="T53" s="3"/>
       <c r="W53" t="s">
         <v>51</v>
       </c>
@@ -3839,38 +4052,41 @@
       <c r="Z53" t="b">
         <v>1</v>
       </c>
-      <c r="AA53" s="4"/>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="AA53" s="3"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G54" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J54" s="12"/>
+      <c r="K54" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G54" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J54" s="15"/>
-      <c r="K54" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="L54" s="10"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
       <c r="P54" t="s">
         <v>20</v>
       </c>
@@ -3883,7 +4099,7 @@
       <c r="S54" t="b">
         <v>1</v>
       </c>
-      <c r="T54" s="4"/>
+      <c r="T54" s="3"/>
       <c r="W54" t="s">
         <v>51</v>
       </c>
@@ -3896,38 +4112,41 @@
       <c r="Z54" t="b">
         <v>1</v>
       </c>
-      <c r="AA54" s="4"/>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J55" s="17"/>
-      <c r="K55" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L55" s="10"/>
+      <c r="AA54" s="3"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J55" s="13"/>
+      <c r="K55" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L55" s="8"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
       <c r="P55" t="s">
         <v>20</v>
       </c>
@@ -3940,7 +4159,7 @@
       <c r="S55" t="b">
         <v>1</v>
       </c>
-      <c r="T55" s="4"/>
+      <c r="T55" s="3"/>
       <c r="W55" t="s">
         <v>51</v>
       </c>
@@ -3953,38 +4172,41 @@
       <c r="Z55" t="b">
         <v>1</v>
       </c>
-      <c r="AA55" s="4"/>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G56" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J56" s="12"/>
+      <c r="K56" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G56" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J56" s="15"/>
-      <c r="K56" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L56" s="10"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
       <c r="P56" t="s">
         <v>20</v>
       </c>
@@ -3997,7 +4219,7 @@
       <c r="S56" t="b">
         <v>0</v>
       </c>
-      <c r="T56" s="4"/>
+      <c r="T56" s="3"/>
       <c r="W56" t="s">
         <v>51</v>
       </c>
@@ -4010,38 +4232,41 @@
       <c r="Z56" t="b">
         <v>1</v>
       </c>
-      <c r="AA56" s="4"/>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J57" s="17"/>
-      <c r="K57" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L57" s="10"/>
+      <c r="C57" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L57" s="8"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
       <c r="P57" t="s">
         <v>20</v>
       </c>
@@ -4054,7 +4279,7 @@
       <c r="S57" t="b">
         <v>0</v>
       </c>
-      <c r="T57" s="4"/>
+      <c r="T57" s="3"/>
       <c r="W57" t="s">
         <v>51</v>
       </c>
@@ -4067,38 +4292,41 @@
       <c r="Z57" t="b">
         <v>1</v>
       </c>
-      <c r="AA57" s="4"/>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J58" s="17"/>
-      <c r="K58" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L58" s="10"/>
+      <c r="AA57" s="3"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J58" s="13"/>
+      <c r="K58" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L58" s="8"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
       <c r="W58" t="s">
         <v>51</v>
       </c>
@@ -4111,38 +4339,41 @@
       <c r="Z58" t="b">
         <v>0</v>
       </c>
-      <c r="AA58" s="4"/>
-    </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J59" s="17"/>
-      <c r="K59" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L59" s="10"/>
+      <c r="AA58" s="3"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J59" s="13"/>
+      <c r="K59" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L59" s="8"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
       <c r="W59" t="s">
         <v>51</v>
       </c>
@@ -4155,36 +4386,39 @@
       <c r="Z59" t="b">
         <v>0</v>
       </c>
-      <c r="AA59" s="4"/>
-    </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I60" s="10"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="L60" s="10"/>
+      <c r="AA59" s="3"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="L60" s="8"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
       <c r="P60" t="s">
         <v>22</v>
       </c>
@@ -4197,7 +4431,7 @@
       <c r="S60" t="b">
         <v>1</v>
       </c>
-      <c r="T60" s="4"/>
+      <c r="T60" s="3"/>
       <c r="W60" t="s">
         <v>51</v>
       </c>
@@ -4210,36 +4444,39 @@
       <c r="Z60" t="b">
         <v>0</v>
       </c>
-      <c r="AA60" s="4"/>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L61" s="10"/>
+      <c r="AA60" s="3"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L61" s="8"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
       <c r="P61" t="s">
         <v>143</v>
       </c>
@@ -4252,7 +4489,7 @@
       <c r="S61" t="b">
         <v>1</v>
       </c>
-      <c r="T61" s="4"/>
+      <c r="T61" s="3"/>
       <c r="W61" t="s">
         <v>51</v>
       </c>
@@ -4265,36 +4502,39 @@
       <c r="Z61" t="b">
         <v>0</v>
       </c>
-      <c r="AA61" s="4"/>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I62" s="10"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L62" s="10"/>
+      <c r="AA61" s="3"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L62" s="8"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
       <c r="W62" t="s">
         <v>51</v>
       </c>
@@ -4307,36 +4547,39 @@
       <c r="Z62" t="b">
         <v>0</v>
       </c>
-      <c r="AA62" s="4"/>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L63" s="10"/>
+      <c r="AA62" s="3"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L63" s="8"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
       <c r="W63" t="s">
         <v>51</v>
       </c>
@@ -4349,65 +4592,71 @@
       <c r="Z63" t="b">
         <v>0</v>
       </c>
-      <c r="AA63" s="4"/>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I64" s="10"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L64" s="10"/>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L65" s="10"/>
+      <c r="AA63" s="3"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L64" s="8"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L65" s="8"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
       <c r="P65" t="s">
         <v>18</v>
       </c>
@@ -4420,7 +4669,7 @@
       <c r="S65" t="b">
         <v>1</v>
       </c>
-      <c r="T65" s="4"/>
+      <c r="T65" s="3"/>
       <c r="W65" t="s">
         <v>19</v>
       </c>
@@ -4433,36 +4682,39 @@
       <c r="Z65" t="b">
         <v>1</v>
       </c>
-      <c r="AA65" s="4"/>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I66" s="10"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L66" s="10"/>
+      <c r="AA65" s="3"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L66" s="8"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
       <c r="P66" t="s">
         <v>18</v>
       </c>
@@ -4475,7 +4727,7 @@
       <c r="S66" t="b">
         <v>1</v>
       </c>
-      <c r="T66" s="4"/>
+      <c r="T66" s="3"/>
       <c r="W66" t="s">
         <v>19</v>
       </c>
@@ -4488,36 +4740,39 @@
       <c r="Z66" t="b">
         <v>1</v>
       </c>
-      <c r="AA66" s="4"/>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I67" s="10"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L67" s="10"/>
+      <c r="AA66" s="3"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L67" s="8"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
       <c r="P67" t="s">
         <v>18</v>
       </c>
@@ -4530,7 +4785,7 @@
       <c r="S67" t="b">
         <v>1</v>
       </c>
-      <c r="T67" s="4"/>
+      <c r="T67" s="3"/>
       <c r="W67" t="s">
         <v>19</v>
       </c>
@@ -4543,36 +4798,39 @@
       <c r="Z67" t="b">
         <v>1</v>
       </c>
-      <c r="AA67" s="4"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I68" s="10"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L68" s="10"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L68" s="8"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
       <c r="P68" t="s">
         <v>18</v>
       </c>
@@ -4585,7 +4843,7 @@
       <c r="S68" t="b">
         <v>1</v>
       </c>
-      <c r="T68" s="4"/>
+      <c r="T68" s="3"/>
       <c r="W68" t="s">
         <v>19</v>
       </c>
@@ -4598,36 +4856,39 @@
       <c r="Z68" t="b">
         <v>1</v>
       </c>
-      <c r="AA68" s="4"/>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="I69" s="10"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L69" s="10"/>
+      <c r="AA68" s="3"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L69" s="8"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
       <c r="P69" t="s">
         <v>18</v>
       </c>
@@ -4640,7 +4901,7 @@
       <c r="S69" t="b">
         <v>1</v>
       </c>
-      <c r="T69" s="4"/>
+      <c r="T69" s="3"/>
       <c r="W69" t="s">
         <v>19</v>
       </c>
@@ -4653,9 +4914,23 @@
       <c r="Z69" t="b">
         <v>1</v>
       </c>
-      <c r="AA69" s="4"/>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA69" s="3"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
       <c r="P70" t="s">
         <v>18</v>
       </c>
@@ -4668,7 +4943,7 @@
       <c r="S70" t="b">
         <v>1</v>
       </c>
-      <c r="T70" s="4"/>
+      <c r="T70" s="3"/>
       <c r="W70" t="s">
         <v>19</v>
       </c>
@@ -4681,9 +4956,23 @@
       <c r="Z70" t="b">
         <v>1</v>
       </c>
-      <c r="AA70" s="4"/>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA70" s="3"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
       <c r="P71" t="s">
         <v>18</v>
       </c>
@@ -4696,7 +4985,7 @@
       <c r="S71" t="b">
         <v>1</v>
       </c>
-      <c r="T71" s="4"/>
+      <c r="T71" s="3"/>
       <c r="W71" t="s">
         <v>19</v>
       </c>
@@ -4709,9 +4998,23 @@
       <c r="Z71" t="b">
         <v>0</v>
       </c>
-      <c r="AA71" s="4"/>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA71" s="3"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
       <c r="P72" t="s">
         <v>18</v>
       </c>
@@ -4724,7 +5027,7 @@
       <c r="S72" t="b">
         <v>1</v>
       </c>
-      <c r="T72" s="4"/>
+      <c r="T72" s="3"/>
       <c r="W72" t="s">
         <v>19</v>
       </c>
@@ -4737,9 +5040,23 @@
       <c r="Z72" t="b">
         <v>0</v>
       </c>
-      <c r="AA72" s="4"/>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA72" s="3"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
       <c r="P73" t="s">
         <v>18</v>
       </c>
@@ -4752,7 +5069,7 @@
       <c r="S73" t="b">
         <v>0</v>
       </c>
-      <c r="T73" s="4"/>
+      <c r="T73" s="3"/>
       <c r="W73" t="s">
         <v>19</v>
       </c>
@@ -4765,9 +5082,23 @@
       <c r="Z73" t="b">
         <v>0</v>
       </c>
-      <c r="AA73" s="4"/>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA73" s="3"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
       <c r="P74" t="s">
         <v>18</v>
       </c>
@@ -4780,7 +5111,7 @@
       <c r="S74" t="b">
         <v>0</v>
       </c>
-      <c r="T74" s="4"/>
+      <c r="T74" s="3"/>
       <c r="W74" t="s">
         <v>19</v>
       </c>
@@ -4793,9 +5124,23 @@
       <c r="Z74" t="b">
         <v>0</v>
       </c>
-      <c r="AA74" s="4"/>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA74" s="3"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
       <c r="W75" t="s">
         <v>19</v>
       </c>
@@ -4808,9 +5153,23 @@
       <c r="Z75" t="b">
         <v>0</v>
       </c>
-      <c r="AA75" s="4"/>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA75" s="3"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
       <c r="P76" t="s">
         <v>19</v>
       </c>
@@ -4823,7 +5182,7 @@
       <c r="S76" t="b">
         <v>1</v>
       </c>
-      <c r="T76" s="4"/>
+      <c r="T76" s="3"/>
       <c r="W76" t="s">
         <v>19</v>
       </c>
@@ -4836,9 +5195,23 @@
       <c r="Z76" t="b">
         <v>0</v>
       </c>
-      <c r="AA76" s="4"/>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA76" s="3"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
       <c r="P77" t="s">
         <v>19</v>
       </c>
@@ -4851,9 +5224,23 @@
       <c r="S77" t="b">
         <v>1</v>
       </c>
-      <c r="T77" s="4"/>
-    </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T77" s="3"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
       <c r="P78" t="s">
         <v>19</v>
       </c>
@@ -4866,7 +5253,7 @@
       <c r="S78" t="b">
         <v>1</v>
       </c>
-      <c r="T78" s="4"/>
+      <c r="T78" s="3"/>
       <c r="W78" t="s">
         <v>20</v>
       </c>
@@ -4879,9 +5266,23 @@
       <c r="Z78" t="b">
         <v>1</v>
       </c>
-      <c r="AA78" s="4"/>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA78" s="3"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
       <c r="P79" t="s">
         <v>19</v>
       </c>
@@ -4894,7 +5295,7 @@
       <c r="S79" t="b">
         <v>1</v>
       </c>
-      <c r="T79" s="4"/>
+      <c r="T79" s="3"/>
       <c r="W79" t="s">
         <v>20</v>
       </c>
@@ -4907,9 +5308,23 @@
       <c r="Z79" t="b">
         <v>1</v>
       </c>
-      <c r="AA79" s="4"/>
-    </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA79" s="3"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
       <c r="P80" t="s">
         <v>19</v>
       </c>
@@ -4922,7 +5337,7 @@
       <c r="S80" t="b">
         <v>1</v>
       </c>
-      <c r="T80" s="4"/>
+      <c r="T80" s="3"/>
       <c r="W80" t="s">
         <v>20</v>
       </c>
@@ -4935,9 +5350,23 @@
       <c r="Z80" t="b">
         <v>1</v>
       </c>
-      <c r="AA80" s="4"/>
-    </row>
-    <row r="81" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA80" s="3"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
       <c r="P81" t="s">
         <v>19</v>
       </c>
@@ -4950,7 +5379,7 @@
       <c r="S81" t="b">
         <v>1</v>
       </c>
-      <c r="T81" s="4"/>
+      <c r="T81" s="3"/>
       <c r="W81" t="s">
         <v>20</v>
       </c>
@@ -4963,9 +5392,23 @@
       <c r="Z81" t="b">
         <v>1</v>
       </c>
-      <c r="AA81" s="4"/>
-    </row>
-    <row r="82" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA81" s="3"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
       <c r="P82" t="s">
         <v>19</v>
       </c>
@@ -4978,7 +5421,7 @@
       <c r="S82" t="b">
         <v>1</v>
       </c>
-      <c r="T82" s="4"/>
+      <c r="T82" s="3"/>
       <c r="W82" t="s">
         <v>20</v>
       </c>
@@ -4991,9 +5434,23 @@
       <c r="Z82" t="b">
         <v>1</v>
       </c>
-      <c r="AA82" s="4"/>
-    </row>
-    <row r="83" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
       <c r="P83" t="s">
         <v>19</v>
       </c>
@@ -5006,7 +5463,7 @@
       <c r="S83" t="b">
         <v>1</v>
       </c>
-      <c r="T83" s="4"/>
+      <c r="T83" s="3"/>
       <c r="W83" t="s">
         <v>20</v>
       </c>
@@ -5019,9 +5476,23 @@
       <c r="Z83" t="b">
         <v>1</v>
       </c>
-      <c r="AA83" s="4"/>
-    </row>
-    <row r="84" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA83" s="3"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
       <c r="P84" t="s">
         <v>19</v>
       </c>
@@ -5034,7 +5505,7 @@
       <c r="S84" t="b">
         <v>1</v>
       </c>
-      <c r="T84" s="4"/>
+      <c r="T84" s="3"/>
       <c r="W84" t="s">
         <v>20</v>
       </c>
@@ -5047,9 +5518,23 @@
       <c r="Z84" t="b">
         <v>0</v>
       </c>
-      <c r="AA84" s="4"/>
-    </row>
-    <row r="85" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA84" s="3"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
       <c r="P85" t="s">
         <v>19</v>
       </c>
@@ -5062,7 +5547,7 @@
       <c r="S85" t="b">
         <v>1</v>
       </c>
-      <c r="T85" s="4"/>
+      <c r="T85" s="3"/>
       <c r="W85" t="s">
         <v>20</v>
       </c>
@@ -5075,9 +5560,23 @@
       <c r="Z85" t="b">
         <v>0</v>
       </c>
-      <c r="AA85" s="4"/>
-    </row>
-    <row r="86" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA85" s="3"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
       <c r="P86" t="s">
         <v>19</v>
       </c>
@@ -5090,7 +5589,7 @@
       <c r="S86" t="b">
         <v>1</v>
       </c>
-      <c r="T86" s="4"/>
+      <c r="T86" s="3"/>
       <c r="W86" t="s">
         <v>20</v>
       </c>
@@ -5103,9 +5602,23 @@
       <c r="Z86" t="b">
         <v>0</v>
       </c>
-      <c r="AA86" s="4"/>
-    </row>
-    <row r="87" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA86" s="3"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
       <c r="P87" t="s">
         <v>19</v>
       </c>
@@ -5118,7 +5631,7 @@
       <c r="S87" t="b">
         <v>1</v>
       </c>
-      <c r="T87" s="4"/>
+      <c r="T87" s="3"/>
       <c r="W87" t="s">
         <v>20</v>
       </c>
@@ -5131,9 +5644,23 @@
       <c r="Z87" t="b">
         <v>0</v>
       </c>
-      <c r="AA87" s="4"/>
-    </row>
-    <row r="88" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA87" s="3"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
       <c r="P88" t="s">
         <v>19</v>
       </c>
@@ -5146,7 +5673,7 @@
       <c r="S88" t="b">
         <v>1</v>
       </c>
-      <c r="T88" s="4"/>
+      <c r="T88" s="3"/>
       <c r="W88" t="s">
         <v>20</v>
       </c>
@@ -5159,9 +5686,23 @@
       <c r="Z88" t="b">
         <v>0</v>
       </c>
-      <c r="AA88" s="4"/>
-    </row>
-    <row r="89" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA88" s="3"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
       <c r="P89" t="s">
         <v>19</v>
       </c>
@@ -5174,7 +5715,7 @@
       <c r="S89" t="b">
         <v>0</v>
       </c>
-      <c r="T89" s="4"/>
+      <c r="T89" s="3"/>
       <c r="W89" t="s">
         <v>20</v>
       </c>
@@ -5187,9 +5728,9 @@
       <c r="Z89" t="b">
         <v>0</v>
       </c>
-      <c r="AA89" s="4"/>
-    </row>
-    <row r="90" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA89" s="3"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P90" t="s">
         <v>19</v>
       </c>
@@ -5202,9 +5743,9 @@
       <c r="S90" t="b">
         <v>0</v>
       </c>
-      <c r="T90" s="4"/>
-    </row>
-    <row r="91" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W91" t="s">
         <v>21</v>
       </c>
@@ -5217,9 +5758,9 @@
       <c r="Z91" t="b">
         <v>1</v>
       </c>
-      <c r="AA91" s="4"/>
-    </row>
-    <row r="92" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA91" s="3"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P92" t="s">
         <v>0</v>
       </c>
@@ -5232,7 +5773,7 @@
       <c r="S92" t="b">
         <v>1</v>
       </c>
-      <c r="T92" s="4"/>
+      <c r="T92" s="3"/>
       <c r="W92" t="s">
         <v>21</v>
       </c>
@@ -5245,9 +5786,9 @@
       <c r="Z92" t="b">
         <v>1</v>
       </c>
-      <c r="AA92" s="4"/>
-    </row>
-    <row r="93" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA92" s="3"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P93" t="s">
         <v>0</v>
       </c>
@@ -5260,7 +5801,7 @@
       <c r="S93" t="b">
         <v>1</v>
       </c>
-      <c r="T93" s="4"/>
+      <c r="T93" s="3"/>
       <c r="W93" t="s">
         <v>21</v>
       </c>
@@ -5273,9 +5814,9 @@
       <c r="Z93" t="b">
         <v>1</v>
       </c>
-      <c r="AA93" s="4"/>
-    </row>
-    <row r="94" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA93" s="3"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P94" t="s">
         <v>0</v>
       </c>
@@ -5288,7 +5829,7 @@
       <c r="S94" t="b">
         <v>1</v>
       </c>
-      <c r="T94" s="4"/>
+      <c r="T94" s="3"/>
       <c r="W94" t="s">
         <v>21</v>
       </c>
@@ -5301,9 +5842,9 @@
       <c r="Z94" t="b">
         <v>1</v>
       </c>
-      <c r="AA94" s="4"/>
-    </row>
-    <row r="95" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA94" s="3"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P95" t="s">
         <v>0</v>
       </c>
@@ -5316,7 +5857,7 @@
       <c r="S95" t="b">
         <v>1</v>
       </c>
-      <c r="T95" s="4"/>
+      <c r="T95" s="3"/>
       <c r="W95" t="s">
         <v>21</v>
       </c>
@@ -5329,9 +5870,9 @@
       <c r="Z95" t="b">
         <v>1</v>
       </c>
-      <c r="AA95" s="4"/>
-    </row>
-    <row r="96" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P96" t="s">
         <v>0</v>
       </c>
@@ -5344,7 +5885,7 @@
       <c r="S96" t="b">
         <v>1</v>
       </c>
-      <c r="T96" s="4"/>
+      <c r="T96" s="3"/>
       <c r="W96" t="s">
         <v>21</v>
       </c>
@@ -5357,7 +5898,7 @@
       <c r="Z96" t="b">
         <v>1</v>
       </c>
-      <c r="AA96" s="4"/>
+      <c r="AA96" s="3"/>
     </row>
     <row r="97" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P97" t="s">
@@ -5372,7 +5913,7 @@
       <c r="S97" t="b">
         <v>1</v>
       </c>
-      <c r="T97" s="4"/>
+      <c r="T97" s="3"/>
       <c r="W97" t="s">
         <v>21</v>
       </c>
@@ -5385,7 +5926,7 @@
       <c r="Z97" t="b">
         <v>0</v>
       </c>
-      <c r="AA97" s="4"/>
+      <c r="AA97" s="3"/>
     </row>
     <row r="98" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P98" t="s">
@@ -5400,7 +5941,7 @@
       <c r="S98" t="b">
         <v>1</v>
       </c>
-      <c r="T98" s="4"/>
+      <c r="T98" s="3"/>
       <c r="W98" t="s">
         <v>21</v>
       </c>
@@ -5413,7 +5954,7 @@
       <c r="Z98" t="b">
         <v>0</v>
       </c>
-      <c r="AA98" s="4"/>
+      <c r="AA98" s="3"/>
     </row>
     <row r="99" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P99" t="s">
@@ -5428,7 +5969,7 @@
       <c r="S99" t="b">
         <v>1</v>
       </c>
-      <c r="T99" s="4"/>
+      <c r="T99" s="3"/>
       <c r="W99" t="s">
         <v>21</v>
       </c>
@@ -5441,7 +5982,7 @@
       <c r="Z99" t="b">
         <v>0</v>
       </c>
-      <c r="AA99" s="4"/>
+      <c r="AA99" s="3"/>
     </row>
     <row r="100" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P100" t="s">
@@ -5456,7 +5997,7 @@
       <c r="S100" t="b">
         <v>1</v>
       </c>
-      <c r="T100" s="4"/>
+      <c r="T100" s="3"/>
       <c r="W100" t="s">
         <v>21</v>
       </c>
@@ -5469,7 +6010,7 @@
       <c r="Z100" t="b">
         <v>0</v>
       </c>
-      <c r="AA100" s="4"/>
+      <c r="AA100" s="3"/>
     </row>
     <row r="101" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P101" t="s">
@@ -5484,7 +6025,7 @@
       <c r="S101" t="b">
         <v>1</v>
       </c>
-      <c r="T101" s="4"/>
+      <c r="T101" s="3"/>
       <c r="W101" t="s">
         <v>21</v>
       </c>
@@ -5497,7 +6038,7 @@
       <c r="Z101" t="b">
         <v>0</v>
       </c>
-      <c r="AA101" s="4"/>
+      <c r="AA101" s="3"/>
     </row>
     <row r="102" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P102" t="s">
@@ -5512,7 +6053,7 @@
       <c r="S102" t="b">
         <v>1</v>
       </c>
-      <c r="T102" s="4"/>
+      <c r="T102" s="3"/>
       <c r="W102" t="s">
         <v>21</v>
       </c>
@@ -5525,7 +6066,7 @@
       <c r="Z102" t="b">
         <v>0</v>
       </c>
-      <c r="AA102" s="4"/>
+      <c r="AA102" s="3"/>
     </row>
     <row r="103" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P103" t="s">
@@ -5540,7 +6081,7 @@
       <c r="S103" t="b">
         <v>1</v>
       </c>
-      <c r="T103" s="4"/>
+      <c r="T103" s="3"/>
     </row>
     <row r="104" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P104" t="s">
@@ -5555,7 +6096,7 @@
       <c r="S104" t="b">
         <v>1</v>
       </c>
-      <c r="T104" s="4"/>
+      <c r="T104" s="3"/>
       <c r="W104" t="s">
         <v>23</v>
       </c>
@@ -5568,7 +6109,7 @@
       <c r="Z104" t="b">
         <v>1</v>
       </c>
-      <c r="AA104" s="4"/>
+      <c r="AA104" s="3"/>
     </row>
     <row r="105" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P105" t="s">
@@ -5583,7 +6124,7 @@
       <c r="S105" t="b">
         <v>1</v>
       </c>
-      <c r="T105" s="4"/>
+      <c r="T105" s="3"/>
       <c r="W105" t="s">
         <v>23</v>
       </c>
@@ -5596,7 +6137,7 @@
       <c r="Z105" t="b">
         <v>1</v>
       </c>
-      <c r="AA105" s="4"/>
+      <c r="AA105" s="3"/>
     </row>
     <row r="106" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P106" t="s">
@@ -5611,7 +6152,7 @@
       <c r="S106" t="b">
         <v>0</v>
       </c>
-      <c r="T106" s="4"/>
+      <c r="T106" s="3"/>
       <c r="W106" t="s">
         <v>23</v>
       </c>
@@ -5624,7 +6165,7 @@
       <c r="Z106" t="b">
         <v>1</v>
       </c>
-      <c r="AA106" s="4"/>
+      <c r="AA106" s="3"/>
     </row>
     <row r="107" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P107" t="s">
@@ -5639,7 +6180,7 @@
       <c r="S107" t="b">
         <v>0</v>
       </c>
-      <c r="T107" s="4"/>
+      <c r="T107" s="3"/>
       <c r="W107" t="s">
         <v>23</v>
       </c>
@@ -5652,7 +6193,7 @@
       <c r="Z107" t="b">
         <v>1</v>
       </c>
-      <c r="AA107" s="4"/>
+      <c r="AA107" s="3"/>
     </row>
     <row r="108" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W108" t="s">
@@ -5667,7 +6208,7 @@
       <c r="Z108" t="b">
         <v>1</v>
       </c>
-      <c r="AA108" s="4"/>
+      <c r="AA108" s="3"/>
     </row>
     <row r="109" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P109" t="s">
@@ -5682,7 +6223,7 @@
       <c r="S109" t="b">
         <v>1</v>
       </c>
-      <c r="T109" s="4"/>
+      <c r="T109" s="3"/>
       <c r="W109" t="s">
         <v>23</v>
       </c>
@@ -5695,7 +6236,7 @@
       <c r="Z109" t="b">
         <v>1</v>
       </c>
-      <c r="AA109" s="4"/>
+      <c r="AA109" s="3"/>
     </row>
     <row r="110" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P110" t="s">
@@ -5710,7 +6251,7 @@
       <c r="S110" t="b">
         <v>1</v>
       </c>
-      <c r="T110" s="4"/>
+      <c r="T110" s="3"/>
       <c r="W110" t="s">
         <v>23</v>
       </c>
@@ -5723,7 +6264,7 @@
       <c r="Z110" t="b">
         <v>0</v>
       </c>
-      <c r="AA110" s="4"/>
+      <c r="AA110" s="3"/>
     </row>
     <row r="111" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P111" t="s">
@@ -5738,7 +6279,7 @@
       <c r="S111" t="b">
         <v>1</v>
       </c>
-      <c r="T111" s="4"/>
+      <c r="T111" s="3"/>
       <c r="W111" t="s">
         <v>23</v>
       </c>
@@ -5751,7 +6292,7 @@
       <c r="Z111" t="b">
         <v>0</v>
       </c>
-      <c r="AA111" s="4"/>
+      <c r="AA111" s="3"/>
     </row>
     <row r="112" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P112" t="s">
@@ -5766,7 +6307,7 @@
       <c r="S112" t="b">
         <v>1</v>
       </c>
-      <c r="T112" s="4"/>
+      <c r="T112" s="3"/>
       <c r="W112" t="s">
         <v>23</v>
       </c>
@@ -5779,7 +6320,7 @@
       <c r="Z112" t="b">
         <v>0</v>
       </c>
-      <c r="AA112" s="4"/>
+      <c r="AA112" s="3"/>
     </row>
     <row r="113" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P113" t="s">
@@ -5794,7 +6335,7 @@
       <c r="S113" t="b">
         <v>1</v>
       </c>
-      <c r="T113" s="4"/>
+      <c r="T113" s="3"/>
       <c r="W113" t="s">
         <v>23</v>
       </c>
@@ -5807,7 +6348,7 @@
       <c r="Z113" t="b">
         <v>0</v>
       </c>
-      <c r="AA113" s="4"/>
+      <c r="AA113" s="3"/>
     </row>
     <row r="114" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P114" t="s">
@@ -5822,7 +6363,7 @@
       <c r="S114" t="b">
         <v>1</v>
       </c>
-      <c r="T114" s="4"/>
+      <c r="T114" s="3"/>
       <c r="W114" t="s">
         <v>23</v>
       </c>
@@ -5835,7 +6376,7 @@
       <c r="Z114" t="b">
         <v>0</v>
       </c>
-      <c r="AA114" s="4"/>
+      <c r="AA114" s="3"/>
     </row>
     <row r="115" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P115" t="s">
@@ -5850,7 +6391,7 @@
       <c r="S115" t="b">
         <v>1</v>
       </c>
-      <c r="T115" s="4"/>
+      <c r="T115" s="3"/>
       <c r="W115" t="s">
         <v>23</v>
       </c>
@@ -5863,7 +6404,7 @@
       <c r="Z115" t="b">
         <v>0</v>
       </c>
-      <c r="AA115" s="4"/>
+      <c r="AA115" s="3"/>
     </row>
     <row r="116" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P116" t="s">
@@ -5878,7 +6419,7 @@
       <c r="S116" t="b">
         <v>1</v>
       </c>
-      <c r="T116" s="4"/>
+      <c r="T116" s="3"/>
     </row>
     <row r="117" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P117" t="s">
@@ -5893,7 +6434,7 @@
       <c r="S117" t="b">
         <v>1</v>
       </c>
-      <c r="T117" s="4"/>
+      <c r="T117" s="3"/>
       <c r="W117" t="s">
         <v>52</v>
       </c>
@@ -5906,7 +6447,7 @@
       <c r="Z117" t="b">
         <v>1</v>
       </c>
-      <c r="AA117" s="4"/>
+      <c r="AA117" s="3"/>
     </row>
     <row r="118" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P118" t="s">
@@ -5921,7 +6462,7 @@
       <c r="S118" t="b">
         <v>1</v>
       </c>
-      <c r="T118" s="4"/>
+      <c r="T118" s="3"/>
       <c r="W118" t="s">
         <v>52</v>
       </c>
@@ -5934,7 +6475,7 @@
       <c r="Z118" t="b">
         <v>1</v>
       </c>
-      <c r="AA118" s="4"/>
+      <c r="AA118" s="3"/>
     </row>
     <row r="119" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P119" t="s">
@@ -5949,7 +6490,7 @@
       <c r="S119" t="b">
         <v>1</v>
       </c>
-      <c r="T119" s="4"/>
+      <c r="T119" s="3"/>
       <c r="W119" t="s">
         <v>52</v>
       </c>
@@ -5962,7 +6503,7 @@
       <c r="Z119" t="b">
         <v>1</v>
       </c>
-      <c r="AA119" s="4"/>
+      <c r="AA119" s="3"/>
     </row>
     <row r="120" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P120" t="s">
@@ -5977,7 +6518,7 @@
       <c r="S120" t="b">
         <v>1</v>
       </c>
-      <c r="T120" s="4"/>
+      <c r="T120" s="3"/>
       <c r="W120" t="s">
         <v>52</v>
       </c>
@@ -5990,7 +6531,7 @@
       <c r="Z120" t="b">
         <v>1</v>
       </c>
-      <c r="AA120" s="4"/>
+      <c r="AA120" s="3"/>
     </row>
     <row r="121" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P121" t="s">
@@ -6005,7 +6546,7 @@
       <c r="S121" t="b">
         <v>1</v>
       </c>
-      <c r="T121" s="4"/>
+      <c r="T121" s="3"/>
       <c r="W121" t="s">
         <v>52</v>
       </c>
@@ -6018,7 +6559,7 @@
       <c r="Z121" t="b">
         <v>1</v>
       </c>
-      <c r="AA121" s="4"/>
+      <c r="AA121" s="3"/>
     </row>
     <row r="122" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P122" t="s">
@@ -6033,7 +6574,7 @@
       <c r="S122" t="b">
         <v>1</v>
       </c>
-      <c r="T122" s="4"/>
+      <c r="T122" s="3"/>
       <c r="W122" t="s">
         <v>52</v>
       </c>
@@ -6046,7 +6587,7 @@
       <c r="Z122" t="b">
         <v>1</v>
       </c>
-      <c r="AA122" s="4"/>
+      <c r="AA122" s="3"/>
     </row>
     <row r="123" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P123" t="s">
@@ -6061,7 +6602,7 @@
       <c r="S123" t="b">
         <v>1</v>
       </c>
-      <c r="T123" s="4"/>
+      <c r="T123" s="3"/>
       <c r="W123" t="s">
         <v>52</v>
       </c>
@@ -6074,7 +6615,7 @@
       <c r="Z123" t="b">
         <v>0</v>
       </c>
-      <c r="AA123" s="4"/>
+      <c r="AA123" s="3"/>
     </row>
     <row r="124" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P124" t="s">
@@ -6089,7 +6630,7 @@
       <c r="S124" t="b">
         <v>1</v>
       </c>
-      <c r="T124" s="4"/>
+      <c r="T124" s="3"/>
       <c r="W124" t="s">
         <v>52</v>
       </c>
@@ -6102,7 +6643,7 @@
       <c r="Z124" t="b">
         <v>0</v>
       </c>
-      <c r="AA124" s="4"/>
+      <c r="AA124" s="3"/>
     </row>
     <row r="125" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P125" t="s">
@@ -6117,7 +6658,7 @@
       <c r="S125" t="b">
         <v>1</v>
       </c>
-      <c r="T125" s="4"/>
+      <c r="T125" s="3"/>
       <c r="W125" t="s">
         <v>52</v>
       </c>
@@ -6130,7 +6671,7 @@
       <c r="Z125" t="b">
         <v>0</v>
       </c>
-      <c r="AA125" s="4"/>
+      <c r="AA125" s="3"/>
     </row>
     <row r="126" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P126" t="s">
@@ -6145,7 +6686,7 @@
       <c r="S126" t="b">
         <v>1</v>
       </c>
-      <c r="T126" s="4"/>
+      <c r="T126" s="3"/>
       <c r="W126" t="s">
         <v>52</v>
       </c>
@@ -6158,7 +6699,7 @@
       <c r="Z126" t="b">
         <v>0</v>
       </c>
-      <c r="AA126" s="4"/>
+      <c r="AA126" s="3"/>
     </row>
     <row r="127" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P127" t="s">
@@ -6173,7 +6714,7 @@
       <c r="S127" t="b">
         <v>1</v>
       </c>
-      <c r="T127" s="4"/>
+      <c r="T127" s="3"/>
       <c r="W127" t="s">
         <v>52</v>
       </c>
@@ -6186,7 +6727,7 @@
       <c r="Z127" t="b">
         <v>0</v>
       </c>
-      <c r="AA127" s="4"/>
+      <c r="AA127" s="3"/>
     </row>
     <row r="128" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P128" t="s">
@@ -6201,7 +6742,7 @@
       <c r="S128" t="b">
         <v>1</v>
       </c>
-      <c r="T128" s="4"/>
+      <c r="T128" s="3"/>
       <c r="W128" t="s">
         <v>52</v>
       </c>
@@ -6214,7 +6755,7 @@
       <c r="Z128" t="b">
         <v>0</v>
       </c>
-      <c r="AA128" s="4"/>
+      <c r="AA128" s="3"/>
     </row>
     <row r="129" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P129" t="s">
@@ -6229,7 +6770,7 @@
       <c r="S129" t="b">
         <v>1</v>
       </c>
-      <c r="T129" s="4"/>
+      <c r="T129" s="3"/>
     </row>
     <row r="130" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P130" t="s">
@@ -6244,7 +6785,7 @@
       <c r="S130" t="b">
         <v>1</v>
       </c>
-      <c r="T130" s="4"/>
+      <c r="T130" s="3"/>
       <c r="W130" t="s">
         <v>40</v>
       </c>
@@ -6257,7 +6798,7 @@
       <c r="Z130" t="b">
         <v>1</v>
       </c>
-      <c r="AA130" s="4"/>
+      <c r="AA130" s="3"/>
     </row>
     <row r="131" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P131" t="s">
@@ -6272,7 +6813,7 @@
       <c r="S131" t="b">
         <v>1</v>
       </c>
-      <c r="T131" s="4"/>
+      <c r="T131" s="3"/>
       <c r="W131" t="s">
         <v>40</v>
       </c>
@@ -6285,7 +6826,7 @@
       <c r="Z131" t="b">
         <v>1</v>
       </c>
-      <c r="AA131" s="4"/>
+      <c r="AA131" s="3"/>
     </row>
     <row r="132" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P132" t="s">
@@ -6300,7 +6841,7 @@
       <c r="S132" t="b">
         <v>1</v>
       </c>
-      <c r="T132" s="4"/>
+      <c r="T132" s="3"/>
       <c r="W132" t="s">
         <v>40</v>
       </c>
@@ -6313,7 +6854,7 @@
       <c r="Z132" t="b">
         <v>1</v>
       </c>
-      <c r="AA132" s="4"/>
+      <c r="AA132" s="3"/>
     </row>
     <row r="133" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P133" t="s">
@@ -6328,7 +6869,7 @@
       <c r="S133" t="b">
         <v>1</v>
       </c>
-      <c r="T133" s="4"/>
+      <c r="T133" s="3"/>
       <c r="W133" t="s">
         <v>40</v>
       </c>
@@ -6341,7 +6882,7 @@
       <c r="Z133" t="b">
         <v>1</v>
       </c>
-      <c r="AA133" s="4"/>
+      <c r="AA133" s="3"/>
     </row>
     <row r="134" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P134" t="s">
@@ -6356,7 +6897,7 @@
       <c r="S134" t="b">
         <v>1</v>
       </c>
-      <c r="T134" s="4"/>
+      <c r="T134" s="3"/>
       <c r="W134" t="s">
         <v>40</v>
       </c>
@@ -6369,7 +6910,7 @@
       <c r="Z134" t="b">
         <v>1</v>
       </c>
-      <c r="AA134" s="4"/>
+      <c r="AA134" s="3"/>
     </row>
     <row r="135" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P135" t="s">
@@ -6384,7 +6925,7 @@
       <c r="S135" t="b">
         <v>1</v>
       </c>
-      <c r="T135" s="4"/>
+      <c r="T135" s="3"/>
       <c r="W135" t="s">
         <v>40</v>
       </c>
@@ -6397,7 +6938,7 @@
       <c r="Z135" t="b">
         <v>1</v>
       </c>
-      <c r="AA135" s="4"/>
+      <c r="AA135" s="3"/>
     </row>
     <row r="136" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P136" t="s">
@@ -6412,7 +6953,7 @@
       <c r="S136" t="b">
         <v>0</v>
       </c>
-      <c r="T136" s="4"/>
+      <c r="T136" s="3"/>
       <c r="W136" t="s">
         <v>40</v>
       </c>
@@ -6425,7 +6966,7 @@
       <c r="Z136" t="b">
         <v>0</v>
       </c>
-      <c r="AA136" s="4"/>
+      <c r="AA136" s="3"/>
     </row>
     <row r="137" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P137" t="s">
@@ -6440,7 +6981,7 @@
       <c r="S137" t="b">
         <v>0</v>
       </c>
-      <c r="T137" s="4"/>
+      <c r="T137" s="3"/>
       <c r="W137" t="s">
         <v>40</v>
       </c>
@@ -6453,7 +6994,7 @@
       <c r="Z137" t="b">
         <v>0</v>
       </c>
-      <c r="AA137" s="4"/>
+      <c r="AA137" s="3"/>
     </row>
     <row r="138" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W138" t="s">
@@ -6468,7 +7009,7 @@
       <c r="Z138" t="b">
         <v>0</v>
       </c>
-      <c r="AA138" s="4"/>
+      <c r="AA138" s="3"/>
     </row>
     <row r="139" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W139" t="s">
@@ -6483,7 +7024,7 @@
       <c r="Z139" t="b">
         <v>0</v>
       </c>
-      <c r="AA139" s="4"/>
+      <c r="AA139" s="3"/>
     </row>
     <row r="140" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P140" t="s">
@@ -6501,7 +7042,7 @@
       <c r="Z140" t="b">
         <v>0</v>
       </c>
-      <c r="AA140" s="4"/>
+      <c r="AA140" s="3"/>
     </row>
     <row r="141" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P141" t="s">
@@ -6522,7 +7063,7 @@
       <c r="Z141" t="b">
         <v>0</v>
       </c>
-      <c r="AA141" s="4"/>
+      <c r="AA141" s="3"/>
     </row>
     <row r="142" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P142" t="s">
@@ -6536,7 +7077,7 @@
       <c r="P143" t="b">
         <v>1</v>
       </c>
-      <c r="Q143" s="5" t="b">
+      <c r="Q143" s="4" t="b">
         <v>1</v>
       </c>
       <c r="W143" t="s">
@@ -6551,7 +7092,7 @@
       <c r="Z143" t="b">
         <v>1</v>
       </c>
-      <c r="AA143" s="4"/>
+      <c r="AA143" s="3"/>
     </row>
     <row r="144" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W144" t="s">
@@ -6566,7 +7107,7 @@
       <c r="Z144" t="b">
         <v>1</v>
       </c>
-      <c r="AA144" s="4"/>
+      <c r="AA144" s="3"/>
     </row>
     <row r="145" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P145" t="s">
@@ -6584,7 +7125,7 @@
       <c r="Z145" t="b">
         <v>1</v>
       </c>
-      <c r="AA145" s="4"/>
+      <c r="AA145" s="3"/>
     </row>
     <row r="146" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P146" t="s">
@@ -6605,7 +7146,7 @@
       <c r="Z146" t="b">
         <v>1</v>
       </c>
-      <c r="AA146" s="4"/>
+      <c r="AA146" s="3"/>
     </row>
     <row r="147" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P147" t="s">
@@ -6626,13 +7167,13 @@
       <c r="Z147" t="b">
         <v>1</v>
       </c>
-      <c r="AA147" s="4"/>
+      <c r="AA147" s="3"/>
     </row>
     <row r="148" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P148" t="b">
         <v>1</v>
       </c>
-      <c r="Q148" s="5" t="b">
+      <c r="Q148" s="4" t="b">
         <v>1</v>
       </c>
       <c r="W148" t="s">
@@ -6647,7 +7188,7 @@
       <c r="Z148" t="b">
         <v>1</v>
       </c>
-      <c r="AA148" s="4"/>
+      <c r="AA148" s="3"/>
     </row>
     <row r="149" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W149" t="s">
@@ -6662,7 +7203,7 @@
       <c r="Z149" t="b">
         <v>0</v>
       </c>
-      <c r="AA149" s="4"/>
+      <c r="AA149" s="3"/>
     </row>
     <row r="150" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W150" t="s">
@@ -6677,7 +7218,7 @@
       <c r="Z150" t="b">
         <v>0</v>
       </c>
-      <c r="AA150" s="4"/>
+      <c r="AA150" s="3"/>
     </row>
     <row r="151" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W151" t="s">
@@ -6692,7 +7233,7 @@
       <c r="Z151" t="b">
         <v>0</v>
       </c>
-      <c r="AA151" s="4"/>
+      <c r="AA151" s="3"/>
     </row>
     <row r="152" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W152" t="s">
@@ -6707,7 +7248,7 @@
       <c r="Z152" t="b">
         <v>0</v>
       </c>
-      <c r="AA152" s="4"/>
+      <c r="AA152" s="3"/>
     </row>
     <row r="153" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W153" t="s">
@@ -6722,7 +7263,7 @@
       <c r="Z153" t="b">
         <v>0</v>
       </c>
-      <c r="AA153" s="4"/>
+      <c r="AA153" s="3"/>
     </row>
     <row r="154" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W154" t="s">
@@ -6737,7 +7278,7 @@
       <c r="Z154" t="b">
         <v>0</v>
       </c>
-      <c r="AA154" s="4"/>
+      <c r="AA154" s="3"/>
     </row>
     <row r="156" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W156" t="s">
@@ -6752,7 +7293,7 @@
       <c r="Z156" t="b">
         <v>1</v>
       </c>
-      <c r="AA156" s="4"/>
+      <c r="AA156" s="3"/>
     </row>
     <row r="157" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W157" t="s">
@@ -6767,7 +7308,7 @@
       <c r="Z157" t="b">
         <v>1</v>
       </c>
-      <c r="AA157" s="4"/>
+      <c r="AA157" s="3"/>
     </row>
     <row r="158" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W158" t="s">
@@ -6782,7 +7323,7 @@
       <c r="Z158" t="b">
         <v>1</v>
       </c>
-      <c r="AA158" s="4"/>
+      <c r="AA158" s="3"/>
     </row>
     <row r="159" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W159" t="s">
@@ -6797,7 +7338,7 @@
       <c r="Z159" t="b">
         <v>1</v>
       </c>
-      <c r="AA159" s="4"/>
+      <c r="AA159" s="3"/>
     </row>
     <row r="160" spans="16:27" x14ac:dyDescent="0.25">
       <c r="W160" t="s">
@@ -6812,7 +7353,7 @@
       <c r="Z160" t="b">
         <v>1</v>
       </c>
-      <c r="AA160" s="4"/>
+      <c r="AA160" s="3"/>
     </row>
     <row r="161" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W161" t="s">
@@ -6827,7 +7368,7 @@
       <c r="Z161" t="b">
         <v>1</v>
       </c>
-      <c r="AA161" s="4"/>
+      <c r="AA161" s="3"/>
     </row>
     <row r="162" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W162" t="s">
@@ -6842,7 +7383,7 @@
       <c r="Z162" t="b">
         <v>0</v>
       </c>
-      <c r="AA162" s="4"/>
+      <c r="AA162" s="3"/>
     </row>
     <row r="163" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W163" t="s">
@@ -6857,7 +7398,7 @@
       <c r="Z163" t="b">
         <v>0</v>
       </c>
-      <c r="AA163" s="4"/>
+      <c r="AA163" s="3"/>
     </row>
     <row r="164" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W164" t="s">
@@ -6872,7 +7413,7 @@
       <c r="Z164" t="b">
         <v>0</v>
       </c>
-      <c r="AA164" s="4"/>
+      <c r="AA164" s="3"/>
     </row>
     <row r="165" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W165" t="s">
@@ -6887,7 +7428,7 @@
       <c r="Z165" t="b">
         <v>0</v>
       </c>
-      <c r="AA165" s="4"/>
+      <c r="AA165" s="3"/>
     </row>
     <row r="166" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W166" t="s">
@@ -6902,7 +7443,7 @@
       <c r="Z166" t="b">
         <v>0</v>
       </c>
-      <c r="AA166" s="4"/>
+      <c r="AA166" s="3"/>
     </row>
     <row r="167" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W167" t="s">
@@ -6917,7 +7458,7 @@
       <c r="Z167" t="b">
         <v>0</v>
       </c>
-      <c r="AA167" s="4"/>
+      <c r="AA167" s="3"/>
     </row>
     <row r="169" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W169" t="s">
@@ -6932,7 +7473,7 @@
       <c r="Z169" t="b">
         <v>1</v>
       </c>
-      <c r="AA169" s="4"/>
+      <c r="AA169" s="3"/>
     </row>
     <row r="170" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W170" t="s">
@@ -6947,7 +7488,7 @@
       <c r="Z170" t="b">
         <v>1</v>
       </c>
-      <c r="AA170" s="4"/>
+      <c r="AA170" s="3"/>
     </row>
     <row r="171" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W171" t="s">
@@ -6962,7 +7503,7 @@
       <c r="Z171" t="b">
         <v>1</v>
       </c>
-      <c r="AA171" s="4"/>
+      <c r="AA171" s="3"/>
     </row>
     <row r="172" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W172" t="s">
@@ -6977,7 +7518,7 @@
       <c r="Z172" t="b">
         <v>1</v>
       </c>
-      <c r="AA172" s="4"/>
+      <c r="AA172" s="3"/>
     </row>
     <row r="173" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W173" t="s">
@@ -6992,7 +7533,7 @@
       <c r="Z173" t="b">
         <v>1</v>
       </c>
-      <c r="AA173" s="4"/>
+      <c r="AA173" s="3"/>
     </row>
     <row r="174" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W174" t="s">
@@ -7007,7 +7548,7 @@
       <c r="Z174" t="b">
         <v>1</v>
       </c>
-      <c r="AA174" s="4"/>
+      <c r="AA174" s="3"/>
     </row>
     <row r="175" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W175" t="s">
@@ -7022,7 +7563,7 @@
       <c r="Z175" t="b">
         <v>0</v>
       </c>
-      <c r="AA175" s="4"/>
+      <c r="AA175" s="3"/>
     </row>
     <row r="176" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W176" t="s">
@@ -7037,7 +7578,7 @@
       <c r="Z176" t="b">
         <v>0</v>
       </c>
-      <c r="AA176" s="4"/>
+      <c r="AA176" s="3"/>
     </row>
     <row r="177" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W177" t="s">
@@ -7052,7 +7593,7 @@
       <c r="Z177" t="b">
         <v>0</v>
       </c>
-      <c r="AA177" s="4"/>
+      <c r="AA177" s="3"/>
     </row>
     <row r="178" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W178" t="s">
@@ -7067,7 +7608,7 @@
       <c r="Z178" t="b">
         <v>0</v>
       </c>
-      <c r="AA178" s="4"/>
+      <c r="AA178" s="3"/>
     </row>
     <row r="179" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W179" t="s">
@@ -7082,7 +7623,7 @@
       <c r="Z179" t="b">
         <v>0</v>
       </c>
-      <c r="AA179" s="4"/>
+      <c r="AA179" s="3"/>
     </row>
     <row r="180" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W180" t="s">
@@ -7097,12 +7638,12 @@
       <c r="Z180" t="b">
         <v>0</v>
       </c>
-      <c r="AA180" s="4"/>
+      <c r="AA180" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="O3:AH3"/>
-    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
